--- a/네이버 쇼핑.xlsx
+++ b/네이버 쇼핑.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
@@ -30,94 +30,154 @@
     <x:t>가격</x:t>
   </x:si>
   <x:si>
-    <x:t>프리플로우 Vuti27F18PQ QHD Fast IPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=iHPeCib0D9Nn3jWw/NjB5v///w==kOT7CyJJvzeAcutF3pY6b8vqt/00PHI6T0LO2uC7HJPtcYzDdrKRwvc1ehMhpRIP54Ny8jSmwmgpAJZBzk85qJ9dDgFO/7kOn17b6eEz5UvOzoKMgjwofFzgY6ZFtfimDxaqAhdVNHVPG/8/piuAsHlYMgA21g0eTkfvn8BHDyOLbAUC7LgYee/MrbhuyFxHj8EwVB562nBMRO2TBHKkB/vk0nUofXhwEt7pImmVipI5Dsbj1TKVntTLr5gQj1UHNwlItRd0GltABnOuLx9ocCylfOe2H+iUGTvbNzsjLZDbQ7u4mTTRcNmzDNDvQi8ZhGDqOW7d7vypCiGRArkki8caqpl8LNbtEM15Vwi866DnHHg1xfvQb4yVcF33NyFVqxOb7WaG1fhAusr0KUT82SOHuIzEexYjO0IT7yu1pVXiYx7zEWu0zgT4FI/yMKs7lANxkGfhH6z1nLZi9u+IEIjidpOcugHLiOmBgkrsJ8IP0GokVn8Vaw2EVC96X60xNiZdSDlrOJkgZwrdP7HNTdXATGLJjIkz6ZDfCw0d5xz8i5nc/lCDMs9evT92CzOwbti9vwPdX3lPd5dZJNicwzoRUyR9qoAxRwZq+qOSDea8WElTkfTZa4T+IcW+qA7VwgGKmtn2gwveM3fBuZXYn0sE5ZnHQJnIGp8an4ErvIkShqVTYHP4rTh+lnd1AwSOvNWd9hNZbL2KjMpNwKWWctIFfoyJMjo72bgNdfW0+QGqPUgMZPEIYX2U68F68GGOS3mG2oxesuFpdXE9bito7XcJiu8rqfnaqnPxTY+18NdM=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG27Q24P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=AGu9srMkTwAQo3tys2vIGf///w==kOypbg/9Z+BlxR5RZVP6pIcq8h8mTBkibQZgynKWJqH1FSyhrOpoRqxObrMchZZZ9Vk/+Zau4VzlNaznOAMkUy6Fr/qsrewq92h+svl/9GrXfzw0pf8Sm+64ZIuD8gHUQ0PJfptyEFIbAvSQkzFtSkh/NuGrUA94WLQAQGV3b5ZIc7rmpiWe6LCS/nG+rgWr+/JGRw/2snsRcW6sy3FvYODDY5m1xyQJfMRxIC8c0zH1wK1m7bc9SoDyZjJZBnBd53FOK5XIFHoOORP4WLExNJ4clgLPgQDmcd4LvdtYns1u86wTWAAyntVpHwmmI4RP95pi31H1I8LWijmCXpPXFekQTG/oA4WjfCeptR1918YhatlsH2BAhXBZcK0rkvOL27NidcTIY4dCIJ8qO9moedioCiu1VYM6F4fnVnU9CjpkRKaj+pMv2phhXF2y9kT1D3YwOfxFHUx5dmmA9vBw/Y63hrmlFYVlfYqu3CQJRJ/6DSC/badS8m08xhS6cnQbWcYRm4WgwDdqPDZ+9ibpLeFXo9Es6Jj/w6xPaqdG3xwb+xzDv89rbiuj24ZwuGDSfgHkb3uRr9L7Ju23XFfAJlM4zjFBGshZMY8IUi1Tio1+b/7MgA2iXfnYD7SU+m7K6wT4AhRPbA9FtT8JcmypnQKuajZzWX4+bxkBena1HX7yvysOorrwBVVh32FF6OHIM2EZMXoo3VrL2sYolgAakFjcTKilrFuHQZYn8QCBt8Xt0m4LozFGPZLOiCa4G9Dbxk9iZfzvUUZ/UDIAnXyyKbHh8vST46XLrA+3SjXPUfyQ=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프리플로우 Vuti32F16PQ QHD IPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=6+8h8Rf7HSoOyx84QoGmvv///w==kFY/pA5Jiwf/B5cKMwjRP6qU3xBSwKorWNGhukEhK4XhWsC8xn+SKCe0AGrwhSastrIwgFBUpVakXwDh/haXRRHi+4WtE8uykLlV+lV2Dp8aFZkTQvNc81GpAlR76HUFug20BHgnE3pSd1JoDyQnf//YDn0KBgdSNGu7s3pbW+GXMqRZqJNwHUSpzKeBxFlGpJizaLbFQuZOyDb6p3WB5WMOlLhda+KFryaWJKO8OMZWWYxRxwjr+9nWLCJiYkxqMP7kkZKsKnaCIEeNfV8/HIPM3D4rDg7YvAK2sM6XE3PVkxdYlMxwbnlFDOWFPTXSRF5ehShN+W9D9hdxEsvLeRwRpgkBFVZ5oWzvOm0z8lqSdxPIFcKAdReSAdsHyZTObUqZkzsRmJwq6Sh18IqIGT0vrk3a3dJK4BdYCFtvHzwzUOQHifeBkSVAA31zPylQoJmkccAMXBFMfSWBAc8CvYfTN+EaCAjSZWvE4zM5SczV3VzCLRvJVadyWIabQzrR9xXLPyvzGlTjZ4+wRT3uzQ97TxkKGzMpuWmqE4+vCdEZ0Zuab5beDDnU1qioQb5zw9DGVo8cT64OLwFTeKGaoT9dUzNy8S76HL4pX/YXwmsFIuaBRgDUNiOd3ZrBJHferRqmRibI3SPdWUHjhc3BavzdgMuudyHSGQjpMu6LqG5hRWkz4qr7Etm8tTD+wUPkWvKmvatiMXH3HebSEz6gXzNdhkml9XD2tFcIyfAG/YJ61O4whrN1/liaVdtz+vxfi/qalsottlu+pFBoDzbAq9EUTiYNDbg3xNdijo6vFIgI=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한성컴퓨터 TFG32Q24P</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=pMsvxUa5LyTwmugfJ2G1DP///w==k1y0uKZ1v07NP/uKJZADs86L0CPHHnAkjDZQEExDubC88UNUpk5FpZrCxVSrLh4fqlxrbSrRpSuwlZn0NCk/UaC9N9bB6FlwP97RoGuWLz+GZ84DydV5iFBi5Jf43VOLp2K3zcKS6KLrVDBirw3RyIa7KkGtAwoGZ2j1jo/5zIdOj+TXMRRCAgQQOVpmB/XW81QoBcVmflb8zVYfzgAGH2aKJS6dsGPx+P2BInOJjtHB/oyKu2CWf5BKvPfy7nqiUEG07VbWrUQrVpqfFKzFi/ljFl3bskqo78JsZziIQ0r7bfgD+DJtuce1w3hNbBsamjsOYfYmfCHjQggMMIPu7IywdI0n/Fzlq978g+klUBFNu7/28k+wV327yEI3L5OweLhXkXauRJEB/8MjcgVclTYhT8hEsagZaDCbuKbzFhHCW8B8vfajkJ0eDNG4/lzNy5ImuRPcQaSlwJy6gJIWxH4r2Yi+Nd0iOrV58dQXQv8t7bWBja2oImEcgwKZQMFfqJSVxBt4pd9Q1RWgOVFVJyOtHFZxenASlekxdukJiEw1Gp8DmTevc4s3ggj0b5EnI9+of+YgZ0zWQtDNG0Tr8sji/D/VhslIoNuMMIudntntDmFjfhV84f0zyWq+2JOZ5VqzaWBPan9CtujdrFOAdwCPq6yYhpdg/c6lyseT/bf+ryl4d9FeqG0WXK3qLnl1UTZqX8qMMtnes9yWfNvSdi+LdrM7+2CILXbChZKWxYpKEeK4hlesXvKxBtZphVxDa6d5Xnhmi8b7p7rcFNx0rg6LzoxAByWOSOGH+0bev2bo=</x:t>
+    <x:t>화봄 24인치 모니터 FHD 60.cm 리얼 75Hz VGA 사무용 X240HDMI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=6RkjY5N6BPwk/tXv8+88X////w==kX3WNS9DjXSATMaIJBdsHwC9jxduPo/4ZZSQLTJIAx5Kj8vE5YzureBhx40wDx7Q5L1jxCvAvAz2kvYcYAN3g2Ox6lN6UOGU7sWleDH3dTI944OGApRh/maPVfLX5TffTokOuXbPkefD7M7XkSwXCo7H1S9NRvdRFus4033e4uDH15F1LJQCJUIRKKteGdZIPxfro0MY/aEvzfzCdur7IEZ4RNMwp9dGWljSr3fKibo/edGy6mL9En/6OtIm0aYv3OWrqlSJdEU1c+t0n/+wF1nKBvobaUkcJaVcBsilgbSHqPd9PYUBxuqCmD0LUN50d3GlYnAkfmB93V39RQBPrxyGI+w2xvleAPWcfOPsfh7VTyRJVFo10/m3SadjSyCJLvo+98T2k/S9bIZPkhnbXHGqqT8N5g3TSO+2gmy35B5BrJgXH5HGW/s07AT/0iCGwUvgEDiMIlC42REkSfEwKZVqhNEqwPKWt6OeOzysUYbIoEdQS8fmUEJQaplPOQEvqycqWayhdCDB19XeXwk/eIgKnZb1pafj+892AdDPmSjhgHdqsICtLYfC6jk6XbkGbTDFrEtD1mHZcqradVBTTU3gQp3LstOTkHaJtoy38ksNS5ppU/GAZpKnamCBqsH6FrjZwo7dYKzmFkYia5fzywm5VLP5r15CvhTzMcc3NJ3BWWNpIc4B8ATQ9s7abb+syz9C6HPgOy/5iAgm5xqvgjhBzEo+yxveROqF0p6Ky9JCLOeDo+trKkF9vKwlkGpl97AW81nxtxeWuWKmgIUXBXDdgTcn/1aHzSEzFfPEEKX60Y9M0mR/nCUJT/bSFsDmi2gen97ntnVdzETe1pb6UdtVdl3+2bWQSds9uHuUfmOV52A6SeNIlgr2UOOhObDFn1nBafvJioFxrhn0gQNLlAd+3bRhPEOyN1QAvUcmICDSzFF7Jv8qPlDXpInbIg3AgovOjEAHJY5I4Yf7Rt6/Zug==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[메타콤] 27인치 모니터 MTM-27FV FHD 75Hz 사무용 CCTV 업무용 HDMI 지원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=frOmtnCkEjm8TfI31U8eX////w==kUMGIbz4Uhj305LxmmqCPNJBRsMCAjTMDafw0uF3U2O4Qtp0VL2DOtuFZxqB1laqpMfhdQq6yr98/WRHC6fLZ0xrhnoeD7pgP3a+CmbSBu/KCFMCFbC5FXRhPwMNJFlwZ9QiuSxcMV5nOLtzjQKmF21ctoCnkdCRNcUiIdcSV4K77RdB4b9TQRtGcuiWu8CEbqvau62xi3QGfpItJ/8S9E6NukVaLh8IAwTzohr57diAhejGLgelGunwlvzV75J36ooHJQt7hhU2b6Vk9jsHZAEaUnpaQ+tnfgUnmD+MMAdokrhsw8NithPMwFqwkBJVCXxPAQO7u7wsFvgBarupcmuNlUCs5DQNIPN/UNodc3q0DJqPLsxsOdy2Ni8/QygC9mXAfXnkFKKRo2HoC0ZVhrCboWzQwJpTWr/lFFWRkDutYI45cqrBgqFP8HAQdrFGz66ecnwHVpBcmBzh02/ly6gA7vjjLvghp7fOkT76sL6ltXysxnrgVOgLUkTEYBsnYkspvSL0nNhXu8HnMmFyhjl0B+qXbHebhXSRzb8qCfOuGsyzq5iKzwwp4IGGH/b09VJPUv6CFqBvoSUKAr36zXnERrnI6rXxJFt9CwY+zRlf8+gbCjvKetaHka580ucZoqSGqrpSjxMsRKaDWKNJBMUmnUb8dhl1HlPK62AV57uKK9aaUhoQSMOhzdtFO/U9gX63YJJJUd/Yy61m9lZ0Y3JMH35ugNB3zqzIc8niMGWE6T5LsMPQgnVf+e5kVPKhwVz8hdjKhdSrnCfLezIzQ1lbH04MFk7Eud9/jSGyYq0Jy4B7fmHbZ7erlfCb6WubdpVm4foy8R3QHHc0OBfzYTrqcrxBo0SJQiKJ7iDmZSHPGQfhuJUADQAYHK+CEyo8M+I33siAmPdsfBfOhzUj85IvNttc9gNOsxKYQTeDReJhndnyILh1F2KCefuFjklZECXHDB4YZJY1neI1tEUUrxg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[180Hz] 제이씨현 UDEA LOOK 320 i-GAMING HDMI 유케어 180 VFR 강화유리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=nWDn+T9r48g+TYO26BcoGf///w==kluBF9hjIeWyqUxZQjX8bBW7hunSsI20iePM9mPED8bf30inbFZLPc0/Fu/TcsFHknwY5fr9kHxnJvCTnrr/4LLXJyb9EGTVjxUJolf4AFLPnu/oZSo1lj2K4t+kC3XwAdS2Ydr8xqpOHGbkUufTe0WDKRpBYo/lzsJIX6SDEG+8DsSIn0aqkX5o3D6vFI8K84p3R+z/cA1h+R3bPKwDCC7OJvIxsTPN/YdgDFbEyztPW7NbLAncsqSGOeEmuOJfJ+gg9Xr+CQtulkYPDn88J/qGy9GVgw9SvZ/gMa4fh7ERQIlOFcxFZX9U4t/izkA9i9nY8DLhKCJPjyeAgK+jjjL/CoowqVdfcYSFKLlpO7QljkjJsxFri6qVEQRNSNlvHcGmj5uChiOt/2PM+RfJaQOluh2rP6yPKHQsxr1YgB5TPEOi8cbRoaF9NRNiOqQ3uNxkP3V5WTK4wCJu0Nb6pxMaYvJvGyU9zqzGSq7XKhQ1nqyo0w17SaC9U21L+ZwfK/c6INSubXZAJ0IInSC+2NfFN2WAyAPg1HKfM8GGCtGi+seDLqY+vwdPDTTUtsnlw3SCwm0zQ0K0kEw/qNGObdMp/Bfq7gILqHvsf+cJaS1c0eB5vq2ua217RkO6yTmNbhQINaKBr+ldnzbM5gRmrPN9QqQBLM8jHkxRx/l1/tyoYvANp16sXxib3KsUrOdLPqFXCWXhUWYPHtjQp9E+T6L7AaQ4rn5VH/Br3bRbyOJAvaG7HJLmcrZQftwZph+QMJ4KdgPyLveSdktHqcgbL3AG9VY7cu9/8zv4mzIgCM9IThvq55t6t6tAZnx071nyHcFBHC5KpHLB9HKOWunS9ndo1LtwYzfgHWDNiZYogoo+7R/wm/Tv47wNoeq4ggumkjtSPYLiRi6NaX/g1sWnNe0/vRm/PcG8UAoe03gluQWV4xGaxALB4kfgx6t7Ktc9lE4Kd5LAhwb/mFw3KKtaoK1FoCNFssDdNA/njcuIhu8AvVIMo8p4C/Dbn/TltAj+/lQnW9hFAIHC46ITQC2irJJWKYSCx1X3gokkPAVOneVs=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트프로덕트 포인트 32GM01 NANO IPS QHD 165 MULTI STAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=gtkazlAEoA+PRGrIUuce2f///w==kzV5orrGzaOeIMaBkkDZizxLYiTJyAgt8kBU6/01hcsYyfSd2j0cQ9wrmECswb3QIRKJUyg5yH8kB8OZtNcrXoegA1K6HNNtPGamXTo8mAyBNxHOtHDaYyElXmluF7jur4hxE8s8b3zCUKlXmX24Foo7Gjq23znUYOPnaa17w8W6v/TQlaZeJqQ4Bh+MH+nRMCgkIx4JQ6BIfObVvsU50Zh36PcVYgtvkQ8smi9CUYQvD+jsZGfUreU952xz7x1uu44zJ8dAtnMsvV4ju35hgXL6MAP6Kak5hrN7Yy6C00I/PowDR7HMIKmR0KJoFV6X/Gkmkx4GNI6O3v8F1VeS4Px/HUlt6jinCASx8pqS+YehjjoiETQpnrX6kIGO/oh7zEjczz6foV4JcFL0iacgabFsFy3Qd5fYSqMYNkYKMtYVEWoJEdMq1uPD37GQ5wAL/vG06JM6xw5wxEzdQsthV3Y9cFf9sLflIqvtMEvvUUQ/g+Q7xcV3Tyv99eHP/Wj9aQILKBhPFif4PTYQO6cbTiabm2qcDLBaP0I7QQ9pYPgd5xM0ILFtJswoSU+/+fOiDBDKFp90MLxReMaTgInlNH22cWiGmwi/U/m0/Ee5S7zVPF89ktalPELyJ7FjHhdZngCGiK+H/AvNmXDpnmleV9T8pWXuYB1hKIibv6j5o5KpLDCP/Fu5hEsRWKVY8u4p9johZRr4wSknF4JKjstqcM1+XREcU4XN3U8+i0wNO3KfRg4xGMWsU4bzVpYH9Yh4qR44Lr278ROJS5cOaNK18mXx2N0Ahqwq+Be6tqiE53LrYtbxZ/ioLzhW80u2yK/l0C4eLt7TKR0JLr6eUat6SWVJk0/dBUbP7n9rcb41SsLA=</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 오디세이 G3 S32AG320 165</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=cDIBp%2BK0t3TVKyeudELuNf%2F%2F%2Fw%3D%3DskowElCenvV2Cqn%2F53Fg13nkQVvowgFNTTpuvTBjY5udQ3qrx3p0MRIb3ekawSdvJr4Wrck0cdg%2B%2Bui73qdXaC2eHuZ5KcAjJr6oBIW37V4TyPfeoYOPslk%2BsEu80dMhSGeH6k28s8XeaoZcz51PTs99%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLhzI%2FIekYmC%2F1NPOxGq6CXSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGMvB2ttz9X4G8oGfH%2BvIQz%2FziKuqi6lvlwe2gIVAf2UAlXTdy6Sn%2F2yromYu89VyUsJy7L7u6jgGvc7ZFoC%2FfjW%2BcAooDNRGOxkZIihGZhOFKjRp2D9pkBhcJdqPQCXkTk%2FdfL19C1Mmk3JZSyP%2FWuaXRnBSZXJtXnL7aWsxBSh0LSv5SYzis5SVdiBAX6a8R2E2tDTCyklYLRQOwVUQnt%2FI0fIFRfBZUPaSLRPGc3PK6qwKKugHaiM9xcL4FbIwEFkdtaliThcARaXFN5QUdXRGk4XMJtozo5T3u6g%2BJ%2BOvGTatd2M060V0A48h6D4ewcnzYXQOIUGAaSSSVPOfwQ82OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=31249283618&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=EdErft02%2BRFVRsLDSehuPf%2F%2F%2Fw%3D%3DsSec4d4ZOChMVH7rBrqA89HkQVvowgFNTTpuvTBjY5udQ3qrx3p0MRIb3ekawSdvJIZSopdAGv0%2FgY2Q%2FeQqr0%2Bj5unS2UOo35LM4XiWTLTm3e35JgrcsWpRcz8SvgkC7IwHJubaNsYfnyoHwsRm4Ot9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLhzI%2FIekYmC%2F1NPOxGq6CXSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4u9cN7mdaSwHhacb2kvwVy5i%2Fhyj75pJN96DH8US%2BsPRcNZN5FF46Jqg7fDWNj5Cax8kuFCIlHKzaPUgly2qhXLFYz6NttWtLdGN1zLh7wRmJXfMwlASw3yGXItrzWiRVq3bVnlcsPuYtAe%2Bj8BSDYjNT3BoUZEXli3LDaTCWJake3PwDBlG2wnGarSPfti%2BpxPiaYbUa1%2BlsJVBrpIFnFw1q4RxHKdKf%2Fyis4rudz3QUHPesHCOmIptp6xfXsyMGHB%2FN0AEMWi5e7xKlei9kRldznR4EhPC6BI08fc6TT2xWkbDrUFJ2hBG8QaB8WVzn&amp;nvMid=31249283618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 S27B610 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=546rx1zMEfNzKAfW1RfDSf%2F%2F%2Fw%3D%3DsWPnhowXe1MPwLiEWV2jOxgillHactgXqAQd9WHIuMlVQ3qrx3p0MRIb3ekawSdvJG2av3CNSKloIvE4ykkJW05QtZCqpCLH5u8Ly%2Fq8BoJl1U4Bdqmynr9SpAKbB91y%2F%2Fam1tq2QbL6EV4JH3h0KLN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLfgV1P7T%2F7O8haLNxTCVyZSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4roOZOZeAW8kQNl1sAhHoReSVxZgx0DLgOyvyccHWiiVcNZN5FF46Jqg7fDWNj5CamboT7QiK9daJyVKFKHtvjrFYz6NttWtLdGN1zLh7wRmJXfMwlASw3yGXItrzWiRV2ytwtwxPZnNcNvBBNc0YEFxnymBMau7huBRiFGHDzbEaFdX7clkzqFo3QMTx%2F5VW6ug9QdUqnjE6QR2x%2FH5jrY6%2F74bs%2FzNmznhIO5N5zjWlNAgqhRqkpiEwXdoctOC1liOQSSP06g%2F0dW%2Bbk8DIEstVYavx%2B%2B8fWZa9SBc8rqM%3D&amp;nvMid=31531820618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=kPpqjtEOonoDUfJ5qfBkOP%2F%2F%2Fw%3D%3DsCRUPBuAaj%2BS9zURBfIA56bDh8jfTdthtFlhtA1fcUK%2FkEFD9EqEzeuo8lvy6ZeyvSEraw2onZdy7iZk6FRKF%2F2QcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKJ5bQDYB3cjT4MuysiedFUMm5NtQycrvAdMyARtHWBc%2FSkbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F%2F5WShKNeOszR3GRo2emXObNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC50rAfa9Kj%2B%2FTSaeTaQv6wLvRDf2e3KlIz%2F3FBbt2C%2FQeuRLlGedTwtGGAG6oH4W0ociTUPSiC0%2F%2FAUnFw5RygcNQg3Yq6Ylx7b%2FrlGy3XKAltJYUkJaqxtT84njv8hpBlMveu5pUmt5mX6mUy4ug6kXK9eSrcuH5hsQdqUmjCXVQGkbXl2Pm11BNzZHvdtcuxMbZqMnxsgWNavVBZL6yhkHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=27535066522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32MN500MW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BcNqMYcYS%2FMxNWboCkv4T%2F%2F%2F%2Fw%3D%3Ds2uvE2l2wdDOhsYbFEEbmazUzP05u9G5KzpE279kHLvVQ3qrx3p0MRIb3ekawSdvJgVOr30hAmlF1g%2FWpsLdWZJQtZCqpCLH5u8Ly%2Fq8BoJl1U4Bdqmynr9SpAKbB91y%2F%2Fam1tq2QbL6EV4JH3h0KLN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLED6qw1JBPa0EhRedL5KLaCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh47P1RqrgfDzbxE1C76yGLW93HtQNmE%2FhX8DhVbXxvGDpcNZN5FF46Jqg7fDWNj5CaNyyNzVkdWXESAP6nYU%2BQEziTbynvGZFQlqTHZySnhJuJXfMwlASw3yGXItrzWiRVOnpj8QYCDUkWqvkA4YWkw10e0%2F7oUtw182DVYHDHcyVScKqqLG76HjEgAD5CNtdXudDS3Mfk9Lj0pj%2FQihRNuvoLRdeTzJJo5DQ5ovPMjEVptcN3ViSi%2FzQTsAGufHxTSfgQabbJr4jpPQBMrJ1%2FWYVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=22764052560&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MN430HW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7BKMADuMn6i6Wd9QDhi%2Bfv%2F%2F%2Fw%3D%3Ds4D2WeZ3lKUzBtEsIFTgU6jEBL39wllvTX1iF9%2B8yE%2B7kEFD9EqEzeuo8lvy6ZeyvruSLMAQktwQ%2BAJitTUtAvmQcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjZkZ6tdjEEWhdH4uumTdgcikbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F7H57u6p3XXvNtqdQb%2FyjCLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCFDtdkj5%2BZKJzbw0hHE3OGLvRDf2e3KlIz%2F3FBbt2C%2FQLOR09j1%2BS6LGInAijlr22ITl5MWeLV4E7uEhy%2F5hP4Qm5LB806LBh9Q1Knjzrf%2FVFoWhfblD8pATaQMkaAFEDT%2BDzDxwp7nT02YxkVA94lMC87YWm5uDFPnokZJYGI8r6YDDnMUBbhucjDgZTjuRUnLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23301354490&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27MR400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QTcb9DH9tbqV5n2XeiJxrP%2F%2F%2Fw%3D%3DsAlmGUz6uH6jrdNMAGS3%2FM6fP09Yi%2B5%2FUVUClxZ4vCvrkEFD9EqEzeuo8lvy6ZeyviEs9y43bj1Ccv6CBcfitaGQcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKJiL5pNWLYG8nPcqciz%2FkvXw7DjlZ%2Fj4dNelozksSPFZykbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FS5w72Xr%2Fbt02yG8x1zG0UbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCIWG8w2iskZfxAOuoxwCfsbvRDf2e3KlIz%2F3FBbt2C%2FQLOR09j1%2BS6LGInAijlr22F7Mxt6OwNgzo7GBcOYGMwR6cX8LL7VBRPC6UIB%2Fm8Nc0Y3Z7OKvoMt4gOl4ST3EQAYTYOqTv%2FsOm0kcFv3bjpKDmj8PAxq3lPN%2BKqvX4iRsm2CJ11xYfvfph%2F5dspqeDA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=44229881618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24ML600SW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=c5rbSKmFYSbJba9A8dOEX%2F%2F%2F%2Fw%3D%3DsbyAhR6rvtYwEjK0yNY5FLympyD%2F%2FEdqOW9QML2eeZrb6D9Doef8fQXU6eDjUh3hFSqvhud%2FcZWMBqg9Gqjonphobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKg4mWlReklrWoWmTI5%2FhmNZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY30GhSYPhHA8VOvZoJk%2F%2BuCdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kLbCNRcfwoyToQmKb8kqeo5BOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2B7IQPD6zg9xOKxFfclpR0pT03CHXhJ90DsA8t1KaNamdumo6UPyFNqFJadbFeN%2FF5uu6hWTQwEWHGZEUDU8GMKRUMLshgiPoN3VFWP16EFzFj82%2Fs9T7aCw6c2VbEcC%2FURUDZtXCs%2FEh6k%2BJRvNf15h0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=19105796246&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 32QN650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LtjQwL%2FbWxhJ5e7oAv3SYf%2F%2F%2Fw%3D%3Ds6J8AsRKDtLrO%2Fjnk5gjhgJUQ3ZyEUdDH5HNieESlqh36D9Doef8fQXU6eDjUh3hFQLw78X24gd3S4YIK90vVkRobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKriDo7PMmd22LpEqcmq4ULZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYsDE%2FOSyW%2BNhqGWEKxiF%2FdWgoIKsc0pNBM1PfaxgJex3qpkT1UPKI2pRTQ7HkIG9kgYtShuadVLPEr1hpkiycOJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BKZ9kLbu%2F0VBlbx83isxt9TAzko4YyCwGJOwY%2BlpaxjuKCSNYSUB5CKXyxo8SWqqmwtIYh35n85gCNF9XAudNirSGO7WtzQiS7AuYBFVphXWv6Jf1pVr0dTp5R%2FQVKeWQnLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23692201495&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S32BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=cdeZ%2BhbJGxjGd1ddW7sBVv%2F%2F%2Fw%3D%3DsXhPTWdf44EdNEa5iG2QPYm21sFviL56Fqo5gl0NObZf6D9Doef8fQXU6eDjUh3hFL2Tqo3IoWi%2BLuqeje%2B%2BG%2BBobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKOrXEHijppZ3%2BLt6rhBnYT5nNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYsAynhcIDc9ZjkNqfonEEHvP5bVHptupGdQJ9Bcu5HsnqpkT1UPKI2pRTQ7HkIG9kjrwDJVh4qZkMSM9F%2BOKP4pBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BZ86%2BFcVAejQMOCmQ6SRPxa9WG84DIl0dsnDYrbdK53AzlGzuWmScAoncdhyC56HMjFitzWGs8QMlvETLtFFBOr%2BGBoyQkiFtSLwcV09cBveGtibQP9MFle4OOuoqlwsrbbEzpsJneJZOvt9Ip4YiNg4SwcLvxUEucVmH%2BcOht40%3D&amp;nvMid=31605356618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 32UP830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=oJnLktfVM9sMmGbsY26o7v%2F%2F%2Fw%3D%3Ds0xvo2yT3WYFyb3747YYegH3nO9k5MfM2v460DjFPksn6D9Doef8fQXU6eDjUh3hFertklKDFfriZ8U23hbmxvhobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKthHgQeaUJOZSAZP9htt6bJnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY7S8zIkoeSXEzZXkiTLDxIW0mmFAEeToCuOR8ihX%2BdK%2FqpkT1UPKI2pRTQ7HkIG9kZ4sZmHl6XZaTdnbaMJJEfJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BsqBisqUQD1WSXCdnU2oTYIKNF%2BjXQrZD1IB7U6Myz7ItYDom9klVM0NKyNkVo4ZSwtIYh35n85gCNF9XAudNimF%2FjNRQM%2BJjey9nxlE8qQIkaVTsCtQhKiX6mAnf9tdleyeOTkmw%2BlVMpsrSumNrFUHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=41322139619&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=67u4TrirNCOPnYNik6IJuv%2F%2F%2Fw%3D%3DsCjSPrT2z85%2B8tzm4xDMkiU9ANXq0z5KbndR6W1zoJXX6D9Doef8fQXU6eDjUh3hFLw8XWSUUOQzspCLyQHy4Phobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK7UgVakcvYnJL8a%2B%2FTtLoWZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYW9VTjyded5WRtVmP6xIVWO6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9k7AjakZ%2BvYJulaR1AMf2cUJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BdTfpFKVXrd7idyk4q9zJgK9WG84DIl0dsnDYrbdK53Co%2B9R1WurI%2FlHZESJlWdYJNDGCBudCft6iY88DY8HQvb%2BGBoyQkiFtSLwcV09cBvdv5QdrkPFNf4K5HcGKWlC21g9oD%2BJ9BHLImHVtFZY4ooVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=31889649618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비스포크 4도어 RF85DB90B1AP 1등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=PoDANwRzoEA4IN5RguPJx////w==khUBbUD6kpXDOxiPqzezViZnwSs0Rb0jBmBgLrFqbq2eQi8jKmpyJAr0Nx4QeJomnZ2vKzDnscim1wORikT0wzZti9lFYWDO+HyBBKHaPFvQP9RjqBbg1LrY/I+rZ9dny178dOAp1Zsmy7kDvm/ZFPiZwsrwSwYLYYP5sFOCaaBqiVuPFuuXa7AE2SVU1rtBhlV290x5dkNwL3lQxnmyj4RxYGDYsuz2Rauj6x/LUfy86RHkkU0VtZwfdfFMmbIljJEuEUs8ktvq53CHehxIbRX4hbn8LmJg7eAnrF7pQv4CH22x24wz2KrMvKZCU85IA4KSNac5HIA4iChhzOCK7R8Vb7wB126FoFBVqG1r4i7nN8QIFeRHqXjzuC5v/ENR3XeUOlPneC5aXx428C6wk0yg03WYFqC/L/zpa/DOGE13sIU9Uhwc+AkZo02/nnnrfYuWROozs4y1nyCOUx3/ruXBf/GTvNxVc6/20SBCRBrEBF3jZnODVSO66rKwnfYg7NNqboWfBBvKXSyw0yoIBpI6JrPuI1PfDsV9Jv9fZAqgle2aKdh8VvRvxFpGQ0MqbqBR09CIhEo3ZHevGOIDBqM7tXWYX0AAv/A6crCfK2WFw/gGoYSGP4/9LpIgLtcDC8iZ3LhRUyk9xO8yM53MmSkXZH7yft5xMR/O+mjhbApUeSCsr5JC0o33bh462N3O5LCXWRrmcjGUow6UrPl6G1COaIap1Um4EuSxSX2Grj1RTmkhz/JdisoMS1nSkf0SM7lyIAqukDWvqFMWbUvLgwfl0qKjzEN//1XyUihMVsXVW0351ZXEOKeQhDkLnWJzoXv563IKNOQ+fFKJsa31npBEKvJsU3jWP3/+c3ccs3rQ=</x:t>
   </x:si>
   <x:si>
     <x:t>LG 디오스 오브제컬렉션 (고효율) 냉장고 M874GBB0M1S</x:t>
   </x:si>
   <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=eHcrcpeYzOFQ4oRJI5SBx////w==kpn0w2GY8Gq/vEoVrG0VVnC1OvvQGBRCGnlHXGQEghQxAl6L9LmntzRT6MJEFUFoKHObiLf2gUV/ZHV3xo94oSvQS21UVbeZryN+i9iGb0v+biZPdCSdWhQA443oscffFCv7gcNgDJjy59jQKf4dVaXUjhV27CZIwj+pFNZg8OalpQy6S2as1+RjA8W2hoSukLlUnNxAg0l0Z4UoqQCDCL0MdY8rJkcjAtc/KQT82FEtk0gQXjHjppBTnQve70o3nVDyHiHgX4BAk1Yz3z4sRGT4ny5XfyvRFXwIAtrzJPQvMMvJBNoZkS+diJIJJ2+UBTDFW4nuyPudt8sT8M967w7VlaeUl7vEr8B+vC11/FrsudJNUARqMMWzL0/JbX2GHWxliPfbTT/SgFV/KnoF2dYohoVHAFVDxlAiTRQ61mOE/y4wjE25Z/mQIib6/VRIubMbjNklAEa9vBcpD/oGpbjEFtieSH/kItAe8reWgcR6tlx5d6u4tKRAcwr1BZbn6fkOuDSguJsjYrtmIyzNMsAs/mVTykk1gM79Iqzp5SB8GNKuLuMtbFCaSoJJ7ewV4nCBndKIOTR0uUF1UTZzGWGYIodTpQ8Q/8WqyQ+fVYh0At2/9UcWtbFrIOW4Th3RVbGiU4pSf4RvnjViVxjH1zcT/PFnF14+LqV1BEfD+ySRjqhva73xbuv/kO0VL+lEWNDemKQQwB4m+DRdVCCjuCASx++He3uO7M+uaqtJ7mD52G0MgXhWCS6ytb0e4s9qx5KGpFuKcsh2YPD/lLo2WOxy+WgZyQkHG0/4g3n1OHrbr6fiZsk4XozxddVkgYa/30PLpOBAJD+jdhbJ8r3NVBK4D0tgbmr6tzPH0eu8411W3hk3Ar7WdpiKkVY9PNLXXvCzw0j87hvNopyScnxV9QA==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라셀르 직냉식 냉장고+냉동고 1100L급 (올스텐) LD-1145HRF 60개월약정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=tQglbd924U5WYUE37223Fv///w==kowQE5O1QGvJVe13J7Q9/GmUW0LfoXHmg/9hg9E1rgZ320XntRwei+aJAaD/yeiXBSpkZed8+OeozKlN7pIj2dyxvgMiQhoiDkmmRLRaWzMI/yu9RuwXCnonrbX7H830mxhk82D+b9MNjbM1R4qiU8cDPbqgOUkv1jnhtJJ8AO+Pch15OGRBKX3ZnWKSR2F1FDctVzTSUHMMGPPTVUv9kUHQHKXpwtftxnGOL8ucy3S6pYuLRM9yluASKrHdWMinJ9lUhgLPZAYRpp8GOlL3XrIvd5mr5HAm6O26GdYd5beatdFEFOaJMi0ZKpj058auh2XZBH1uNiK9JaIzL5ct/uomKSoQSiSP8HZnpOenaYDjER4QKEJVRadYkuKE66tXQhnjuqNXjppgEbUVqw5jusa16qPiW6DUAOxRwq+KmhkgMC14f+LJq7p9XHjsaRBStXlj84ukwFUaKwTiuj4VzFEbB8RYaSlDt5XjfCB9yQhmjWrEwTQ87LF08MpDL8kcsJRXE6A6g2O7kbMaOf7DDNREo4cGdRZ/QVWDaa9trK/Bn6ZQnDyT7h2yQYC2lAgyQhUkHGEtD5eIRb3zk8rlfCP63egqRLQeLtOVOVSmw7T4PL5NL8ul/Zl9Hp2OIz9SLM/ZX4deeAGipQtPXU2OJ6TI06X+MEK9ANVc9gQmbfGDdOEPZUs5eXR8p6QC6F0a2o39JcmDoyWVkLnjgCkDvV3AVq7FQiRVb8R8dap4JGW99I491m40EPthBMmZFJ8lIUrnvlqnf9Wzo9jHUlH5kaIxZAhRDqdgoq8iYa+l1SzNzDO8X5Cwtwyc1B0zSsqGx</x:t>
+    <x:t>https://adcr.naver.com/adcr?x=9uk0gAcfJJxjE7KkS4HwxP///w==k3gzxiW4hwrLxBxw+EaFZTGUPPRGTh1uX+V2AFAhaiKGmy7Kp6pLU3E12COE4MaNDefIRuFW/PDoqP1E8pLJ4QSyDKIjnvlxQGj6grjL/uaROB3ORmhhJa5XPm2F6JkcwL17485bC0+McH5kRJGZg2oawYD05wxu8YnTtvHSa1XPs5Mi7gaS8Mf7jnauW33+FDOc3i/Uw+EIkWhLjjKA9gLVvsF0JEeMfhjLzCdtRvbsSDD0UnepeuVPiEBze6Tnq9wVJwPu1q6kw4yY0TGbjcNIS373UA92C0qT/YnIcOQoijqFvkynyCon+5vYPvfpXw+rtnTcXcpPpzkS0GqEX/IMyKOwHD6Slum5IPDZCq951OKiTdKofiahW0t4j7SRSjO/p5Cssve3VQjxFrnTjXNWpeU+xhIH2AQEopnXoD9VMAns2bUICd01Fw98SDVF0hAzUfc1UYSyiTj3jyrUbgBMAE92bpLXlcDiJNfNMGATXAG/iLZ8bzPX7aE3EK3b4R5mOhGL3N3dwGb5OHNC6Ovo0Sk3gRlEY/j+mMCjg+XLUPGNUzytpkHHLMfgVHm/awT68yXWZ/28mwyUpnENO1aImtCZXt64HJrwGUNcWQ8P8SPxuR8Ndd9rlnT4pe2FIa3Cc19qjJHlAsB9jzE6J3HvEWlrjWoqJHRldHaEFrDh6CIZZg0CRYZWYtt9919qYRFW2AukKgcm0Gn25/G4Ur8egsQKLrJeGGLocVV6CFzAFxppcVc03sQLiRpqd6ATUjXU3w0C1+rj0REujPOab97e9vkqqqnyy4vPQrsLIDYRB1AI53i/wI25V4YtOG6KEHdSN5Z0WZFiMzKTxX+iNw3vYJhWJ0ANf7rE0DrEROhKQ4Cpd3yWSgWt1yWDMLv6E3kRDKxpbluzPXV0vPMy3qn9EFr68YAWKdewPG0PMjtiJ1VBIOCdZ+SRXZwEh1IgO</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 비스포크 4도어 875L 매트 멜로우 화이트 (RF84C906B4W)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=krfxw%2FJyaxyTnD%2FSAhdbtf%2F%2F%2Fw%3D%3DsN6JgTjfMI79F%2FXhcMiMlYoJ4N6zX1nPYKo9b04BgqG1F8WVxfV%2FmwmnX7Mz1na4yCBDnolUjsymLQJhBEWjGJUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27%2FlezaoAICoJdFUH3P9C7Tp5Sslz5Os%2F4SCfNs6MgsfS4%2FfXKn1i%2FNc0d%2FtBT8TefZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis%2F2ebkh33fj3dyKT1%2BW8b9uElQ%2BFmStfIErk%2FCmBmQgWXA6ysn2xYy8XrhrRRnMSuFF2HNvVLQI3bCWxGNBlZPPQ8QfyphfMTD1fKUBaqrTYBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9S9o4U5hvJJw5vmaXPjIG3rNoujdiiNe5Aky91pn4j%2FIOAmeHGwOuaSj%2BQ7ZhYYmUf9MSsWGvT7EREILmo6bnmLHJM06m8XkkoABSxxLFFem1ulc8Sa4B2tG7dQEaLjmwX%2BkVHjjGypMDkEsDYbJfne2IET0cfBGmAJdr%2BS%2BwrqI0pu7pTMorSXCbfu8K%2BSzE5gp%2B6h%2FA%2BU%2BmQfK31kpnFWvcKYxOakWSfAqT3WY8sxzBdR3ECtGQWw0YopuFQb5aEs8cFUTVf2EXpmSuc9bAhHVjoBdv58PzTlno5tlmmgkylwVCRsnZf9mdgs9r7CfRaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=uvRcuCg8FlWHCk8UiP9u2P%2F%2F%2Fw%3D%3Ds6A5mRHSk%2Bi4B9d0oudsCN4J4N6zX1nPYKo9b04BgqG1F8WVxfV%2FmwmnX7Mz1na4yOIwP1DYQp%2B%2BxBRCZTQsX3UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27vq7Jva1NH5L5%2B8FDGYqRic0TXFIIV4JvI9gZKiAM8YQ8gPjul5bRstm%2F%2F%2BcJoncyZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis%2F2ebkh33fj3dyKT1%2BW8b9uElQ%2BFmStfIErk%2FCmBmQgWXA6ysn2xYy8XrhrRRnMSs0JxAz2WDrJir8OdDOFYYEEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6BFKffa0X9HBBZY5w5EzFHmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sdBVXxebWHpB8WDrZaKAbU4%2BEFh4yqZWHceWQrNLEuDpwC30GiH7Qyik%2BKkz9F2FSg%2BQl4ec3SCgPbiJI1CYJJAwE2Y8Of1mES8QC3WVoVkitv%2BjIxrXz6c5MnYNRiWGo64ifB9DVeZ8ffla9GlFdv8fPh9TtrhXPk%2FQT5vBvVXql77GyF1IHCMzZ8TPjFxQiA3%2FU2AzguC84AnoS7Lq%2BZXGgR%2B3Vt1YHLEjGdNHQR5lFlSXwxuEUuXhHEwwgwy35Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE312)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=6UgXW%2BuGQtKGho71VfDqzv%2F%2F%2Fw%3D%3DszmPalVgwUnr45stR3BTKeWzphkuJmINdhdXA5drJbwxF8WVxfV%2FmwmnX7Mz1na4yvQ8z5w1quu9ADYd5%2BaQzDEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27%2FlezaoAICoJdFUH3P9C7Tp5Sslz5Os%2F4SCfNs6MgsfS4%2FfXKn1i%2FNc0d%2FtBT8TefZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitsaKD8pw0%2Bb94uB4Kq%2BP2b0y9MZvJNTV%2BO%2FSn%2BlZ1pdmXA6ysn2xYy8XrhrRRnMSuFF2HNvVLQI3bCWxGNBlZPPQ8QfyphfMTD1fKUBaqrTYBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9PR65MkWhb3pdpod9MhVTQrNoujdiiNe5Aky91pn4j%2FIOAmeHGwOuaSj%2BQ7ZhYYmURfYnS71pzGkxlmwDV%2FZBGLHJM06m8XkkoABSxxLFFem1ulc8Sa4B2tG7dQEaLjmwxFCZ6Twy4PpOk4N2nDQ0r3avdcG96lbKbdQyjln5eAMH%2BP94rY%2Fh3j5aS5OatBZ5pnq%2B5X1MgqsNZE1CayNfYyRs5oxGKhlvylA045oKzFJP4PMPHCnudPTZjGRUD3iUHONNxfChUzyWuEvqKDLzcthNos9sI57ayx2hmd39%2F%2FlayXn6DiW5pDuAQ%2FWDG5jNDVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=L4jiNwNcUJJ3GRXcCvkj%2Bv%2F%2F%2Fw%3D%3Dsj8qP5XkZeRY0qpPF6Bb3SNhbXsL1cYmI24UqwBCK4sJs5nCytg3GiMUMnBaVqBbJ1%2BdkGqGT3tuIru9LbP15vtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW355eJcqB75xldwLiLOdYuGVwOHkzcM3SH1%2FVCXDfhMwGIM6VWhvfXT2rq0xnfIJdSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLUAbAOoNCb89zqlifhPPCZgCnPdBScAtaFCbhTbZh6l1fG6OocfxsE9f3jdAUbI%2Fim6JgEDxO0KEC5VNqxiYZv2CMDevNjb68j29xqrbjT5mvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7KPxdRCCybIP8PmHWD%2B42Tjokh7KNEkkbwBBKOUFOEEpKnyJ2XPw0zAdMQkVQ81Vx%2BM9jy6iYscvDWokXL6%2FoB7jEqIa5f%2BqDdVKKSNTH9PK1ulc8Sa4B2tG7dQEaLjmwxFCZ6Twy4PpOk4N2nDQ0r3avdcG96lbKbdQyjln5eAMH%2BP94rY%2Fh3j5aS5OatBZ5pnq%2B5X1MgqsNZE1CayNfYyRs5oxGKhlvylA045oKzFJP4PMPHCnudPTZjGRUD3iUHONNxfChUzyWuEvqKDLzcthNos9sI57ayx2hmd39%2F%2FlayXn6DiW5pDuAQ%2FWDG5jNDVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 삼성 2도어 306L 엘레강트블랙 (RB30R4051B1)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TryWpcn0RlZillQp8oDirf%2F%2F%2Fw%3D%3DsxWP2JE4kiXwEp9%2BpsNz0hhvgDbd9sOM8NMaufL9UuOZF8WVxfV%2FmwmnX7Mz1na4ynRWaSi7VA3Xu6tpsZ%2Ba6akbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27%2FlezaoAICoJdFUH3P9C7Tp5Sslz5Os%2F4SCfNs6MgsfS4%2FfXKn1i%2FNc0d%2FtBT8TefZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisfRL4yEsJh7%2Fz7vMPogyCp662BWhchF0erEGLZZOnRKWXA6ysn2xYy8XrhrRRnMSuFF2HNvVLQI3bCWxGNBlZPPQ8QfyphfMTD1fKUBaqrTYBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9nn9Sv4Yj7vkCr1mTUZ1bC7NoujdiiNe5Aky91pn4j%2FIAVCvdaBrx7atSUOrV%2BK3jzLplB%2B1bXDKvIfmxV%2F6lWrHJM06m8XkkoABSxxLFFenPkOQjN%2BUug7jYyLRSpXmgXxqG8pZQOPzl6BKLXIgmTOd1eLDUblk9hG6GHW2N%2BUVk3zjxKT%2F%2BuMG697ZhtHz23f92TycW5AZmxgXC4KtM4il10nEhXpz7GNOnb%2F0klJxRN64mBm9G8QruBkLDcHT6935J4zAHYDBb3kPyAY3fMUHzXvknD9AdZ5dl8OOXuL9vU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=20858302566&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 트롬 워시타워 W20WD 24/20kg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=11F41CZQqefE+kt23S7HUP///w==k2lqAhuntzF1nm4tLJ94jyEEpXrq9D/CQ9IN4PTCRXs5r0G2MOTsZhMhpU6d6UpTSMKZsTJsFbXgAFTTitm7U4S5qDmXGGdRO0VR90TCn1FoT+ucAR31CG6IjZqRQ+kzBnt8I94y12y8pMFXHtfE0SsuOZMyqXn8qzdnTk6ZCqjEglVrBh3d73bklkjdCPu6zjpa1xf8uXwl45+OqpGHBpkhbYkqzaworgcsVvHYw1OfUcwAgqk8B/0VwLUegmVDIM0FAcyf0vrNtKDVVT0u4kplxG7NongvSt5SV//zL81WxAwJfhUDN96R89kqH872pxVZRmjK6HsOWm/DvZOj5IPjbZM2OrpOdcbOaBgUBqpiRS/N4LnFPYNyNQzxDhNHz9N2qaWUhO7zQVs1LotADXdBmKVTUHVgqf8HJ4HRuRuSxdcSwQXmYuIUSzUsa1Et/QQYy9Ozv4H5VtUVryz3f+qf+n8aNW0thwN16gdcawSvuDsaa+0KfvdrGYYHKE76IfW+TKuYPDkW2JoJ1sL6T4qW00sPpKUXHlloBtQTYkBgapAnDGfpBNNYQyJQqREOPAl+A25HJ/qB/F8UbzXY6MLeuZsGr9qcSCXsySUjVdQU5wNNx5S6YscNF+wRBerJOSo251DqspcpiZNvDectpS/M533FoAlh0eRDGiiqHinvrPOpBBC27qZ+7+1cq0D5oMx5LsiNsA1v9MCpb73cvk++zewZIeGjphxR8wuSzYGun0KVfUupvKByuhIk+ijZnKb/WAZWon3qV9WpdNyRQk7vxQaQrlv9NTdZMG/NHt0wrulYfTbegoZuZpXeHz5km+D2jo8am8dgC/0j1xrAi7msAwWqrHWnwmdUTBVuAJMfaBzrgv/wWD0LSBRliTngQOb6oTWeaQNPU/qSavZZisg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 통돌이 세탁기 TR16WK3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=wASABhQwyVvEzNG6MbnWYP///w==khk/xZGXvIB4mVHZT33MufNS6wb0IZMmwL0pJ9Ra3/7LbMWDwIFczHgZPivsKt0jsn9VHkkdITyJjt1SQaIQsGBx+XKOYZMtgkTO6Jv4+DaylnTXqMffHW37chjVLAwCUVmB6lyWME+ciy8zBm8c+lAI+UQSEQ1zls6+NHEYM8vOf45ZBxwd1GpM3Ti/PMf0EqOEmOkW19YEzuhT4E2ANtY7V9FGLsNpfErsYfSzqtoQ+VWk0oaH/oT/g9NHvXEVccwg9Ib7LJMVuNonFZC1VmmugXM/9T9JVB2ER3SK/zASVS/bFX7rzlHfkW2wunKabCMnAVinPcP9NMLa7i3MO+vuZXDRkSvhMkJq1VYCUe6CWDyqM9NPmxDEkXQoOkcef18CssTYa5u7j/0aAv7vGzOi3mYolsB9YDbl1c+6aWHQHmXJyT8QZXCvMxFuzKtmIEGXNNy3x6Hv86mKYG/BAp1rypi78Ts/O6Kne2Gx40fyoqDENWv4pl+Yl3f0vI+aaeqJWs7MUFD8C89cHxGqqQnNkXGGoMbRJZCLMHxD2vqiVcn/oHqW/c7E6VBzNDcIPvn8vXqJk2d5dNPPs3c7q/irWm69g3njJUpNudLZMAZwKhe+MmqTsSpsbViEXZE+sqQxK3mX2DMD6N0Cv+E6y4IFT4kbdONhVA2yp1OD8QWwm3yFWbIyGkr+T7MHmmhHGla3I//b2UUegaXZuBaepe0QqDtOcuhWXvwRCRp3a+GQ1HSgEnS6idQxYRBF4cVv0Nr587z5aOY0KfeqOHho1AAGFlRC8NiSEfQofXWv4E1kMjg0yfqqFe8u5C8U+eVuQkRvDuB9PmP6MloSFhAW5TjpyjFwyXtcMtpCcLQ/HaRjElmGz+iVhTXxXPjK/3CSw7k9tM1yZ4FSQIbgjiAWuPw==</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7SsIEKKuxuzkNuDGY%2FdH6P%2F%2F%2Fw%3D%3Ds7QSBHwjbYWkf1Rw7OGmcbjh6mt9%2FLu%2FFX6iOZZDQX7ts5nCytg3GiMUMnBaVqBbJC50d9CvLYTVFG5JeMfW5ytof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW355eJcqB75xldwLiLOdYuGVwOHkzcM3SH1%2FVCXDfhMwGIM6VWhvfXT2rq0xnfIJdSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjL5lsEcpnA3ZDH8ng5y427XmAVRwLEA94YP0spFNdQuilfG6OocfxsE9f3jdAUbI%2Fim6JgEDxO0KEC5VNqxiYZv2CMDevNjb68j29xqrbjT5mvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7ryAN2JleMc5EoeXJae%2FWCzokh7KNEkkbwBBKOUFOEErGIKQIFXVAm833RiRKyLZxOtiiOBnYP3nKW8JXveZ2erjEqIa5f%2BqDdVKKSNTH9PLPkOQjN%2BUug7jYyLRSpXmgXxqG8pZQOPzl6BKLXIgmTOd1eLDUblk9hG6GHW2N%2BUVk3zjxKT%2F%2BuMG697ZhtHz23f92TycW5AZmxgXC4KtM4j4h8oWmn1JxfSd09D9NXVBRN64mBm9G8QruBkLDcHT6935J4zAHYDBb3kPyAY3fMUHzXvknD9AdZ5dl8OOXuL9vU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=20858302566&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[공식인증점] LG 통돌이 세탁기 TR16MK2 [16kg]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=2uTbcu6pca3EbkypPMUW6f///w==kEr1sRe7hq360GBUzTTcKFF2xFRqoAXRLo25+WVdnJH8n6Fb2KU/O/gwDqQTy4Dkt49iiqvcgt/wXtgHnWOndJIqBwgxNB3ZYuwfd4cQUK4Rh8DUHS+6mdH4Tseu/4aN8BzMbldDlJFMIXR1PrNwUZEqn3HnixPOm7AxCoLjZyCBUROX8fCW48JvL1HghdV07Ry4sq5A8LXqsXxz+SG0u+ll4QkIfDyfNetp4xSy4zUF1jNJrVrAxlXg8sq7olAvJKBLi4Ej77QyWCB8yHAGeNjtZLwUcyRZJ+Z5NPeOsNLuvJaJkYyflg58/bWuN91zxV9EHRQVZ1WsoosN1Vbgpnoi1Zf4ckiPRhkvPXyPtTq1HLpmqzgG4taEkUv2kh50pLmLNMe9JubCY+xlIilzU5x4lA5a2X5I/zNPRKCBy80yV9hWdR/8TrafPUFTrHyiH+w6alZoF2i6AYrZPT2+u/gdBbftO4HOBOZY2ptJeCN/qeb5Y4tKyfzTYqe6EYc9uc8VLfmOSfHpkJ/PhK/LCo5eTmdnXpbn0qQlUS6BWhFonCXo5ruKDed0rj+E+9h4JFN/IMADWfiXO9yJu+ysdGFlCN+lYqjq1Iss5PNY39vARKXti7F/QHDAI6D7d1kmKlhNXCfJYDC8vsnriHAqC/1oHqAcyRIITObi3ku5x8pedNzS5pHRLi3mLOKqG7Yq/kHJAXBmO+oKHnjUVlVMgLRpDqSAO8JNDk29/am/gLXxuKVowit3QDgce4hPNMS0eoyMkSb3mk0H8gpNPn78Fju9s2MlYda9KqPtyOLet5hB9w+c2/W13igTglP7t0xdWzQfmCyYpXvHybDcrXI69qsbMsslAY7KK1ih+zdTNuMgJWkvxZzXpUXHOIyxD7NfkBxJu4H4YvuqLAbX3eHxhNcQq4jaiUHj8AZ330deCLYA42q+WIOih7bs7qLq33AFJZJEnfMJkmAHM05yVaylrTZcJcEpty8KmEo7rJpGZyrCot3VjAuzdPv9YoEw4t6FO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이얼 소형 미니 세탁기 4kg HWM40FTW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=FPpS8fA55HXIKjKKfx7cG////w==kbhGgiHbQmcGScHfHsmnDIlvb4HwEXWEczCLGUHsU2j5ScXIe1JK2Xl8pZD+qDtJzhjqedyvwxZ4G+0VafAoDJbU300CyNJbz0NAUrnAW8RyW5lLY3F6IMBwAumHmJktpxplCrYhnxduOYqpx9BiJKavHQtoniNqwZEXGxpZO+qFQBoMBgJ/R87P2olXoUzwaDRpAK/U/b7qo7EOaTbWVaOpyFRiFLis9GCvxyCUr2Po5xxDlgIH31UHnCS7On6CyGqudHnEuaaFrc59+8XUcifS13M+f2FaHRLPIcXOf8VhObA/98ikQL26WxiUpp98ckGjXgdnvSZx66rRQ3Quist+9FaPRR3MWCFpdwqItCSDMkfLjC8mWgJVZRPaeoTeb9UmU1jJc12gnB/y6oQnaG/adYhHoZqLwlB5S7CgW0R/iyfd1SSFlEfsz68uQCqC4BdxwLQarhn2pXJ2pj3H20Gzp0elQ+P/VD/2fCXla0rmzec3suWfgRffJhikr2pWi0VZfhox8lMRq53HjZraog3R/hVrYC6I0RKjBEPFGLqCCy/0rXqXYYeiCGDcrGLYnQmZoPNcgUVFpNyjActg3aPppA8nekulDKEDn7ZMYf6nVpqj5ZWmoA1QpRs4epIhYiYyGOdJYGk0IdenHdZE7UFkaWjcnpn1t/aLFCQiW4lpHXyiLSUHnfqSEZERTpmPf88PJPPzfX3wDvap5iIARJeZVty7RstwkFCya10KfijWYSnSBUzDrrWvzjLL57EnzVCoSBCc8m0+/7KucwE0HEAT6yrWma2b+txTcjFuCkEUl/rGl+IHlGj5G22PiJo5gFL9c3jNZKbBKAo/g7g2ZPhCYP+CLlsqRI99KqOnhDehgBX1yARRu6M2h2Ax3O64uLpWxiDtfWC9IiEyb2UO5omcsbeLrqmwVQi7zjJh/qoyG9ANK4V93oncsJWphDtnWglj1ariEUlPvZJ1SBL59PzmNMpglNmfR0ONYhQdC0DE=</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 트롬 F15WQWP</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UfbM5XK48atgtIOmqOJVV%2F%2F%2F%2Fw%3D%3Dsy3g9O9P%2FELomjbc8PW96anPMugvKp3oxA3TmQ45keA%2FdpgAIic16NITt4jHu2Ti72FQAzy8ei8mbFiWsu68MJR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnZUThPcUnwUd%2BO4zi0NTPBrLfDYwhtrxvC%2BZlj%2Bivl56NODbOYltwwgMQPVTp1xTj%2BsCIijK93I9skGGF%2BfFB8YBsJjzV%2F3vl5Lmd9HbkUGK93PUHLrGPJHrF%2B%2F%2BV5bTtvfAN2MZC3pVwYHxdN4dwIxQXbTvyYQsc9P4uGweUTPteusQ0Z%2B4Hq6IEbGRipUeB9i49RoNBsrpVLKOQBsK5C8OmY27ZGze0Q%2BtXRlM4OxtarJoVrbEtunAYIkKGowOqMWPHtJ1CVlG4rABk3GOGIcnFrN04wx1b%2BHNUqrF7rbl%2FG9tlG4OIopG4uDJuPUPXU3x5bdOGj2fBg5ABpBdDLi6UxJeah0Om0lkIOZtT9ZLXsMgG5GIaLqd9DYBWwOX5itjL0NWqRxwqta9AJKnJ9vIkMbK6W91g2ww9aXwsInfBTkDJOMOLMlVqdimSKWPEDWrhHEcp0p%2F%2FKKziu53PdEsgRZvHv%2Fg8FbUparQ8jSMOUuWDIqFtnsACJvRKR4K%2FV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1wv2qcMCwYto18bgfikfav%2F%2F%2Fw%3D%3DsZkelaS1DHxfuriAdu6z0Z7f7Fr38sAeWiMgmkciVBddXa4YJ85H8DevQM9Yzo5P9QyAHZYbgPkXjSd7UpJ7F1UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27f1%2B5%2FHaCby8LiydCS97EdQQxHXbaTD5yEv9dXHIbGCauXeKajtVGhZAYk9iDkuSDZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu%2FJaz2fEGsGWG8bczfGHQPbDFIGooqqqx5yyVs4LGd6fzqFU%2Fs%2B07B3Ca39cGtz54lYxr50nRorozSCsqt%2BShtEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ63RIT3MF2w%2B%2FYr0WcgjQTNWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ%2FNf9ZQum3SjCOvOEyVKFVU4%2BEFh4yqZWHceWQrNLEuDXsMgG5GIaLqd9DYBWwOX5itjL0NWqRxwqta9AJKnJ9vIkMbK6W91g2ww9aXwsIne%2BQE5aQYdIN3LCs%2F4tPdhLDWrhHEcp0p%2F%2FKKziu53PdEsgRZvHv%2Fg8FbUparQ8jSMOUuWDIqFtnsACJvRKR4K%2FV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 그랑데 WF21T6000KP</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=duw2EKzzFCb9ROtp%2F%2BdCq%2F%2F%2F%2Fw%3D%3DsNJEjVr4sSDj1YDKkfs9AVFR4b1D3%2BDwzD2GODz3ttIjdpgAIic16NITt4jHu2Ti7rMiQMUDHXAvM3Bgrig9zah4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnZUThPcUnwUd%2BO4zi0NTPBrLfDYwhtrxvC%2BZlj%2Bivl56NODbOYltwwgMQPVTp1xTj%2BsCIijK93I9skGGF%2BfFB8YBsJjzV%2F3vl5Lmd9HbkUGIfoPeECTXKz7bYNhagzeRBCKkiB%2BSt4rK52exwyFyILRQXbTvyYQsc9P4uGweUTPteusQ0Z%2B4Hq6IEbGRipUeB9i49RoNBsrpVLKOQBsK5C8OmY27ZGze0Q%2BtXRlM4OxtarJoVrbEtunAYIkKGowOqOi6BiQPihoz4t%2F2EC6YOlZ3o9s%2Bdz1EtU0lCGMA9yI9%2FG9tlG4OIopG4uDJuPUPXzQ5Qsob1DibGm27G58vcqS6UxJeah0Om0lkIOZtT9ZIb7QXt38GYV4PrGMZzoyop61zpF6c1lIF5jodaMAQlmPe%2Fg0ASw4dgTFVEhPe1QVdcV%2BSccODI8B7kKHZockeDT%2BDzDxwp7nT02YxkVA94lBzjTcXwoVM8lrhL6igy83JsXJAiFYwW0SxoQA1CX2ZPWsl5%2Bg4luaQ7gEP1gxuYzQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Gje6YYIUWXJSBl5b0KuXNf%2F%2F%2Fw%3D%3Ds7qAFRbd42Z87tXpRSTnvclR4b1D3%2BDwzD2GODz3ttIjdpgAIic16NITt4jHu2Ti7ganO0j%2BOZeNhxgoa2rlEGR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnh05JN%2BNtOGhw4zU7nzuJHCYgjGIBOtJ69rTEs02nbC9NPnkYbTH0MST4gJ5ujjfot7Kee2AsCNJOAHK3JhJC5oBsJjzV%2F3vl5Lmd9HbkUGIfoPeECTXKz7bYNhagzeRBCKkiB%2BSt4rK52exwyFyILRQXbTvyYQsc9P4uGweUTPuxUDqsRcyLiitVs8TJvB29yafAk88HJ9GId9h7ovv8d4BsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9EdBeH08fd47UFXBstKWvcSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneKj46vtgf45H5EkxpD1Sz5P0EYh5PQ5Zkfu654xzeGfsKA%2BbMZaVGHYfYaXM66HWhhn%2F3qqJ%2FG29%2FKiAoyEKATt6FjHoN2OaRipl3my13mgz5txTNP8e5J76a387B%2ByQJpwGylWYDb9TAw3KMFgso137%2BKWJMFenuTz8OqHtJ%2FQBUTI581RDq%2FxMsFdBUGHYS8pCpmw9vrzI04xAGB4HJjh0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 통돌이 TR12WL</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ijc6cFkbX9C4FE8NlSB%2BRf%2F%2F%2Fw%3D%3Ds6ExvDqTfqJ5utvd5heu0d1xngU9UKvPKnMZ%2BPY22SDZTWY5MvHExC5BUTXXjdBTu6eGABYtFdYYf9jInDWQrINof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWxQSHmUNNRYqDGye8czA9k7O%2BqtTQ06XnWl%2FE9rV2O4yXkQCDAQ3eFj3mQZD8dlRMSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJzmCz5AbO9KkM726Ocat6K0mMgbgAO2q427OY8qJA2k%2F7bU911pekVsIzBteO%2B34uBdOtiovTAyHc2xKcxaKoCTvT5hHM%2FymV25kC6NXPGVD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6WQYvqFMRCmBk6zyCFVdfHlC8IvS%2BNPsEPJ7D6mlNi%2F4sMKkpX1Wcod2Khpv76%2FSRAE2vFPftSWotY7wvfAJSJEtdy%2F0DPgmbquq6SjnyPoPI080EweBvSFQItbs3YsaPh82bo6KWdmysk3%2Fp%2F4Ucba9ekQccQG9wsbchsyLBrvVPXx74R074yGxPlBf2rMoAv4YGjJCSIW1IvBxXT1wG926iH8UQtwwdHv4AbGSLLrZ%2Ff%2B5Ali5HlsU4SHe%2BKnC1DhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vnrPJ3a2NmYRd3TrzRyBef%2F%2F%2Fw%3D%3Dsg9QnTfXqmGs8zuDS5ChwF%2BfsQTOE0zdFU2Dn0MK%2FiBhXa4YJ85H8DevQM9Yzo5P9o2K3BduawpNcFLXbTF3Og0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27f1%2B5%2FHaCby8LiydCS97EdQQxHXbaTD5yEv9dXHIbGCauXeKajtVGhZAYk9iDkuSDZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuSCJK6PgzmF0fwhlVm2%2FVPCkeeAb4Dw38z3aq65trtKPzqFU%2Fs%2B07B3Ca39cGtz54lYxr50nRorozSCsqt%2BShtEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6FO8ydLu%2Bl6anMm%2BfMsGD0WovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJh6d0HjlbTgLTHPrHHPW0fh04%2BEFh4yqZWHceWQrNLEuAf6jVz2NLnOPLiBhOsO0%2B29uWFgK3RuB7NOX%2Bs77v69JuZhTrT8ZO40mECK4jHEIJYeRIeS98UPUzljwWTx6n4iA3%2FU2AzguC84AnoS7Lq%2BWp%2FMQ48EIGXUXmBNum8F3fIVUJGGWQAWy6NPWZkGSlA5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -493,7 +553,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>214900</x:v>
+        <x:v>90000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -504,7 +564,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>349000</x:v>
+        <x:v>119000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -515,7 +575,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>277900</x:v>
+        <x:v>178900</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -538,6 +598,116 @@
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>289000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>279000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>256370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>221870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>169180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>164880</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>154700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>338590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>381000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>518670</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>479000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -573,43 +743,43 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2450000</x:v>
+        <x:v>2190000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>65500</x:v>
+        <x:v>2450000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>1418100</x:v>
+        <x:v>1418090</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>1700860</x:v>
@@ -617,13 +787,13 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>461910</x:v>
+        <x:v>460621</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -659,57 +829,57 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>2690000</x:v>
+        <x:v>492250</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>500000</x:v>
+        <x:v>199000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>595980</x:v>
+        <x:v>593300</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>732685</x:v>
+        <x:v>731870</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>353775</x:v>
+        <x:v>351220</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/네이버 쇼핑.xlsx
+++ b/네이버 쇼핑.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
@@ -30,154 +30,817 @@
     <x:t>가격</x:t>
   </x:si>
   <x:si>
-    <x:t>화봄 24인치 모니터 FHD 60.cm 리얼 75Hz VGA 사무용 X240HDMI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=6RkjY5N6BPwk/tXv8+88X////w==kX3WNS9DjXSATMaIJBdsHwC9jxduPo/4ZZSQLTJIAx5Kj8vE5YzureBhx40wDx7Q5L1jxCvAvAz2kvYcYAN3g2Ox6lN6UOGU7sWleDH3dTI944OGApRh/maPVfLX5TffTokOuXbPkefD7M7XkSwXCo7H1S9NRvdRFus4033e4uDH15F1LJQCJUIRKKteGdZIPxfro0MY/aEvzfzCdur7IEZ4RNMwp9dGWljSr3fKibo/edGy6mL9En/6OtIm0aYv3OWrqlSJdEU1c+t0n/+wF1nKBvobaUkcJaVcBsilgbSHqPd9PYUBxuqCmD0LUN50d3GlYnAkfmB93V39RQBPrxyGI+w2xvleAPWcfOPsfh7VTyRJVFo10/m3SadjSyCJLvo+98T2k/S9bIZPkhnbXHGqqT8N5g3TSO+2gmy35B5BrJgXH5HGW/s07AT/0iCGwUvgEDiMIlC42REkSfEwKZVqhNEqwPKWt6OeOzysUYbIoEdQS8fmUEJQaplPOQEvqycqWayhdCDB19XeXwk/eIgKnZb1pafj+892AdDPmSjhgHdqsICtLYfC6jk6XbkGbTDFrEtD1mHZcqradVBTTU3gQp3LstOTkHaJtoy38ksNS5ppU/GAZpKnamCBqsH6FrjZwo7dYKzmFkYia5fzywm5VLP5r15CvhTzMcc3NJ3BWWNpIc4B8ATQ9s7abb+syz9C6HPgOy/5iAgm5xqvgjhBzEo+yxveROqF0p6Ky9JCLOeDo+trKkF9vKwlkGpl97AW81nxtxeWuWKmgIUXBXDdgTcn/1aHzSEzFfPEEKX60Y9M0mR/nCUJT/bSFsDmi2gen97ntnVdzETe1pb6UdtVdl3+2bWQSds9uHuUfmOV52A6SeNIlgr2UOOhObDFn1nBafvJioFxrhn0gQNLlAd+3bRhPEOyN1QAvUcmICDSzFF7Jv8qPlDXpInbIg3AgovOjEAHJY5I4Yf7Rt6/Zug==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[메타콤] 27인치 모니터 MTM-27FV FHD 75Hz 사무용 CCTV 업무용 HDMI 지원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=frOmtnCkEjm8TfI31U8eX////w==kUMGIbz4Uhj305LxmmqCPNJBRsMCAjTMDafw0uF3U2O4Qtp0VL2DOtuFZxqB1laqpMfhdQq6yr98/WRHC6fLZ0xrhnoeD7pgP3a+CmbSBu/KCFMCFbC5FXRhPwMNJFlwZ9QiuSxcMV5nOLtzjQKmF21ctoCnkdCRNcUiIdcSV4K77RdB4b9TQRtGcuiWu8CEbqvau62xi3QGfpItJ/8S9E6NukVaLh8IAwTzohr57diAhejGLgelGunwlvzV75J36ooHJQt7hhU2b6Vk9jsHZAEaUnpaQ+tnfgUnmD+MMAdokrhsw8NithPMwFqwkBJVCXxPAQO7u7wsFvgBarupcmuNlUCs5DQNIPN/UNodc3q0DJqPLsxsOdy2Ni8/QygC9mXAfXnkFKKRo2HoC0ZVhrCboWzQwJpTWr/lFFWRkDutYI45cqrBgqFP8HAQdrFGz66ecnwHVpBcmBzh02/ly6gA7vjjLvghp7fOkT76sL6ltXysxnrgVOgLUkTEYBsnYkspvSL0nNhXu8HnMmFyhjl0B+qXbHebhXSRzb8qCfOuGsyzq5iKzwwp4IGGH/b09VJPUv6CFqBvoSUKAr36zXnERrnI6rXxJFt9CwY+zRlf8+gbCjvKetaHka580ucZoqSGqrpSjxMsRKaDWKNJBMUmnUb8dhl1HlPK62AV57uKK9aaUhoQSMOhzdtFO/U9gX63YJJJUd/Yy61m9lZ0Y3JMH35ugNB3zqzIc8niMGWE6T5LsMPQgnVf+e5kVPKhwVz8hdjKhdSrnCfLezIzQ1lbH04MFk7Eud9/jSGyYq0Jy4B7fmHbZ7erlfCb6WubdpVm4foy8R3QHHc0OBfzYTrqcrxBo0SJQiKJ7iDmZSHPGQfhuJUADQAYHK+CEyo8M+I33siAmPdsfBfOhzUj85IvNttc9gNOsxKYQTeDReJhndnyILh1F2KCefuFjklZECXHDB4YZJY1neI1tEUUrxg==</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[180Hz] 제이씨현 UDEA LOOK 320 i-GAMING HDMI 유케어 180 VFR 강화유리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=nWDn+T9r48g+TYO26BcoGf///w==kluBF9hjIeWyqUxZQjX8bBW7hunSsI20iePM9mPED8bf30inbFZLPc0/Fu/TcsFHknwY5fr9kHxnJvCTnrr/4LLXJyb9EGTVjxUJolf4AFLPnu/oZSo1lj2K4t+kC3XwAdS2Ydr8xqpOHGbkUufTe0WDKRpBYo/lzsJIX6SDEG+8DsSIn0aqkX5o3D6vFI8K84p3R+z/cA1h+R3bPKwDCC7OJvIxsTPN/YdgDFbEyztPW7NbLAncsqSGOeEmuOJfJ+gg9Xr+CQtulkYPDn88J/qGy9GVgw9SvZ/gMa4fh7ERQIlOFcxFZX9U4t/izkA9i9nY8DLhKCJPjyeAgK+jjjL/CoowqVdfcYSFKLlpO7QljkjJsxFri6qVEQRNSNlvHcGmj5uChiOt/2PM+RfJaQOluh2rP6yPKHQsxr1YgB5TPEOi8cbRoaF9NRNiOqQ3uNxkP3V5WTK4wCJu0Nb6pxMaYvJvGyU9zqzGSq7XKhQ1nqyo0w17SaC9U21L+ZwfK/c6INSubXZAJ0IInSC+2NfFN2WAyAPg1HKfM8GGCtGi+seDLqY+vwdPDTTUtsnlw3SCwm0zQ0K0kEw/qNGObdMp/Bfq7gILqHvsf+cJaS1c0eB5vq2ua217RkO6yTmNbhQINaKBr+ldnzbM5gRmrPN9QqQBLM8jHkxRx/l1/tyoYvANp16sXxib3KsUrOdLPqFXCWXhUWYPHtjQp9E+T6L7AaQ4rn5VH/Br3bRbyOJAvaG7HJLmcrZQftwZph+QMJ4KdgPyLveSdktHqcgbL3AG9VY7cu9/8zv4mzIgCM9IThvq55t6t6tAZnx071nyHcFBHC5KpHLB9HKOWunS9ndo1LtwYzfgHWDNiZYogoo+7R/wm/Tv47wNoeq4ggumkjtSPYLiRi6NaX/g1sWnNe0/vRm/PcG8UAoe03gluQWV4xGaxALB4kfgx6t7Ktc9lE4Kd5LAhwb/mFw3KKtaoK1FoCNFssDdNA/njcuIhu8AvVIMo8p4C/Dbn/TltAj+/lQnW9hFAIHC46ITQC2irJJWKYSCx1X3gokkPAVOneVs=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트프로덕트 포인트 32GM01 NANO IPS QHD 165 MULTI STAND</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=gtkazlAEoA+PRGrIUuce2f///w==kzV5orrGzaOeIMaBkkDZizxLYiTJyAgt8kBU6/01hcsYyfSd2j0cQ9wrmECswb3QIRKJUyg5yH8kB8OZtNcrXoegA1K6HNNtPGamXTo8mAyBNxHOtHDaYyElXmluF7jur4hxE8s8b3zCUKlXmX24Foo7Gjq23znUYOPnaa17w8W6v/TQlaZeJqQ4Bh+MH+nRMCgkIx4JQ6BIfObVvsU50Zh36PcVYgtvkQ8smi9CUYQvD+jsZGfUreU952xz7x1uu44zJ8dAtnMsvV4ju35hgXL6MAP6Kak5hrN7Yy6C00I/PowDR7HMIKmR0KJoFV6X/Gkmkx4GNI6O3v8F1VeS4Px/HUlt6jinCASx8pqS+YehjjoiETQpnrX6kIGO/oh7zEjczz6foV4JcFL0iacgabFsFy3Qd5fYSqMYNkYKMtYVEWoJEdMq1uPD37GQ5wAL/vG06JM6xw5wxEzdQsthV3Y9cFf9sLflIqvtMEvvUUQ/g+Q7xcV3Tyv99eHP/Wj9aQILKBhPFif4PTYQO6cbTiabm2qcDLBaP0I7QQ9pYPgd5xM0ILFtJswoSU+/+fOiDBDKFp90MLxReMaTgInlNH22cWiGmwi/U/m0/Ee5S7zVPF89ktalPELyJ7FjHhdZngCGiK+H/AvNmXDpnmleV9T8pWXuYB1hKIibv6j5o5KpLDCP/Fu5hEsRWKVY8u4p9johZRr4wSknF4JKjstqcM1+XREcU4XN3U8+i0wNO3KfRg4xGMWsU4bzVpYH9Yh4qR44Lr278ROJS5cOaNK18mXx2N0Ahqwq+Be6tqiE53LrYtbxZ/ioLzhW80u2yK/l0C4eLt7TKR0JLr6eUat6SWVJk0/dBUbP7n9rcb41SsLA=</x:t>
+    <x:t>프리플로우 Vuti27F18PQ QHD Fast IPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=9SlP/lXdb9xp2SOhegF8qP///w==k1y0uKZ1v07NP/uKJZADs820jsgiwf7XFkHqw+DZ/8v6IY/+VpxEjihfpwIUS/fdW34qVUH+egii0H118ngLxIrwr1Ksnxug8f6H2OVcKVr7Q0aX3TmWNGS1TWer8erZ+Yy4j5Sc+QWuLLsfAa60kCp7XJ5aRq3wdhOK6Q0pcLZ8w97aeuM9lgZMWTt8JIqpIDVdTVs01MadmJAh0X0PZX/Ni+SV4m/IVnIvwzPmRIkM/+iUHvY/8/nh94myeHIHJIHwB+StgwlL7QrbDx9fbZ7acSO5Qy5wVaB/7T3bvr6EDpe77oH5Xelg+xxzPwKc6OhNuyGQapDmAoshyJdutfccFZOWSRYeOzWSumf/Jiuqj2D09wXZaKjMlRcGT/ukdGcyypksyhiYjJfvRwyf0LX6KFqR3LkTR9NsNbH9g70sRVCnDjAMabgpR101AQ1yIK2qpH7FWOPlW/LMAyDl78bgdzbh2XgDpCB5+/bmdyITdzFJoISmxpE6g2bv+cKu5zp4zcdGQkcxfcnGI1tc0kNEz5n9zSLlUEnZqs8P1+MpFDFS9YYXn90qfErNPHY105QL4ncu0aXjPdkZnAvd0shGAvi3oQyfbclrTxMo3+s4X6oRD0980J4DRJQTAMkd6QEkliEW5jQ8BKwotS9qq1zjtAyTLMZqOiGz+XbXlut/UWwSiMN+cjncyMt6+wAjbjnNYnw7i16bexxNFg3kV8OWWiLymqsjC5uWyWBz4v5oXzebQj1n+BAYZvYVKlZoc0bYASddqQeWCiTO83hkW/4EKc/BO3GqkVwRKrYGiSeI=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 울트라기어 게이밍모니터 27GS50F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=Vo7C/i1mzfRHIVWdPF2UE////w==ktn2cy7qz5pjmsLrMpZY9yqvp87S+K2/QgfoiWPKOtcYRA05JkPRnZbwiXj8iQFrIcXeu8SW84zubzCpfYXcUvb8U0zsvbtP3D4SXHiqAcmCx892MOv/0OAXBS0OFvjQd4WDfKCkhnaF08UlDYMTciD/mXkWo+tBnNTmX6On8POtWTiEP9cvkJjK70UprKri/+ADx7oJzURMFJbDwDuiBHx4+Pjhd+hPusiAQEJTjBzn3TfKkr3bQESyj73k8gLlK2OEopuuj4TR5/w2v6fjZ+rqi9/Ju56baJzSpVViuz2+ssB3oB3zmfrZkoKBXBEMjdsXXYi5N3/MYYXU1LovpEjKzt5yi370oMd8CkHvzv+dvPI0DL0qjf9eKV06cK2blN4Mzw/8HKUGepTyhzw0TfM9Mvq1z16a8xO1/KG9SzJZ97e4sXGIEoGkMjo9e+IAG4D8adLSiEaQ0IcyebYMlWsaMIEC+kT34ynlKiDmTiyqqoLKK+a1zFLgscGBYSSbX1DEheXTnYHNmoKOtmTgosfHchyYuQkY92DTeoTOO4KqyyPj3lMWin8MAgExXsFQKbVUgtM+Wi8byEwKVlEBH/Za7zkng+kr39gScC7blwdOvVPaSYXTYKDjhL96+Cn8rASxL+I2mpOKqjmgYhhRXNzKTU3d5uPwk9h47pXnAZ+cpBlM3YMswX557V4fFjLdU9wpud9JV+eQtUNihMXxIWCTz1v37bmh0WGNzvgR22Sx3atxVJ5wCtI/jrGuCsECzkBYL5BI2dNtaHyx6+roPzJmDA5TXyinnw0L0QluxBwNHLiPI350x+R81Stvrx196b8bq7GDMuCA4Rt1YSPqFQEglFkg5LN8EJqF6gw/dIvU=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG27Q24P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=8stgUckIEF2RjzYBUfezi////w==k1y0uKZ1v07NP/uKJZADs893TkqN17THNNDrzzpw2jfHJTcrehEXIMehp+UjwcgdzemN6wtkGqoXNHpp40vIdUHcznOec3yf3sX1UB1jU/ICEBjCBK8RCLtVaelK5eVOl1DJhugHUlQJ9eYqXuwzLdadFJCQ9/GPVmK9P1kX4kgUe/yxokg2gBO3PWm+8TgXOqBPlgwfrFuadAfvayvsRd1E7AjeKOElvB9ItThNvfCAJ8rrIGttwzYgNsg0OOcUfPreC/bvNusXyiF/7Ibo9Q6dgY4Fxaw6aZv0o6e4S41YSLUvJI6hGFxzjGyBWsYhprv7X/pnoNE4MIQVHEs380qQ/ze0s1hdm0MAcMr1qEk+uBzzyUQAhgGekEAhDxZ+d3q7eLq/gqjT3uVcFfCV3GUVXv60x2Zql/euP4sOp10MFpG4uzAUu1L39UKr2aia+OgPPVx4X4AMMhhhWA6F5HYDtHaqUo4vXOG50ixKnsz7bKzEg4L3naJ/EqmuIE+rhsdmvixWFFVe9V7EINenrlb8WnH/flE0EfVkmmlIOFHpzkr3cWEqfKx4lMjR2Bt0NRxS4hW/i7G0rPy6HnDiKoblReiLG0pZJLEMf7knQZYBIW/3VBHqomNpfxk2UamFUbu3YWIcrT2nK3wUTLeApSdlCJfbreGjO/rWMaqOu3hGzo80RrBtzsQmxV3dsihqwl/Rm3MDOwO7rgNfB39G6qN1fSh1OZARZV/AKl5QiQQokVVb2h20CV2CgIjwllqWt8zpSIYo9BGeQtebT3GgwkA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG 울트라와이드 모니터 34WP500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=99hXcEMN5UXVs0cFa4c9h////w==km8PbUDTDsUGDrXD0CepDboth6MBykRnJhOMFdF/KWEieBVhCgIbmQ67BIQWnlXD/94oI2uWASqsLA1cR/rFfOnORue8mk7ieM7BDLWjsKcCaVB/OizBcgbHDg/MxcWfYGXTL7G/1mlkWetqUkvHSd049W0SLEPJZd4xDJO/5LLj0ur5jOWV59ZGsxcTazbShC/GgA0inKw7PUGelxqt8HhiVzHNc+i/w/TRn7wFby0X+HWOU2cbGw4eY78+fdSCcFUB5euoFADFL0iYymHEfBZ+XcO7LERDFJQOZq8BXnWFmCVLrOiy63w+9IXU1lD3NMARkyVdSW4+RqzoUpT967Pt2UPpula4ltiS+IjH0Q5NB+DLpHGU9UpBr1VYrgN4OegMBL8qluUhy5GFQcLzWkkZCQwXXdviOg0DhyVcTmaBYvgMJxhZpuaPF1S6zgndZ0tHIcZoyypyfT9bNSuix1wv24U4UvtJqN+x6HQZz87n+rmrXCknA190IkVQKoWVraqozQ6I0N4av0nF0CzfNFnUnIWBheC2NJzv7LE360k0M+t3yUOrtfghzqvFhdxbsLxSF1lmszNkfPkkGkBrYlz/KovB84DO433xqbMN6LU3qStGGHvcgMO3nQP77gFxzwK7uNwdilGX87viuwttDvkRqQpkmuXpkSxhCMghYyKDeMrPlFAjfgG3o2GE+eoISADfZ6R3J5BKmjwDoaPwmLnCBXkW4U6RbCAqk085LZoPBI0MQ64UV9z4VXHW1xa77ijHCdsCQxTahCYsIa9vET/qKibxp2NhiuCjW1M05jFyCcpWdUutPcnULZXNvKWNlgUwvcAN24Ya1dNQp+FTajwyE23oQ1LAgtHh+WUnk0gI=</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 오디세이 G3 S32AG320 165</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=EdErft02%2BRFVRsLDSehuPf%2F%2F%2Fw%3D%3DsSec4d4ZOChMVH7rBrqA89HkQVvowgFNTTpuvTBjY5udQ3qrx3p0MRIb3ekawSdvJIZSopdAGv0%2FgY2Q%2FeQqr0%2Bj5unS2UOo35LM4XiWTLTm3e35JgrcsWpRcz8SvgkC7IwHJubaNsYfnyoHwsRm4Ot9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLhzI%2FIekYmC%2F1NPOxGq6CXSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4u9cN7mdaSwHhacb2kvwVy5i%2Fhyj75pJN96DH8US%2BsPRcNZN5FF46Jqg7fDWNj5Cax8kuFCIlHKzaPUgly2qhXLFYz6NttWtLdGN1zLh7wRmJXfMwlASw3yGXItrzWiRVq3bVnlcsPuYtAe%2Bj8BSDYjNT3BoUZEXli3LDaTCWJake3PwDBlG2wnGarSPfti%2BpxPiaYbUa1%2BlsJVBrpIFnFw1q4RxHKdKf%2Fyis4rudz3QUHPesHCOmIptp6xfXsyMGHB%2FN0AEMWi5e7xKlei9kRldznR4EhPC6BI08fc6TT2xWkbDrUFJ2hBG8QaB8WVzn&amp;nvMid=31249283618&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=8RcxAqmE5jJvD30jsP5ktf%2F%2F%2Fw%3D%3DsEmfWeSQNChKYmqiSnPzFFVxoM7Ft5MKHmE93xePQ4Tr6D9Doef8fQXU6eDjUh3hFofBj2yZZNQkJP%2B%2BPvtIK0vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKWlEVh8uzM7IPPFrbOQxsyZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYMlXftOOWHbxfoBPnVNTbb53o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9kYfe0vcDKLLnnoLp1%2B%2FA2ai6UxJeah0Om0lkIOZtT9ZIqYMl3hxA2gDa1WUrPqQfgOD%2Bqft1o3wb1fLGqIbZfCLuyhUYb3VXENZjLt59b%2BWAk3bosNSOuuAMDFM0J%2BsQePNRouOLVBR9bkVCm5wEj0Hs3T4qzSBIVN2HAysFdoOSyRf%2B5gtdhBGwUiPnltDYJROBZLzrcycw31WVXx1%2BAQYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=31249283618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 삼성 S27B610 75</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=546rx1zMEfNzKAfW1RfDSf%2F%2F%2Fw%3D%3DsWPnhowXe1MPwLiEWV2jOxgillHactgXqAQd9WHIuMlVQ3qrx3p0MRIb3ekawSdvJG2av3CNSKloIvE4ykkJW05QtZCqpCLH5u8Ly%2Fq8BoJl1U4Bdqmynr9SpAKbB91y%2F%2Fam1tq2QbL6EV4JH3h0KLN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLfgV1P7T%2F7O8haLNxTCVyZSKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4roOZOZeAW8kQNl1sAhHoReSVxZgx0DLgOyvyccHWiiVcNZN5FF46Jqg7fDWNj5CamboT7QiK9daJyVKFKHtvjrFYz6NttWtLdGN1zLh7wRmJXfMwlASw3yGXItrzWiRV2ytwtwxPZnNcNvBBNc0YEFxnymBMau7huBRiFGHDzbEaFdX7clkzqFo3QMTx%2F5VW6ug9QdUqnjE6QR2x%2FH5jrY6%2F74bs%2FzNmznhIO5N5zjWlNAgqhRqkpiEwXdoctOC1liOQSSP06g%2F0dW%2Bbk8DIEstVYavx%2B%2B8fWZa9SBc8rqM%3D&amp;nvMid=31531820618&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LTCJwUBLpeNLvm2ubqcbp%2F%2F%2F%2Fw%3D%3DsEYp4EsyomcTfGETIZf27nZtMe7JyCnMXLoZvimeRaTj6D9Doef8fQXU6eDjUh3hFWdIgVGh6vJ%2FRZAV7yHGjk%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKYzvuoiuDcNek%2Fbe99L2wpZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY6CQ3lU3fpZC%2Fj8nhPX4xn%2B6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kxpOZrJMr%2FaTTWnsHNhUFJi6UxJeah0Om0lkIOZtT9ZLG41YRq5gvTCTK7k70%2Fxd43LcUP2LHfeJs%2FmeoWaZYTmOXQA6TyhSvgMuBDWtvQAZgX9RVRq5RAnYhKsrHrZmNUTeuJgZvRvEK7gZCw3B0%2BnJROa32bSX4FGf3i%2BuTK%2F22jXiR7fGO%2FvCvU3DpJ%2BzXb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=31531820618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 오디세이 G3 S27AG300</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=kPpqjtEOonoDUfJ5qfBkOP%2F%2F%2Fw%3D%3DsCRUPBuAaj%2BS9zURBfIA56bDh8jfTdthtFlhtA1fcUK%2FkEFD9EqEzeuo8lvy6ZeyvSEraw2onZdy7iZk6FRKF%2F2QcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKJ5bQDYB3cjT4MuysiedFUMm5NtQycrvAdMyARtHWBc%2FSkbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F%2F5WShKNeOszR3GRo2emXObNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC50rAfa9Kj%2B%2FTSaeTaQv6wLvRDf2e3KlIz%2F3FBbt2C%2FQeuRLlGedTwtGGAG6oH4W0ociTUPSiC0%2F%2FAUnFw5RygcNQg3Yq6Ylx7b%2FrlGy3XKAltJYUkJaqxtT84njv8hpBlMveu5pUmt5mX6mUy4ug6kXK9eSrcuH5hsQdqUmjCXVQGkbXl2Pm11BNzZHvdtcuxMbZqMnxsgWNavVBZL6yhkHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=27535066522&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=azxjSIGVAQAnD3mlHYFqvP%2F%2F%2Fw%3D%3Dsu5ho37mv6DvGeFZdmJXTKLDh8jfTdthtFlhtA1fcUK%2FkEFD9EqEzeuo8lvy6ZeyvJgkA2Iu9qEkSMyPX9iapcSbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKJ5bQDYB3cjT4MuysiedFUMm5NtQycrvAdMyARtHWBc%2FSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F7SRJRqWc90CLYyVPOc%2BQzrNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC50rAfa9Kj%2B%2FTSaeTaQv6wLHJM06m8XkkoABSxxLFFemxWmylc50O%2B%2BlTqNHiwHMAsl8N1WlIb2E6kreaBQXxU0n4gJxS6yIAUxdRn2Qp%2B1wAXIZe%2FHHXsU6OZNQ6mQf1nUpTzmQTeleeE0y%2Brv8xbJmTMRHjLNZ1lFVlco2PyP8og5APFv1xXgS5IlFId2t8VoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=27535066522&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 32MN500MW</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BcNqMYcYS%2FMxNWboCkv4T%2F%2F%2F%2Fw%3D%3Ds2uvE2l2wdDOhsYbFEEbmazUzP05u9G5KzpE279kHLvVQ3qrx3p0MRIb3ekawSdvJgVOr30hAmlF1g%2FWpsLdWZJQtZCqpCLH5u8Ly%2Fq8BoJl1U4Bdqmynr9SpAKbB91y%2F%2Fam1tq2QbL6EV4JH3h0KLN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLED6qw1JBPa0EhRedL5KLaCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGXypWKQyoQJgydPx1%2BqawEN9%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh47P1RqrgfDzbxE1C76yGLW93HtQNmE%2FhX8DhVbXxvGDpcNZN5FF46Jqg7fDWNj5CaNyyNzVkdWXESAP6nYU%2BQEziTbynvGZFQlqTHZySnhJuJXfMwlASw3yGXItrzWiRVOnpj8QYCDUkWqvkA4YWkw10e0%2F7oUtw182DVYHDHcyVScKqqLG76HjEgAD5CNtdXudDS3Mfk9Lj0pj%2FQihRNuvoLRdeTzJJo5DQ5ovPMjEVptcN3ViSi%2FzQTsAGufHxTSfgQabbJr4jpPQBMrJ1%2FWYVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=22764052560&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=T4C8kwAgbW4WDupg0f7AFP%2F%2F%2Fw%3D%3DsDerbG1%2Flpfq8zf17Jy%2B4UmB3rTJqpRvALaPMCNJzhVzkEFD9EqEzeuo8lvy6ZeyvFb73Sc6qVHPxYPnQX4%2Bc9ybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKKhPC2htu6lZVcHvWpzLxhEa56Xq1YSls81S6xZ6PINEykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FN25AzdHi9xYPu2SrDX74xbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCzfEaQF0jhctskxxnkqW8xrHJM06m8XkkoABSxxLFFemAXBwvInSH%2BCkdT1bZw0rI2iICY3DPD%2BxxtZjS3TE2X%2FmEls5tVz9p8kvNxBtsxHuD%2BqggwmtB2Te82xRXjq2BiA3%2FU2AzguC84AnoS7Lq%2BdmpRq1BQPLScx7e2jV54Q7F9AqYDpZMpS%2Bjv5qCts925Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=22764052560&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 27MN430HW</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7BKMADuMn6i6Wd9QDhi%2Bfv%2F%2F%2Fw%3D%3Ds4D2WeZ3lKUzBtEsIFTgU6jEBL39wllvTX1iF9%2B8yE%2B7kEFD9EqEzeuo8lvy6ZeyvruSLMAQktwQ%2BAJitTUtAvmQcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjZkZ6tdjEEWhdH4uumTdgcikbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F7H57u6p3XXvNtqdQb%2FyjCLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCFDtdkj5%2BZKJzbw0hHE3OGLvRDf2e3KlIz%2F3FBbt2C%2FQLOR09j1%2BS6LGInAijlr22ITl5MWeLV4E7uEhy%2F5hP4Qm5LB806LBh9Q1Knjzrf%2FVFoWhfblD8pATaQMkaAFEDT%2BDzDxwp7nT02YxkVA94lMC87YWm5uDFPnokZJYGI8r6YDDnMUBbhucjDgZTjuRUnLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23301354490&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=48bEkFv1SX3ouEHZrKHi%2FP%2F%2F%2Fw%3D%3DsV0RLTJwda5%2FNU0kpArUYSg4HGYf2q37nL3o3ZT6LA4pQ3qrx3p0MRIb3ekawSdvJIk3%2F0ocxkLQoqSoNxIVOROUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL66BSa1yaQMK7OK2pxNvcZyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4fbYBgSWxICnGr2VHaRkkA52KU%2B2IKVLQtssAdoTHcfRcNZN5FF46Jqg7fDWNj5CarcLZgee97BGvx144%2FCGk%2BiH4EroWuigLrY0i%2FSNW%2BHb3l7letkN68WEvdrUNJeA7V1g1JzNLJzLnjvtm7Foe%2BTAzko4YyCwGJOwY%2BlpaxjujP5JqkRqkOtSygyPVRrDOwtIYh35n85gCNF9XAudNih2Ev33u%2BSM2oPZbZjDMxv%2FITFS8lqavcoURXN8Jbi8gNs4NutqRXixmE%2BwEX0UIrQau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=23301354490&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24ML600SW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LO5C6HTZ3uDkAE3CCipwsP%2F%2F%2Fw%3D%3DsEv8gv%2FvovxxuUmTux8IQJNkZuLg%2BrG59wBVlzcSPRSjkEFD9EqEzeuo8lvy6Zeyv7r7U926u1q1VCNDnrPFpoybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKLYnQ5lNDe35dlwbWSMIShDGd3HzjVhg9BFGGpPN3IpYikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FNiFqPoi4L06VlV8WQAdUILNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCDz56jwFb%2BXx%2Bq%2FnI%2FZOuw7HJM06m8XkkoABSxxLFFekJlE0VpCxEHQUIc43iaiV82iICY3DPD%2BxxtZjS3TE2XwNYjQPtvrdeqRSHBRstIH5fPnVCzH4dETzG8QQiWWqGiA3%2FU2AzguC84AnoS7Lq%2BdXER%2BTR7u2hS3mqxVkFyVjAfFKf6Nq5uV5MZ0n3FPY75Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=19105796246&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 27MR400</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QTcb9DH9tbqV5n2XeiJxrP%2F%2F%2Fw%3D%3DsAlmGUz6uH6jrdNMAGS3%2FM6fP09Yi%2B5%2FUVUClxZ4vCvrkEFD9EqEzeuo8lvy6ZeyviEs9y43bj1Ccv6CBcfitaGQcXePUucboA653Wj6X4wENFDGMzakuQ6jths8UiYW%2FdKB7Qn4x0K4sX%2BOxjADGblVd6Z%2BmZ5fvTALbBBPmfKJiL5pNWLYG8nPcqciz%2FkvXw7DjlZ%2Fj4dNelozksSPFZykbYBqhSVo%2BVMrTfeSHmNabHLG9rBOH0%2F%2Blmtd1ew5%2BMGokg7qPpB%2BNl9Lnck7wtVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FS5w72Xr%2Fbt02yG8x1zG0UbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCIWG8w2iskZfxAOuoxwCfsbvRDf2e3KlIz%2F3FBbt2C%2FQLOR09j1%2BS6LGInAijlr22F7Mxt6OwNgzo7GBcOYGMwR6cX8LL7VBRPC6UIB%2Fm8Nc0Y3Z7OKvoMt4gOl4ST3EQAYTYOqTv%2FsOm0kcFv3bjpKDmj8PAxq3lPN%2BKqvX4iRsm2CJ11xYfvfph%2F5dspqeDA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=44229881618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG전자 24ML600SW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=c5rbSKmFYSbJba9A8dOEX%2F%2F%2F%2Fw%3D%3DsbyAhR6rvtYwEjK0yNY5FLympyD%2F%2FEdqOW9QML2eeZrb6D9Doef8fQXU6eDjUh3hFSqvhud%2FcZWMBqg9Gqjonphobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKg4mWlReklrWoWmTI5%2FhmNZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY30GhSYPhHA8VOvZoJk%2F%2BuCdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kLbCNRcfwoyToQmKb8kqeo5BOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2B7IQPD6zg9xOKxFfclpR0pT03CHXhJ90DsA8t1KaNamdumo6UPyFNqFJadbFeN%2FF5uu6hWTQwEWHGZEUDU8GMKRUMLshgiPoN3VFWP16EFzFj82%2Fs9T7aCw6c2VbEcC%2FURUDZtXCs%2FEh6k%2BJRvNf15h0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=19105796246&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=AK%2BkFTvyrxKaIT%2F%2BKqJJyf%2F%2F%2Fw%3D%3DsidkRaHUgEfVrgHpUoUlBxFH5MkMdcKrc9K4WgS4DjR36D9Doef8fQXU6eDjUh3hFySzDx3IgLX6L8yBmD%2B3nNPkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK%2FCnwi1wXYGE%2BdEUfg%2Fi765nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY%2FIUi3IuLsrl7tNkrOIJBEJ3o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9krrPCyV%2BdjImDNEKZNAKXHi6UxJeah0Om0lkIOZtT9ZLTtmvye2PM12PoPim3bYWN%2BTdUIj7iGbnd1l1LxYGuBHJa3b4ll5S%2BhkBGnk2aUgZF5SHRMucZC5aMxadxlJl0DWrhHEcp0p%2F%2FKKziu53PdE2em5t4zGsSXUYUUBJFXGBzfYJCCW8MVnEy23OgUykeV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=44229881618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 32QN650</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LtjQwL%2FbWxhJ5e7oAv3SYf%2F%2F%2Fw%3D%3Ds6J8AsRKDtLrO%2Fjnk5gjhgJUQ3ZyEUdDH5HNieESlqh36D9Doef8fQXU6eDjUh3hFQLw78X24gd3S4YIK90vVkRobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKriDo7PMmd22LpEqcmq4ULZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYsDE%2FOSyW%2BNhqGWEKxiF%2FdWgoIKsc0pNBM1PfaxgJex3qpkT1UPKI2pRTQ7HkIG9kgYtShuadVLPEr1hpkiycOJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BKZ9kLbu%2F0VBlbx83isxt9TAzko4YyCwGJOwY%2BlpaxjuKCSNYSUB5CKXyxo8SWqqmwtIYh35n85gCNF9XAudNirSGO7WtzQiS7AuYBFVphXWv6Jf1pVr0dTp5R%2FQVKeWQnLywBF6TPdyrHi5pSyQkVg1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=23692201495&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=yy06TVGQPxXnhPnWAvM6a%2F%2F%2F%2Fw%3D%3DsIQQuXpxYI%2FCdYEVLQQ%2FN6SJ42r82cq5B6uAa4OcmDK7kEFD9EqEzeuo8lvy6Zeyv6ibyw5Zk4QLKjuv9%2Blk5dSbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjoiNM5dT4Vt7evHPiFJtimSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FmvUgq0srxnfLyfWQHj5dmLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC%2Fffyltq3WK%2FBgcaXVToWC7HJM06m8XkkoABSxxLFFendcexfTViL48E2Vx8ETG5b8jR8gVF8FlQ9pItE8Zzc8mEs97JvlStbiojPpp7nnwm2GOpkqxdkUm1qlqKU%2BV1iEaThcwm2jOjlPe7qD4n46zRDetYHipv7JEQLaCdqf%2FbuVxFDnaPPI4yo2nSOLFo6aGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=23692201495&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=h1f%2BKfhlUGTNCmj5H1Ltkv%2F%2F%2Fw%3D%3Dso8HeFIqIGWbeGmlIDe7O79uZ04OF9q4g7I5yXmci%2F%2BdQ3qrx3p0MRIb3ekawSdvJMjkOQ7nBRel7DpThYL9YjOUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL5Dcpssy6IQFj1%2FMzORAPUCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4bn%2Fs48JdGxzOSUHqd50QfIXBHKXbG1W4gfGzVL5eRh9cNZN5FF46Jqg7fDWNj5CahWKHg4nBHdJfp1Rs1JwBut%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6htAzIPpYQUH%2B5G2Q4EEtZfj03CHXhJ90DsA8t1KaNamctzKuLjtNlwdgj8j%2FRTtwbuu6hWTQwEWHGZEUDU8GMKf1bnwWB337bY3ZyZ1CLZffZr3YCmDQNL%2BfUn%2B6etT52grHP5urNbxVNhpnGXfVrQR0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=31889649618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24MR400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=SBYfY8P1pVlNPCuJIjEcCf%2F%2F%2Fw%3D%3Ds7EiIBe3jI40evtYPXO4e1gztIWW76cg%2Bi76moR6LcZL6D9Doef8fQXU6eDjUh3hFBxBDIpGIsErSYUX%2F6Lke2vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK73QFqRm%2BLcfC4KqDYuhpypnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYkBp%2FAJ6Oov3qx61h%2BxDlE53o9s%2Bdz1EtU0lCGMA9yI%2FqpkT1UPKI2pRTQ7HkIG9kVUN5U5oH60YYtruLFnReJC6UxJeah0Om0lkIOZtT9ZKwtyXgwAjPO1Y5E84%2Fvp3w%2BTdUIj7iGbnd1l1LxYGuBMLAM5R3viggdQrQPowTg0Yvnj6ZkIajAMFcH0cqBy3ADWrhHEcp0p%2F%2FKKziu53PdMfHyQUCukaw7NkamR8Rj2OOZcAyIzrVQMzIVJseDq4cVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=44229850618&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 스마트모니터 M7 S32BM700</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=cdeZ%2BhbJGxjGd1ddW7sBVv%2F%2F%2Fw%3D%3DsXhPTWdf44EdNEa5iG2QPYm21sFviL56Fqo5gl0NObZf6D9Doef8fQXU6eDjUh3hFL2Tqo3IoWi%2BLuqeje%2B%2BG%2BBobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKOrXEHijppZ3%2BLt6rhBnYT5nNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYsAynhcIDc9ZjkNqfonEEHvP5bVHptupGdQJ9Bcu5HsnqpkT1UPKI2pRTQ7HkIG9kjrwDJVh4qZkMSM9F%2BOKP4pBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BZ86%2BFcVAejQMOCmQ6SRPxa9WG84DIl0dsnDYrbdK53AzlGzuWmScAoncdhyC56HMjFitzWGs8QMlvETLtFFBOr%2BGBoyQkiFtSLwcV09cBveGtibQP9MFle4OOuoqlwsrbbEzpsJneJZOvt9Ip4YiNg4SwcLvxUEucVmH%2BcOht40%3D&amp;nvMid=31605356618&amp;catId=50000153</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Jvh3tn8lZDZnFrfOQlKtFv%2F%2F%2Fw%3D%3DsOUKuT0ykkykqhGvktMWfXJhWm7cVcpW9N3h7PXBuGrVQ3qrx3p0MRIb3ekawSdvJ11swNa9vZ4iNkvbeMpH%2BmuUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL80wuX%2BWwruX9jqelNfBuuiKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4%2Bv9qCdAsGjDGSNAvgqiMGn3bMbHbTUkXZNs55V%2FUQLRcNZN5FF46Jqg7fDWNj5CaJauJV34nCxdeUavrCmksQN%2FxAgg4ef62WIJT1K%2BzOB5obcDAqsFXy3LWjBFUpP6h3C3%2BTNSN%2FvZ0aw6KKFxk3z03CHXhJ90DsA8t1KaNameopMNpjc%2BLXvSr%2F4v4U4XF8R0K3XQfDmkt5o1VxbD5aTAsdKGfFT3OTcc5Q6NBeH12HGc8fjS%2FSOBO8YoJRbPl0TWpJvucC2PwwArHUIS6XYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=31605356618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=c4lqY7Z326sFxnDcotrI1v%2F%2F%2Fw%3D%3DsAC3n1UUd4bOWhW0Ku77C37RB8ySvBnLNeN%2FeCRKqUHvkEFD9EqEzeuo8lvy6Zeyvqvfsjjc1WkQqTwKCQkwkcybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL392rcVj5mouEkJq8zyckjOvdNzYH3B%2BYyuoul%2BiWoYikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FqwyyQAlQeIYL8YIhPXzVwrNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCUSbP3DR2I%2FtDf1Vm%2FfQekrHJM06m8XkkoABSxxLFFelzWUqh34GXhUVWo2INpxB08jR8gVF8FlQ9pItE8Zzc8vnOa6Am2RZu0ipZfgD4lkXVit7Ijq32%2BT80J4bGoFNuEaThcwm2jOjlPe7qD4n46yY9rGfP4b6ki8GanAtJAyc7u1cWzzRia%2FbTSpeAfq3BxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=29060355587&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI G274F 무결점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9%2FVF6u9smBnVBTgD1Ha2h%2F%2F%2F%2Fw%3D%3DsQBz6G%2FyoxtprSkttN%2FiD7%2B3vV0DB30Pl27sBCk4%2BthLkEFD9EqEzeuo8lvy6Zeyv2HHG%2FWnQdgQeABqe1%2FgxuibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKK7pUDBfNb2nYd%2BaJ0gKm2NNe4rwBzKaGpe2qqWWjWgCykbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2Ff%2FSnbxUnpp15CF3yMbv%2FFLNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTC53taYuILqQBkHG%2BUTkc5crHJM06m8XkkoABSxxLFFen8Gplnor6ig4R5ZKjn%2B8%2BX9%2FKHKPD70rXUx%2BqVoztNbfTxfiek16hN2sz48Q67nsRetvnC6r62UXbyuGm%2Bu79nlMveu5pUmt5mX6mUy4ug6o14eVy460%2FP8lxdVIXYruO3%2BM%2B%2FYHUnhOXq%2BM9%2Fd7yx0ipe4%2FUws8a1AnmQbjqGxx0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=42788700621&amp;catId=50000153</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 울트라HD 32UP830</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=oJnLktfVM9sMmGbsY26o7v%2F%2F%2Fw%3D%3Ds0xvo2yT3WYFyb3747YYegH3nO9k5MfM2v460DjFPksn6D9Doef8fQXU6eDjUh3hFertklKDFfriZ8U23hbmxvhobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKthHgQeaUJOZSAZP9htt6bJnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY7S8zIkoeSXEzZXkiTLDxIW0mmFAEeToCuOR8ihX%2BdK%2FqpkT1UPKI2pRTQ7HkIG9kZ4sZmHl6XZaTdnbaMJJEfJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BsqBisqUQD1WSXCdnU2oTYIKNF%2BjXQrZD1IB7U6Myz7ItYDom9klVM0NKyNkVo4ZSwtIYh35n85gCNF9XAudNimF%2FjNRQM%2BJjey9nxlE8qQIkaVTsCtQhKiX6mAnf9tdleyeOTkmw%2BlVMpsrSumNrFUHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=41322139619&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼성전자 스마트모니터 M7 S43BM700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=67u4TrirNCOPnYNik6IJuv%2F%2F%2Fw%3D%3DsCjSPrT2z85%2B8tzm4xDMkiU9ANXq0z5KbndR6W1zoJXX6D9Doef8fQXU6eDjUh3hFLw8XWSUUOQzspCLyQHy4Phobrha7eNNdB04NNC1tiq5JaBEaZBUVP2pIYl3mdEH5dC8Zz9mhkLeRR09UEhMrmcv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK7UgVakcvYnJL8a%2B%2FTtLoWZnNrwRClxwG6KI6Xy%2BWtBTiJaCo4XAJaMaZMMABXNQMI3QbVK%2F382%2Btw2%2Fbe6Gwzcv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYW9VTjyded5WRtVmP6xIVWO6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9k7AjakZ%2BvYJulaR1AMf2cUJBOlR%2FlHjjNm4yEZMxelH1ZvQOywPGKufcTq8mxlaS%2BdTfpFKVXrd7idyk4q9zJgK9WG84DIl0dsnDYrbdK53Co%2B9R1WurI%2FlHZESJlWdYJNDGCBudCft6iY88DY8HQvb%2BGBoyQkiFtSLwcV09cBvdv5QdrkPFNf4K5HcGKWlC21g9oD%2BJ9BHLImHVtFZY4ooVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=31889649618&amp;catId=50000153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비스포크 4도어 RF85DB90B1AP 1등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=PoDANwRzoEA4IN5RguPJx////w==khUBbUD6kpXDOxiPqzezViZnwSs0Rb0jBmBgLrFqbq2eQi8jKmpyJAr0Nx4QeJomnZ2vKzDnscim1wORikT0wzZti9lFYWDO+HyBBKHaPFvQP9RjqBbg1LrY/I+rZ9dny178dOAp1Zsmy7kDvm/ZFPiZwsrwSwYLYYP5sFOCaaBqiVuPFuuXa7AE2SVU1rtBhlV290x5dkNwL3lQxnmyj4RxYGDYsuz2Rauj6x/LUfy86RHkkU0VtZwfdfFMmbIljJEuEUs8ktvq53CHehxIbRX4hbn8LmJg7eAnrF7pQv4CH22x24wz2KrMvKZCU85IA4KSNac5HIA4iChhzOCK7R8Vb7wB126FoFBVqG1r4i7nN8QIFeRHqXjzuC5v/ENR3XeUOlPneC5aXx428C6wk0yg03WYFqC/L/zpa/DOGE13sIU9Uhwc+AkZo02/nnnrfYuWROozs4y1nyCOUx3/ruXBf/GTvNxVc6/20SBCRBrEBF3jZnODVSO66rKwnfYg7NNqboWfBBvKXSyw0yoIBpI6JrPuI1PfDsV9Jv9fZAqgle2aKdh8VvRvxFpGQ0MqbqBR09CIhEo3ZHevGOIDBqM7tXWYX0AAv/A6crCfK2WFw/gGoYSGP4/9LpIgLtcDC8iZ3LhRUyk9xO8yM53MmSkXZH7yft5xMR/O+mjhbApUeSCsr5JC0o33bh462N3O5LCXWRrmcjGUow6UrPl6G1COaIap1Um4EuSxSX2Grj1RTmkhz/JdisoMS1nSkf0SM7lyIAqukDWvqFMWbUvLgwfl0qKjzEN//1XyUihMVsXVW0351ZXEOKeQhDkLnWJzoXv563IKNOQ+fFKJsa31npBEKvJsU3jWP3/+c3ccs3rQ=</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LG 디오스 오브제컬렉션 (고효율) 냉장고 M874GBB0M1S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=9uk0gAcfJJxjE7KkS4HwxP///w==k3gzxiW4hwrLxBxw+EaFZTGUPPRGTh1uX+V2AFAhaiKGmy7Kp6pLU3E12COE4MaNDefIRuFW/PDoqP1E8pLJ4QSyDKIjnvlxQGj6grjL/uaROB3ORmhhJa5XPm2F6JkcwL17485bC0+McH5kRJGZg2oawYD05wxu8YnTtvHSa1XPs5Mi7gaS8Mf7jnauW33+FDOc3i/Uw+EIkWhLjjKA9gLVvsF0JEeMfhjLzCdtRvbsSDD0UnepeuVPiEBze6Tnq9wVJwPu1q6kw4yY0TGbjcNIS373UA92C0qT/YnIcOQoijqFvkynyCon+5vYPvfpXw+rtnTcXcpPpzkS0GqEX/IMyKOwHD6Slum5IPDZCq951OKiTdKofiahW0t4j7SRSjO/p5Cssve3VQjxFrnTjXNWpeU+xhIH2AQEopnXoD9VMAns2bUICd01Fw98SDVF0hAzUfc1UYSyiTj3jyrUbgBMAE92bpLXlcDiJNfNMGATXAG/iLZ8bzPX7aE3EK3b4R5mOhGL3N3dwGb5OHNC6Ovo0Sk3gRlEY/j+mMCjg+XLUPGNUzytpkHHLMfgVHm/awT68yXWZ/28mwyUpnENO1aImtCZXt64HJrwGUNcWQ8P8SPxuR8Ndd9rlnT4pe2FIa3Cc19qjJHlAsB9jzE6J3HvEWlrjWoqJHRldHaEFrDh6CIZZg0CRYZWYtt9919qYRFW2AukKgcm0Gn25/G4Ur8egsQKLrJeGGLocVV6CFzAFxppcVc03sQLiRpqd6ATUjXU3w0C1+rj0REujPOab97e9vkqqqnyy4vPQrsLIDYRB1AI53i/wI25V4YtOG6KEHdSN5Z0WZFiMzKTxX+iNw3vYJhWJ0ANf7rE0DrEROhKQ4Cpd3yWSgWt1yWDMLv6E3kRDKxpbluzPXV0vPMy3qn9EFr68YAWKdewPG0PMjtiJ1VBIOCdZ+SRXZwEh1IgO</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=p6Ru7bNiqSTc8RzL2Pw63P%2F%2F%2Fw%3D%3DsZDM2GlrBpTDgm%2BMoxw5rbLp83TdmRbTzh4O9bsCp80Uip8IRF2bT6l%2BdJsaStbty2tIDN2%2B2IdLWinV%2FEea5GW1foWsWQKQnzmAd21dbXTwu3CZR73%2FAVYSwRaYj6efE1yRc5P%2FcsDGX0s7zBBk%2BLbngnxQ7ssMZd09T0OjyjIw81b9qTmtFHmRa8N4ZLUgVTj4Sd98iQ7m1muiCQLftILs%2FADSIAML1rD%2Fw7TOwzWvEsaUImNblhsiCXLlTXyGQoDQ9bITbKEj%2Fr%2FQGi03iw7ngnxQ7ssMZd09T0OjyjIxearTBvydD1LUI3JWpCADIqk42d6jgeaKi8uYdBBqxT1C8IvS%2BNPsEPJ7D6mlNi%2F6pbqwu11I2zlsbr0vZGyrxHyWEa%2BdVavi%2Fq5sKq4q6l0tdy%2F0DPgmbquq6SjnyPoMAhPyicvIAQ9WKD8sS%2FMbrXR7T%2FuhS3DXzYNVgcMdzJZDhnzBJ96zPRYV%2BYHwrLpp2zvWlFBhO3OGUJuEP56b0%2BgtF15PMkmjkNDmi88yMRV%2FqeIU5rCY%2FBB%2B6vsBxT0xtzPSrJRMRbUDVl1NuyrXDy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=41322139619&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 24MN430HW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=wEqOo3yrXKwQ8D0FqdGSCv%2F%2F%2Fw%3D%3DsVucledzmn4QJ9XqXqvHv%2Fzu7bAPWaxIPtHgWZXcTlRdQ3qrx3p0MRIb3ekawSdvJP%2BlDuNsnc6aoGFvtN1S%2B8eUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLikD8QZCHCDxg3e9nejAxmyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4nSHs7eEDYwUUuObBOY1pCijPrUV0z88QDDtL0A08eTtcNZN5FF46Jqg7fDWNj5Ca1nWUHCrwvCI%2FhcUTGsbJeyH4EroWuigLrY0i%2FSNW%2BHZzG68pAsQhy8H4tIKe63ANV1g1JzNLJzLnjvtm7Foe%2BTAzko4YyCwGJOwY%2BlpaxjtWQoXHBsWTcjCTOVr8G92%2FwtIYh35n85gCNF9XAudNimauYnkCEXEqLPJfQo7CTOpEO7d7DbwnqKBXVJl%2BEnzrRXIDD28jsR%2FCfMRJwOD5GQau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=23244797490&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M5 S32CM501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=CoPIzu3LpPtjxEHj%2FwF38P%2F%2F%2Fw%3D%3DstYAvoXMbnI7qdxPwYq6K5yaeFplmtmQBa5vwVYz3qPZQ3qrx3p0MRIb3ekawSdvJVH638W68QHAnq3peUYqsy%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLGZzVEfbPGq10g4Bu%2FamKUyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4xIA7G5kpEAnGrVLSgM1UWMO0C4GBSnPwxGlmiCioJgpcNZN5FF46Jqg7fDWNj5Cabny2kWa95kJknf90VCVXQN%2FxAgg4ef62WIJT1K%2BzOB4EndS7cs4gZNMbyHV0aqpHRmVeNYN7zrJaIu4BP3DXKj03CHXhJ90DsA8t1KaNamfrTkvkRNtM7mWMm0Rlp5zqpwGylWYDb9TAw3KMFgso154iy25yTK%2F4Z0KiWvIBSeyuOcQXlHe4xd%2B2KT03Spzrw343BKB9uB7rfOv5VEbCE4KoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39344402618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27QN600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0C%2FJFNZAMPEz0knsjeTVjf%2F%2F%2Fw%3D%3DszVtBcTfAaRIfllI%2FIJwn%2BZ8G2WpumDpOYt8RMWfktL91oC4lxt%2BlhTQccfsXvqj1tp6pITpvbOOXMg4zhBYXKFPpDbz3qUaJlh8bpdaasRMlQgI1xTSgLN%2Bpz0HphgKzHinNrx5sg4hc%2Bs%2BwYZL3l6Tq%2FbD2MGowZHhNOyBhpCcXZJzZxQoK1L7bDnhq5%2FNZU2%2BOYirXx2087rDvPOUcGe1OtnY4MIPSt%2Bnpndu%2FZgAyPbgAquMgCI2BKVbwzz8zbnoMXf9jDx%2Btp22C5WOkbKTq%2FbD2MGowZHhNOyBhpCeUgj7JhipZW7dJJfFyMQl0YTeTZlww5G5LwOmGcqJNDmQim0uSGV45GygZvcFQrpBpui8%2BlVPfNN%2F%2F5%2F42tNItf9Q4hSs8RM3MNMYukp0wbEqxorqzO%2BBGjlflcLUedbJqwC3SvifYWh7%2BFRWU74%2BfPTcIdeEn3QOwDy3Upo1qZ%2F5yceNMFuqLHfW4BO0jt8SnAbKVZgNv1MDDcowWCyjX4pvD9eEBi6oBVZHvnahdticVooeYw1OJx864lknZFUhYBgYrmAQaZuiMtht4S2eKgqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=23849172522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라HD 27UP550N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=saZmgJH1cJKV6XFpWdRaUf%2F%2F%2Fw%3D%3Dsa%2BLqSuDnpgzIr0CCrNr7oj91EjYcd5bfsV54WDmIbaRQ3qrx3p0MRIb3ekawSdvJpXKMRomqhPBERy5LaPL3E%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajL2o4zEChLg75WtIUYDnJE2SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4RqZb2GUdapes0Pz2Uw9%2B8e7%2FEThADIEAvrOVAhqMOwBcNZN5FF46Jqg7fDWNj5Cadjacw02qwydgRl6LzMMVWd%2FxAgg4ef62WIJT1K%2BzOB73l7letkN68WEvdrUNJeA7g9RP0btmaeLjvFVqHdSNVnBX6aznuP0uVKkeZvOoBLwS7cO8p3IG2wU73bTgruNaT%2BDzDxwp7nT02YxkVA94lFyVHNgWlfs6meTBzj4WZ5Au0tshrpqaMCJZ41rqBVk8KbjzK4nJ%2BMyk8WZfvabd9Aau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=41260075618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 S27CG550</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UXbkiwUR6wdZt2euzNepUf%2F%2F%2Fw%3D%3Ds5PqV99Gpg1yMNyqbxZn6a7wsXFRLlZLoJ7WsrUwVGhpQ3qrx3p0MRIb3ekawSdvJWwQelukja245IsH9Gs4HieUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLEMkbuW2IeBkkNlz%2BwuVcQiKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4TvymK2SVTuO49xHuW%2FFh4CqksBQeOUkkivmyL3XxRKNcNZN5FF46Jqg7fDWNj5Ca9iwkr9zNBcd11wFRwZv9DN%2FxAgg4ef62WIJT1K%2BzOB6%2BHMuFPCJmzAZ0%2FM7ixN8sxkz2o6quAUoWR0JcnowJIj03CHXhJ90DsA8t1KaNamdePRO1v7p%2B3OescH2t%2FRkIuu6hWTQwEWHGZEUDU8GMKexJ4SQcWwmOk5%2Bp7OCFLitQ%2F44NYd39Vqvx782NzYYu7s%2Beab6ouQfrUB2K60MuBYKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=46930814618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 C32G54T</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0BoAF7KQ6gpo%2BFVNpu0lnf%2F%2F%2Fw%3D%3DslBOjQHq2Q5xFZ3F0sc2%2BhV%2FfyNd6EUQDn4XBGz9i9tbkEFD9EqEzeuo8lvy6ZeyvtaxrWFgjOhiUFsOVbNNbZybkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKL%2BHMhXfuiFC4uELuwCB7ZjMXYkRfyuYyIGWXk%2FeC7sSSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2F77I9I6kAA40wiJEkPJ%2FJP7NoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCvxMQhCntkamkizvDeOFGv7HJM06m8XkkoABSxxLFFelaeNUffKHUaw1fsHkL8y2GmE9Ulha%2Bwm8RMW7gu1hOUtyL4fAvHwujpo178wMis2YAfYo2RBfnPFd8QoKsIW0kDWrhHEcp0p%2F%2FKKziu53PdIA%2FBnx8GbhCJfuIrcXXGVLLIXmri%2BWRK1u9z8iUZJEVVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=23896004523&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카멜 CM3220GQC 32인치 1500R 커브드 게이밍 모니터 165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=hejgsLoOrdPTkEAQjdd0Pv///w==kfLYBofmyMjTgWd15jG7OkYVH/kiHyzq4EH464NRSErtceA87azFELcIaQmWB3gpQMUxWDa2IAyg/y+Xd0ehpsCweimuihzH41jI7g1OVAALkg2Fl1iyQmVNLjnv3yYIm2JPjOuxaz2T4WpXmqYoe7JdW+dkpBkdI0epIa0etdVihtgrQmtn/NKwjcp41MlLvCxN/7CMPQ1+Ph3ViROkvCfMTnsIqzFgJIaMdoKW3S3GaqqbDVSD3aLoIx6al1Kbl9I806UwjmUNWJbZrlWCkvstJZPmADUugg7B9Q0jdh8vBEbeuvESxCMpB4RbgUU/302ewqDSuQWLUy8n1ZYao5BTusB5pPkRZSVOVoEkD9at2Jt8bQziarRUSmwjKyImuq2o26wotiMGT/5x1j42FGqruSuqssIPu7JXlw+WSucSmRrNNkxGVnoczj8ZiMLWLJ572/sNawaAxR3mF8Wevg5sKxl9sb/6aL7LDyhsHQ2YjrQQ0SKSSpZCKHpnlM/Rm/UdzKtj5HAVaXuVX8Q44umo8EjLsCWSXam+rroVtXRCOTumo+HBHFieSjDn6P1EdtNrpRm/ffus2CwyT0YtxHht1vtswFIN8yaJWWkn5U41xEQKUwKmuC9MNnA5VlavZemJnDCWq96Pd7ZaGSMx2Nuiq5zDACUZCG2tDEfr3ZX9LuC+IKleAWLQ0sKg0FzGz+YROPWzAkVpE2Sv1miWXYc9t5DxAYfyJv5CZyzZqCs4yjJ8cHjYaRedOiH0uldPDpikW5VhJI1Gg/btNahi/J66lG7vb9HnWFUiA0cqotbs6OgX2I5KIIRUgzIsJsP8Y6BgUQqSfW8rX7UJlLMjYAybqmuvRBJRmhP1ue4qfITZr0ra2Jln5oFg+0GOS9OI8EkgJo2hERuSCPv1rY0/AbD2SEDPSZdLv1sbBbwEQK4+Z0MeC3MUIxC/RDK7t/TAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32Q24P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=7Vk12l4CWfhO3sUBgfDItP///w==kFY/pA5Jiwf/B5cKMwjRP6q4xesXhDaHrU0GtT29KMPDJTcrehEXIMehp+UjwcgdzcH73n8zZilKTgTsadZ2VQ1JwHYEEhmA3MyIxfCEobFkU0O+LC8G5RPldV6wCqcUTdSyqwuP88N0oL0IX1CgJmGK+LYhqTpXeA4JWtCfyT2iUBLD2zZOcbg0YwnQfhFK7Gk90TELI65yCLTjMQIljNA2X4j+GTBprvXvi9rr7qdiVOHfO7VfJCNuChZ49wfQ/dqi9ViCGzMymD7uhMQNeSKVhSL4LfE5nR1rQ9W5HH4Lc9hrxe6noUX6gmsfNAm2kL8T9CjTVVULHKQWBDYGInFb/DTRzdtrv9jSgy+I06M8iryPEwPaaISuhv4/ag0yLD0Etz1EIOQDFva96CDYx7UaQTuk3ARfsNPmFZAUQIWsXhPn+J1bhmv5tNMIPytyqbjVLmzAuE8QbMps0xhT4Ehu+ebjFC0oi2LISiA03yy6ieHQ4NA9mCKNv4hipnkB4dg9PUPhZxOcA7qWCNhIPzOPJ79xY7mJY0ALLWc88Zkz5k65Ve+2nQ8lYjMkQMqVQGOp3xEtUpbqVyrkN9UWRaivOBlizvKaDoVFzo41+03MJYBO1RWpxbr9c/IA8ESvW3qKxYaqAyZ8IuA3AzDgjB9eUhmhLAAyhZeqtqKrNJ+J4s3tTzuweHQyRO7MmISxgPALaW+sqwdq4WWjbak211CYznyxp70J6jjVaVSNVi19qhWLZ54GvWJJoQi+mDDyCEZnMn4A4vQkfI++l5G+YkihKvEXBgxZMmqVDzyFcGBg=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG27Q14P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=7cuFkvDvzZMc4w7tgYLrwv///w==k1y0uKZ1v07NP/uKJZADs861g78o55CEvLKCpduUjBND4eMnWXmuwpJCHTIM4BFXp9Z0BE51ZeALSXfQhCklVVmUzgpnL7MxNri0oBfQ71qa6unXIs00H6yWRpIv9rnwokBpeoC3rT8weaa23CN4TomlsphmWbcPqslewxvYZitp2xVpFOAqghuPMMYzIKueqXiJFmZaREe6eBjHslF4fNISiOdHxHdRhasT24R5xqpffHB0HqL1MdMbhMNx8dG4D8k2Ft2miN1NFtdkCBClQOTwtJFdm6YNnGHPqSOHPdFoQ6CVPbyeYIw61AGNYbM0eDvBt5V1Mt2kT6ATb93JAe3U8nZBg3WMsfvCpoNai9Y/372oeC9nMyKEIGPgzgWWwIffHbVjPq3daa32arfoB+b37koZGLkOtxS4pr0BYHsIKtnuK613uVHaSxuWs1j6WK7io2NtHFW2xFkq04qy9rQo3w5zNKAxA5hhjem8tE6N6iNHodeT4oiuGYCpdZFqjMGuKcjNxn4RpmZytHpO/I2SUWUV9aXmu6lFlCbtFF78ekAV3f5CjMotPl78nmI0FyqTTEx1Jffadrxa2zEnEIM6z+qH4raa1tU7mhwBalmiQbks4qwK++hgWuYfyALvB9AQ59p521/j2a6z/KVrBLNjiqjxBGgcJMeJKhoFtuL2NBw70gYknwZbqg9JLxLxU69i1FMz+kawk7Im+IbJ5md/NFqCAo+VUQWY/dPobRwW7Id8zuyworCWnJp+4QCA5Q38baYlt4+6E9KSkCd+ZCFA/kstrdM199SGvBXG7mis=</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32Q14P IPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=eVEgAU1V/RQjvs03q32HAf///w==k1y0uKZ1v07NP/uKJZADs8xw6LV9Itwj877yT2pr7WwOL1LjViwJgy/W2l46DP7somkfECkpaz5aaS70NsrXSx9IyWVqOQRMvb5mbCqMdUK4HQ4MKSJX/hTrB0FMD/cSD7MXj5vRY8Wi4fmaYEgzPspgi3wogmfqEfQluRjkCsAQ5e3vEIh9tMc3MlHo9clp5paL0h8DwGDScgrbKzmXfshg9Y7X6m52Zf/XUJuJE9fuWCdlu+CQOV9MX8JdXuA/gvXxyO7RCye/Vfi3C1JH6gjIIdX15q4NBxHrLwSi2D2HQf+/DyYMyW8En1A4juiEHggqYqT+PZyZoO67KhJRFeiyCUTKuFaoEyR8ngBNQsXGFQ/Wcn8Vs/Ai+V0aW8A1c2yOzqSYomFB7R3c+gZee/OKSGAh63TK56pwK+9rnI6hWT6KcLB7Jzk7NBdDqnqpABAS+2TAlnD07neF9P4509EwYMRLSiHh6CrLmEcsgWwVPkPqIFF7QGkDn5MsjJBo4+BqS3QXMr79ismdSkWznyBZRNPTLMK1zf035v11v4zXvOrcxPvlYagUEwKsy/M2gBLSbMAC2L6+ogb983E2Gjv5qR9+w5frq+tofP9OOzynEIr9+nWx335GpfCSABVowGcm0AjD12SNHhbGv8rvxOjKWc0vvRPsWg6cbaY8aqLTH+Ac7skC9LdzHGwpt9xJ6tBgMfaf77hXeXjn+IUF0DVV3LTlL8CGtMONuraFP4kXZgx0iWyZS84w/itpat2X68DNTydx4MykDlzx91eBMOg==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 3278 QHD New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=sgf3COaLusJbqfgvkVlOhf%2F%2F%2Fw%3D%3DsJpZZxYKHO%2FnAmuuJY8LUZzAtc1IogVEeqNBHIiqEAkf6D9Doef8fQXU6eDjUh3hF7%2Fvi9ueuHGvaJg3uGcDI1PkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK6PbyuCx6JSXQh9wLBNDU7pnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYFaSnIm%2F60RJEWEWvejZ0Yydw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9koM1fyqQqU%2BtvmcHal5GNbi6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmTMEi1I19qnJczv6kohmwWbsD%2FS9I%2B2LxwdjijZ9qy3BYj9j3MSMX9VSZTpdCPv7l7CaCZTlzTBonNP5A28JWZhLPHBVE1X9hF6ZkrnPWwIQ2Jsr%2BjWC885gfsCNPFdqrm%2FyaETa34zbfNx50VJGcfc2OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=16776093488&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 S27C310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Y30h%2BUVtQMIa449X5gPzZ%2F%2F%2F%2Fw%3D%3DsXWnYbv1vNjRiWyOXtZGMYIs6g8bLEYOIKsK6doA8aBj6D9Doef8fQXU6eDjUh3hF373vekL5XOvMTnQ7gYdyU%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKNZrnMDl7Tve2uzI2if3wGpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY0ofHu0r6C3kqPw71DE9Xe%2B6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kTx2%2BmuNJjwg4YSbbhGVbXS6UxJeah0Om0lkIOZtT9ZLifYz%2F9z8GEPg3uX4SeyFYVdpIXdYqN2mRC1WQDKu8yBtlRv3%2BiQuY1RRDSUqqk0052x7udgikEgiOzxjLV7KKDWrhHEcp0p%2F%2FKKziu53PdLkyDBCQLvGF2ccuoII94zI%2F1Tnq055xn%2Fl1dGaNsK7LVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=38607791618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S32BM701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=AB06P14yE%2BOndv4px7UEH%2F%2F%2F%2Fw%3D%3DsH3r6L0N5a92SoHRw3EPPZumvugTZcWPC7%2BRYmsvGdkr6D9Doef8fQXU6eDjUh3hFNkUEAOxKEc%2B2jVqaDxSxCfkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKHHnZ9TKW6MzudMKdsQ1KOpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYT%2F%2FzOK2Cy4Qpb1bvV6kG6cnFrN04wx1b%2BHNUqrF7rbnqpkT1UPKI2pRTQ7HkIG9khMyQHUr01A57DiI%2B8KcJfS6UxJeah0Om0lkIOZtT9ZJevEnS%2B7D8fFv1DKuLG4wxfA0lVGbLQF%2BexXuxQxf%2BAakrymxIfzPlkEL679ZAxxhR6b2g%2BfSxnap4V%2F9k4%2F31T%2BDzDxwp7nT02YxkVA94lBOq4bWjhvF2CWae5dOPSyNv6X6IVCSfssr0dJQz9ChdqhRnU1dLvy0rzJIu%2BdbaLAau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=31605413618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 M7 S43DM701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=PsjpNZd3aPSFK7SCvWC08v%2F%2F%2Fw%3D%3DskiNZTkWowVg3o9ZHNi0sCuZQj0xa16MX4eA24JBZ5mhQ3qrx3p0MRIb3ekawSdvJzolj%2FYNN3jR2l3Os2pJUJ%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLzHoQeQ30%2FyXTLOjcFAqpFyKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4CU09hTOKqcIscDjr4biQlKb4T7AANC5URaWpTnwfgepcNZN5FF46Jqg7fDWNj5CaCRl3LFUFNm%2FOv7kyMp0KnO7Ps88QvLGtE%2FDBhKM1akVobcDAqsFXy3LWjBFUpP6hGm6lHTWFZmmxYwFcL%2B%2BtkT03CHXhJ90DsA8t1KaNamd%2FTomPoHGImCO5X9n5etNKuu6hWTQwEWHGZEUDU8GMKatu48W9YY9eJdsDIemXWX%2BEOxFqu1Uc1tWyg2%2BY77s4wTU%2BgVm3tUCoiLAhecT0aoKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=47154398619&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GN65R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9%2FqzF41DG6k8wqn4%2BildL%2F%2F%2F%2Fw%3D%3DsbQAKzLyNxZPhAHcmFtv19trscXeHE4pTo4puVmXvrkj6D9Doef8fQXU6eDjUh3hFQudiAdVQBy93fqR53sCshvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKPr3T5quAiR6qgxU1K32NBZnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYFEqs%2Fo7MP36yTK6ijFyFum0mmFAEeToCuOR8ihX%2BdK%2FqpkT1UPKI2pRTQ7HkIG9k%2FxGbI3ZLPA%2FPi98DTfulJC6UxJeah0Om0lkIOZtT9ZKEoM2T%2BVrInx9tHC5Wo03TOv7qw8tL03SAaSxX%2BNDlpLv0i7RPmmvFqaI99rtj67iu92Jk1LuNV8Qm5RNeCCBIDWrhHEcp0p%2F%2FKKziu53PdARqcM4UmuyTqFKfivhpVx5cbrwD9MQocamVWZIsxkuYVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=37233039618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G5 C34G55T 165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=3i%2Fg16xCXLCYqsYdXnx5Cv%2F%2F%2Fw%3D%3DsqrZbpk%2BC0OupXrBWHwkWWdq9fTi2NI1G5rcfgTTQSUv6D9Doef8fQXU6eDjUh3hFPNYEdpMKKrcsVJzvLiiq5vkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKpT4RCWxZ%2FXR3qXgWc9%2Fvr5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY9LcVhWGpPnPCHeQ6SeR75Cdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kbCpOlUck3tuQOrEFFWUgBi6UxJeah0Om0lkIOZtT9ZJMU0Uso2mT0tJ9ynewSoL%2FN7JAv2VC7Dqf1HcZT9tq6D03CHXhJ90DsA8t1KaNamcs4A%2B4sm8tlt0KREonzHNsiRFnedwjr%2FdtB87gY3naUK%2FZzo4bJsXm%2F88UbQ7jLg3DEDKglCytrpfXTScZdLPSHWL6Ef6fwm%2FP1i8fBETcwIKoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=25744041522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 2460G PLUS 리얼 144 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=4NlBGdGzmPL77Gwy8rsyTf%2F%2F%2Fw%3D%3Ds4XK3SRlJSigtweRskpo%2FZCoC3ooIrnrCQEFw6%2BqdJE36D9Doef8fQXU6eDjUh3hFpkG5nxuNL4%2FQOyHvNiVjdvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKzg35FY8GnLaRmQtn47vIZpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYz1Mcvf8j5gs%2Bm%2BNW8%2Bxi6u6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kP0KYy0y2MHhyUrP1ACjK4y6UxJeah0Om0lkIOZtT9ZK03MklQGx8CjyL8m%2BsHfYmLxE9fbs0GBcHys9rFFZ3EiyHTSOmJSDJzXDG154bbdWkEB08dtuqWbsTPGbr93OgaRc%2FaoBGn4kGDDGnhVaqC8vDllmgI4mUFiKSdbPhy%2BmIDf9TYDOC4LzgCehLsur5I%2BkxUgfwqMUD%2FKxp2IGecawry5dnL%2F7T2bz5WzCrSB5Xc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=32237923620&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제우스랩 P15A 포터블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HYJcLiqX%2BkG67u%2BZwehftP%2F%2F%2Fw%3D%3Ds6wn%2BYvLSxDPUo2YnD5Ladx8Wjank9VdcwJnjKGrOvfNQ3qrx3p0MRIb3ekawSdvJbZZAGw%2BRuLL5%2FuoXb2hIaeUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLQahfztBy%2FxYsI%2BwV0HuB3iKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4BZBqebwNCKn6Jnb8ayq4wVicIargk1bh0Ffjnole2TJcNZN5FF46Jqg7fDWNj5Ca%2B%2BsuTAd%2BBznd%2FFPrd70u%2FYio4q9Ug1qq%2FB3mC12aCP5jXQS9G3OiTnehCN2xHueW6UcMxyb%2BjMQ5I%2FWiAWUv310e0%2F7oUtw182DVYHDHcyVHruXh8ihFsGsAtDhDVH%2BxBLEIwxHGfkYV1zSZxV5TK%2FoLRdeTzJJo5DQ5ovPMjEXNYhgWEcsghm6R93Q4xrXTia8P4HTqRO0Hey1hgDUCBIVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=20651265453&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 S24C310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=sgE155RPmjv%2BFOPdj0W%2B5P%2F%2F%2Fw%3D%3DsoK130wy37Ya9nE3HsXje6IQm4NXP2zPYpvcVgmOWAhxQ3qrx3p0MRIb3ekawSdvJekm2th6w469ay7gnhtEmgeUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLjlhaM75gEzFLkm67xy1IoCKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4PqHMGPl9ZefVuKavoCNJ2E2fpNf3TjLFne47pmg8LhpcNZN5FF46Jqg7fDWNj5CaSZsCPPrXZaR4HkU72BsxNN%2FxAgg4ef62WIJT1K%2BzOB5HHIgooiEXETw5gP4vH0p%2FliheEXoKlj4z1wm4Xb8GJJsRN6706ZS0T5jbnsNg%2FcMqXwgVrEokouid3TwaK738UTeuJgZvRvEK7gZCw3B0%2BkkTVYbIk%2BU5pMTOfj5%2BewfLdvLTOlp9c2Krt2zP5UB186euOFlqYxGW3xtmz76xsQ1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=38608938618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG34Q10W 1500R 커브드 게이밍 리얼100 울트라와이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gpmNipc1ZaozvptlFllhp%2F%2F%2F%2Fw%3D%3DsuSPYMLcui6%2BivDh7jrp%2BG8CPzGZENU5fZTrpRx8bcYpQ3qrx3p0MRIb3ekawSdvJOM3dyzlaSrBX6Oj4FL59d%2BUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLDM%2BhAVBuhf0p%2F3HycY2g3CKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4MHqZWRpowNxx%2FUoSejmcM4oGzJz%2Bdz5ljDqOM9bKRv1cNZN5FF46Jqg7fDWNj5Ca5HbqcuGRziRK%2Blh5Whz%2FQswumCHW%2F9xMw8vth%2BbiSXU%2B1pJ7fULyZp52eme7L5V56z%2F1siSzAXAhoWS7ZXdvaVjCI725aeOIdpx%2Fga9M9ikQ0eLJHni4uelSqBIN22brUKVcWiiO56CioKZYJGCohbsD%2FS9I%2B2LxwdjijZ9qy3Bio0rE7PdeOfg3A%2FE4m6uBjEjfl1Ls0%2BCnrgtdUn2SEhLPHBVE1X9hF6ZkrnPWwISUjlPiFyAihHg8O60WXHb0FmBVRTwgFHg8L1%2Bf6c50H82OqH9l6YII5ugOGfB4CYY%3D&amp;nvMid=20889802847&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 스마트모니터 LS32CM503EKXKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Aekiw3cgaDJU3rHE52hUu%2F%2F%2F%2Fw%3D%3DsWq0wsx%2Fe6Z7LGl7gSJFBqRKHeTM7qcepsNNDtULnX376D9Doef8fQXU6eDjUh3hFt9e3RKn2IDmwmm5z%2Fv3civkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKFEzuAigcuLqpegbLcd%2Bnp5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMY3wn744UI9kKckKfgEXG7AJCUqhNbugFHlLh7n8V5E%2BLqpkT1UPKI2pRTQ7HkIG9kzAjXSh0smg0xlvbJiorS1C6UxJeah0Om0lkIOZtT9ZK%2FGOa2uH9q7oKZii1ZtBQ6W2vUjsvyojqg6WXRbgGLbj03CHXhJ90DsA8t1KaNamc36cROJzIf%2FLK0W89hG5MfdTln7d093ZloqmM%2B3f72YQTaBr0Jqc2MKIz6NtlZlOyaE%2Fvsn1QQfeL6vafoeRcoQfRnumwDJqs0OCoIZN8pB4KoDr6us%2BRKRCOTdsWr9TI%3D&amp;nvMid=39856013623&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인터픽셀 IPU3212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=77lDUBh9rfsJqoSTmdDwVv%2F%2F%2Fw%3D%3DsoXXQzbA2dH73zaQbuWc9y0w8OfZo6F7LLYWfl8kaql%2F6D9Doef8fQXU6eDjUh3hF88QMxGcev%2BcylcxHTkSwW%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKeUFEOV7FzXBBR9Mb3Uows5nNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYSheVplPyKU0RhYJb46Hs0TGLU6s9nfQJSwdauULeBezqpkT1UPKI2pRTQ7HkIG9k3vZ2GYpUJkNAG93zQbKPCC6UxJeah0Om0lkIOZtT9ZKhQyAxwODrgz%2FFZhXomh1MESWnP51GW1x1lWfK3IjQweIk8k60ekmuBcfZD8JET9WhmYhf84JNnxZ2oddp7r1xDWrhHEcp0p%2F%2FKKziu53PdO6WM%2F2aFFY9Im55zN0io%2FKAs0WbmQFEtIfJzUPDT53TVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=42796505618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 TFG32F16V 1500R 리얼 165 게이밍</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7aao838AZQy06gAPFiyTtv%2F%2F%2Fw%3D%3DsRyTizwU8JGqyE9zp6v9CpiQfgZwCAWeojltcUZSyPV76D9Doef8fQXU6eDjUh3hFHX3ndHlDOcX%2FlvZUUGRUTvkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkK9qSKXgoi8oGbG2WVp3jxEpnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYHIJ9lt0NruW1%2Bgspf3f%2BbO6T3bDtpWlCEOHcbcnbPa7qpkT1UPKI2pRTQ7HkIG9kfWhD%2F88oOFOPLN2%2Buca%2FzS6UxJeah0Om0lkIOZtT9ZKPspwxiPpKrE5GNXPxf%2BkyIDpVjuunpeym4ssFsr8nhMH52ksr%2FZT6drnt%2BhuF%2FJnyNHyBUXwWVD2ki0TxnNzy9s5WQN0ddEjnPw%2FLNGJ4K9hROOZb%2BYX7%2FTE98n6sER4RpOFzCbaM6OU97uoPifjrOZmNKzcBU96jgO9Fs4l8ezWveT3RN7c%2FOEG1QgpxnrjHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=18778755031&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤큐 XL2411K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=RyFuU09%2F9WUAQOZeK2vk0%2F%2F%2F%2Fw%3D%3Dspz7paPQncZbL3rLPIjpdaZpIhqVWM8hjP5C%2BZALTyGX6D9Doef8fQXU6eDjUh3hFeP9U0jVl14ur8iycFn3lE%2FkGQznW96ZXXML1Z%2Fa6rrcE50THy4Qa1FbXfsH3nuilCHtkIeNrOv5zjhvEQdrJecv%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKkRJNtIMOsHYEPv9XvMd3epnNrwRClxwG6KI6Xy%2BWtBQYrm9GcwY0MI07fhknwD2%2FRvfhfXr9KG3SnLKuRrvUlsv%2BjB2erv%2BZ%2Brrs5VHOiTRLlIk0uAh1LVcUK1nkYRMYLQcw87l6OtrZI%2Flafl%2FXmCdw29MtgWojygKv%2FCpg9T3qpkT1UPKI2pRTQ7HkIG9kuJinu0Gg7JVAcokJ9sUjPC6UxJeah0Om0lkIOZtT9ZLIt%2FKkr%2FUSDUSazPTWUdqULo3LHI7LIjqRrfWkGjiMElWTpkvbsiaY5M%2FKw5mMdJRX9NqIGXyz016ZewzTQHglDWrhHEcp0p%2F%2FKKziu53PdIopRX75kkwnJ38HfJo4J81VrdtI4SwMrG4jiQN679jsVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=24196764522&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤큐 XL2540K 240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=m8xmq3ZElgEKlbtJi8JRAf%2F%2F%2Fw%3D%3Ds2j%2Bi%2BmXv3NqNqPBxGBxJ7izrGjeUDQyKA%2BDYbGjYze3kEFD9EqEzeuo8lvy6Zeyvffu5UpGouysb06S7nf1mFCbkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKKLqI%2FUShivyqgeU35s7CLTw3qoz8pSSQ9r5bV%2BsqLGaSkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FteFQ4ff7JYzPJEZz1kr4LbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCfv0OYJv%2F0SyjJjmXYuM3P7HJM06m8XkkoABSxxLFFekDnidiYVrsqu0F65ESqYoG3iBm3%2FGWKAJpANJ6lUi0z7Vn4b2sRFny7ssMKDWEj5ot%2FqftZKouG8kzf0uah%2BtJnUpTzmQTeleeE0y%2Brv8xbAdQh32dVGQFSVGH8TxMYnnrvnAVah0rR8EDKAGccl0TA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=28506139554&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 27TQ600SW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ojS5JNv0BFx4kWiatvcLMv%2F%2F%2Fw%3D%3DsfGWkykLUU9ywS2m1sIrIzZcY1EZZ2DYjsNrG17968OLkEFD9EqEzeuo8lvy6ZeyvPNrjIdRzBlAyfkGuqDqqRibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKLEU00i1JulGcGSrV3w%2FPWPbO8%2BakWGNvd6eKchuKI40SkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2Ftgu63KBrLgvMxqD1ghxcQbNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCwqAat8GlhzbOmMlELb1uobHJM06m8XkkoABSxxLFFem0aY2Zik6v2lEOmeU6ZoE32iICY3DPD%2BxxtZjS3TE2X1fhG2VzFV85fj3XfmZ7xznlYMR9sRbYWrTkDi4fYm3niA3%2FU2AzguC84AnoS7Lq%2BQJFXZcJ3aiw5HO4BtPtEfpB%2BEIlnNieW25hdHU8VIL5V3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=32982708620&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 울트라기어 27GP850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=FbHXeXf9BF%2BxZm9t7COfM%2F%2F%2F%2Fw%3D%3DsavE1WywO25aeI3BOLuBPdG%2B4ULzOdqDxLcqIn3bCQ%2BpQ3qrx3p0MRIb3ekawSdvJDwW9PmF%2Buoe0qSLTdxHteOUBGPOQQPqUkbd3qGPT7wKaQVahV%2FZhbXcAlQgRJNmbS9eifD8DFDD%2BF4DSE5yCZN9%2BKy%2Fm0d%2BgYWHtEf61Jo5CNclKwvLyA%2Fys%2F%2FHPPajLAvqvnxCQ6O%2FOkXXgj0BB0SKH4uGhdMZI%2BTAm7Oh3XZYWq6062OEPPa9WB%2BtWbtCGFGjvwuaVi%2BojHJYt21A8b99%2BKy%2Fm0d%2BgYWHtEf61Jo4AUk0tbEb%2BPaAR8Zvsauh4yyfBziOJqG4mzUumVhCeeMCi2YHWQxIRK4zuBeO2eitcNZN5FF46Jqg7fDWNj5Can4AcSbUMBSYVec%2BawMiX8w1r4dfP587AQ2K6HlNjLG33l7letkN68WEvdrUNJeA7aOGF5Qh4xc07%2FUBUElFv721kcR3BVsw0AJn3ASTwcFA9k8rJRWjVeKWMrfve52FfUTeuJgZvRvEK7gZCw3B0%2BocgDNOjlAWBAxmPDyT4KVPHHPQIvi7j23L4dEF3rtHCY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=28378464554&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한성컴퓨터 ULTRON 2760G 리얼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UoF8%2B5R%2BdkQaHU0vQmsmt%2F%2F%2F%2Fw%3D%3Ds9q%2B8kHZVLgV%2Fl7IC6bU0eVBRHHpLacEk0FtstWSJpWjkEFD9EqEzeuo8lvy6ZeyvxEb13CrFqy84F7DeIp0d8ibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKLXDtdWRU52sEvhVeauVuVVpWUnudkW%2BfBVcsKALb18%2BikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2Ft6C3boXtIZfoWd2qcMAti7NoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCuimCiRYwDjy37Ml6uEcalrHJM06m8XkkoABSxxLFFensVjGSnkRWmGThSt9bvS3UkphhMIFqpiIwpLL9dfCmQ69WG84DIl0dsnDYrbdK53DzGE%2FDui19hdTNxvThFdKkNDGCBudCft6iY88DY8HQvb%2BGBoyQkiFtSLwcV09cBvdtbvnbLxXsEWMIcpBl%2BLlpGTc93Nn6ymrXOfmqj05qgoVsN%2FiAcjmtIwlTUFZwg6A%3D&amp;nvMid=15020041438&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 오디세이 G9 S49CG934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=AgEav6bz9By%2BBxdP%2FKbVmP%2F%2F%2Fw%3D%3DsTCB9Th55NE1cIoGg%2FM5G8obVpiNpLW7DMCKeKnnoHRnkEFD9EqEzeuo8lvy6ZeyvnPgWPgPthKPsto%2BJHAJKTibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKKmmGWheHwzaV2EX5BpXq7hhJR1TUUF1ydDW1O6EFixgCkbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FYDORJpoy0SKGrP8mxohV5bNoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTChTOOBg%2F9sg2PYiHGeUCIPrHJM06m8XkkoABSxxLFFeni8564YtBt%2B21nrK9vCMven4Ho2TP2ncFOgsu%2BenGQaDw6P9zy6dtbliGVQZ3O8fghPkUETTV%2Bj6jigcHZdWqzAYTYOqTv%2FsOm0kcFv3bjpP%2FAc8EleRBcle4NBZGUTwYBJKwvQcQEUlReeg04iwOib1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=41164859618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSI 프로 MP241X 아이케어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=VzhNW3ULjCRA0PHdC9rA%2BP%2F%2F%2Fw%3D%3DsZ8%2BB7LAhTSs1H24FAbuyc8VD%2F2E8cSmqeY7WwOZuRc7kEFD9EqEzeuo8lvy6Zeyvs7rK4q7bZp%2Fip%2B8TYNG%2FyibkrL05OKDobnq08VxsgF%2B98nS%2BI33q0hQ0qIdmY%2BMeT4%2B5%2FvO2Cfb76yrqqiajeVVd6Z%2BmZ5fvTALbBBPmfKJ6LYABWm6lRkxVNeHofoG1PMYlxk%2FfAGgStypbKLIv8ikbYBqhSVo%2BVMrTfeSHmNauX%2BJjYwec0an2vC7Tl%2BDsfypSVkN9mSnTz2xz4aFqUVVd6Z%2BmZ5fvTALbBBPmfKLmnGLANk9TjQtjOEdf9xG%2FkzanJ%2FXB3x6JN5hW6oGEQ7NoujdiiNe5Aky91pn4j%2FK5mFStwjMdiPGkB9qDmwTCiIupAP%2B1B38Ln4B0Hu7wgLHJM06m8XkkoABSxxLFFen0cOWfT%2FkLfdRLgnWHWAk0bd6phvBIKSJO1cR3d7XUHz63UIxPuuMx9Yb9B5Yr5s0rUuPnOprEY4DLMMUWoGbwQUO7dtgnPbKRpy2U1oT8dogN%2F1NgM4LgvOAJ6Euy6vnstjvabKposCRGuANxPOBwZNzbxSyb7Z%2BIusPlbct69McgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=31403668618&amp;catId=50000153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 875L 색상선택 (RF85DB90B1AP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=6ks3pzQSc1SiMCGB6y9KSP///w==kfD3CeOyJErnF/G/hn3KXxGfH5/qoBGKMmBgPv6BG9rnY7da7xcYVGwZi0ThUX5u3fH8lH/n/XJUrH4ePvldWG+p0KVm+I54+PKF5Ue0Ys5tNbDLrD5XqexKdBrVpxRuJbaSIycFxO18Hd2hbC2X8nJ/hNLvF0crq/ODjb8Fs7ajEicT1etCRLeVeO8z3gUrX7/6prZlCKYBUHTgntvMA+AnngiY3qNlSs9NRrxGXnlXZwabAattlAIugcC2ATFFKhpE0dvT505eFBPpg2rYQ8XiAJYVSeh1iyfoNhDqzdGcgrubzrxaqtYS94Bw/UyNcFwu+zU/5aMa7igfErKeg0WZisBGgYcZlDh44nnuAMfo+QHI++R89FLKAOq5Kkp/jMbBLq/o4jh8+Okt6xBU7lVNMYHbq+ry7If3Ccjy2zbNGXcvJvKqTW5cbYyISbBgS8lAunp/TILlGimZH/cdArjxO8uK2nTE0azhgcWSchF9UXDyZdK2DmlRCyVYqvcQ84CNt/S119D7qAOChDY7U0OxamrbuaMqwBM83SN88ZP2JFEz5DF3pUP0VL6jvae8ECfQcNKPUYwJ0UCtPVg4yb2NklfBdV5xtUx7vKdxzox95HaTZeuPHRQr7enFfRvCZ2Zg+lhN75kLjnAlgPXLYiqjTzobyBmtZk9+c2CJHJGFkoZKG7FgCVYaY8aVl28dYCao16w/YSTR+OkPRoFqmkL+e/81hI0Z2BW1LYzyi6R4HDBaIY6Gd/nggBhgizjH1ZtXIIR/+0bNIQMbKdPKbbJyO5+4xfriDM5P2H/+YQl2thb3bFGHKbHGK9WA0sWtTXMOFRp7QjNVfS01UjVNAvw==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 4도어 825L 메탈 크림 화이트 / 크림 그레이J824MHR003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=Jgg0T0X9klCduE9HWicwwv///w==kfD3CeOyJErnF/G/hn3KXxH7vS3m+1GlwTBhi5hUYcSU8SByC+30e1EtsaMoh2cQlH5CVO9/2y20IGRZMCYD8NMPKj3qqzR+Ox5uGJlNoPLtul3NnSEuTpNQBd652xfNmIuSnV3IEksiD5/hp0jv+5B4euIzodge1S9UVT/Dvgm/MkPrBWmU6E8PGb+oHhqDmJmaZmX405AteyVev2bas96ovRcVIqM5/rdQ51LMvYt9KjKobKEus2qgJ7XQOG2k6SmxdzT/lyjuHz9jraGL4FJWeNXy+I/ti6gyifwtGZxbcrhAlSsUtfYw06z54yvWNgo3mGnShiSL5u8pUqMacyTp62NbsF0p1YNK8VvXAWMSyjKb51JyP/tmzjdYmdZN2ZxOML6rV25yijNFOdOoJKrhkHVCvg4sfaRjlvJJFNUPlXVUhMlv4PcQ9W70/5Q785F3KsW4Te9vGfIci7Kr41Mpm6MLriN5LYAv041J3z+YnbfyMw3v1iWsZwqgr8dH3DywBJvS0Pt1bxAkI0D2RFz3V5NrgHCVRf6RG9nyi6vUl25nuF9MuQv1bnkD2h5hZMVguutM3DsW0DvliUjlKS387eg3z2plrUScsPtqcjNnP6jnHUAQbms+jCvp09wn4PJ8UEN4sX4cL+iFNKOXB7OcomqJx+RQ9b9NOkuVVWDSPn+HaYX0MYV/h7RABGqKktp1EReMJ9wMXdgk/oK5XTMaqS2dl0QyJwDp63DiUqaPrg3/0KpzB3x7XATgLZyBkAwnDW85WWJH+m3psEOB4lFgvK+601Ff6MHCfYDVN/WOSStZCxOuPzu2YZwDWGwDm</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 비스포크 4도어 875L 매트 멜로우 화이트 (RF84C906B4W)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=uvRcuCg8FlWHCk8UiP9u2P%2F%2F%2Fw%3D%3Ds6A5mRHSk%2Bi4B9d0oudsCN4J4N6zX1nPYKo9b04BgqG1F8WVxfV%2FmwmnX7Mz1na4yOIwP1DYQp%2B%2BxBRCZTQsX3UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27vq7Jva1NH5L5%2B8FDGYqRic0TXFIIV4JvI9gZKiAM8YQ8gPjul5bRstm%2F%2F%2BcJoncyZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis%2F2ebkh33fj3dyKT1%2BW8b9uElQ%2BFmStfIErk%2FCmBmQgWXA6ysn2xYy8XrhrRRnMSs0JxAz2WDrJir8OdDOFYYEEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6BFKffa0X9HBBZY5w5EzFHmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sdBVXxebWHpB8WDrZaKAbU4%2BEFh4yqZWHceWQrNLEuDpwC30GiH7Qyik%2BKkz9F2FSg%2BQl4ec3SCgPbiJI1CYJJAwE2Y8Of1mES8QC3WVoVkitv%2BjIxrXz6c5MnYNRiWGo64ifB9DVeZ8ffla9GlFdv8fPh9TtrhXPk%2FQT5vBvVXql77GyF1IHCMzZ8TPjFxQiA3%2FU2AzguC84AnoS7Lq%2BZXGgR%2B3Vt1YHLEjGdNHQR5lFlSXwxuEUuXhHEwwgwy35Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UEscHwwMZrrbkfsWGQPAs%2F%2F%2F%2Fw%3D%3Ds9v7RWLAYo2ULR1Q6WfhR4DTiogHUYDPMTAIejcwMRGTnSaHCvCuoi9wE8SzWjVqE%2BNAkhLAq3DSmZ1euWhzbpR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGI4kOpmqmsYp3K%2BvFTvoU9HvB88kMSxX5eWmjUTZpLA4D7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9jkqf1bKzmYESKxVpSXcCfyEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30its6XZcxKzp6RYoqEeCKr6AhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PGSidjYwi41AaQTWhxUxNu1RklQtQILAKIGh%2BCbxtxSIclNrgYR%2F3nK8uIyNurnBeuwP9L0j7YvHB2OKNn2rLcGX8wH3bCf1kN3tP68Mz2SOI5Iw77TGAJp6SqwPR7gM7EaThcwm2jOjlPe7qD4n46xHE4MJ8OgcYfdzkTWudw2iX6dUnj1YuXpDiNB2HUbUozY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=38723041618&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE312)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=L4jiNwNcUJJ3GRXcCvkj%2Bv%2F%2F%2Fw%3D%3Dsj8qP5XkZeRY0qpPF6Bb3SNhbXsL1cYmI24UqwBCK4sJs5nCytg3GiMUMnBaVqBbJ1%2BdkGqGT3tuIru9LbP15vtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW355eJcqB75xldwLiLOdYuGVwOHkzcM3SH1%2FVCXDfhMwGIM6VWhvfXT2rq0xnfIJdSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLUAbAOoNCb89zqlifhPPCZgCnPdBScAtaFCbhTbZh6l1fG6OocfxsE9f3jdAUbI%2Fim6JgEDxO0KEC5VNqxiYZv2CMDevNjb68j29xqrbjT5mvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7KPxdRCCybIP8PmHWD%2B42Tjokh7KNEkkbwBBKOUFOEEpKnyJ2XPw0zAdMQkVQ81Vx%2BM9jy6iYscvDWokXL6%2FoB7jEqIa5f%2BqDdVKKSNTH9PK1ulc8Sa4B2tG7dQEaLjmwxFCZ6Twy4PpOk4N2nDQ0r3avdcG96lbKbdQyjln5eAMH%2BP94rY%2Fh3j5aS5OatBZ5pnq%2B5X1MgqsNZE1CayNfYyRs5oxGKhlvylA045oKzFJP4PMPHCnudPTZjGRUD3iUHONNxfChUzyWuEvqKDLzcthNos9sI57ayx2hmd39%2F%2FlayXn6DiW5pDuAQ%2FWDG5jNDVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qkia03tE3tGVUssKN5Bomf%2F%2F%2Fw%3D%3DsDuvvbXqjrPpZrKvppmArOGzphkuJmINdhdXA5drJbwxF8WVxfV%2FmwmnX7Mz1na4yHKgQbWvThpWLqeH6HaGS6EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitsaKD8pw0%2Bb94uB4Kq%2BP2b0y9MZvJNTV%2BO%2FSn%2BlZ1pdmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6ELSuCWkrH%2FRFu8JBKIZNjWovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2sl94Slk09moK1slhJnJN15w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2REhwIHxCgBlR07cEV0VSC88G2lR2zcNaPOqlm%2FFfAi7xo95Av%2BLcv4OKi4jngHI9XKiiuYY5M%2FPx3LZmNUDACgkRKs3OEGgf4qJqiEaCbaJEBhNg6pO%2F%2Bw6bSRwW%2FduOkL7UJv66kMNFqQ0lelbfRCJGFX%2BNR3c%2FP%2BU0qrNbQd04DfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=33365337618&amp;catId=50002558</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 삼성 2도어 306L 엘레강트블랙 (RB30R4051B1)</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=7SsIEKKuxuzkNuDGY%2FdH6P%2F%2F%2Fw%3D%3Ds7QSBHwjbYWkf1Rw7OGmcbjh6mt9%2FLu%2FFX6iOZZDQX7ts5nCytg3GiMUMnBaVqBbJC50d9CvLYTVFG5JeMfW5ytof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW355eJcqB75xldwLiLOdYuGVwOHkzcM3SH1%2FVCXDfhMwGIM6VWhvfXT2rq0xnfIJdSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjL5lsEcpnA3ZDH8ng5y427XmAVRwLEA94YP0spFNdQuilfG6OocfxsE9f3jdAUbI%2Fim6JgEDxO0KEC5VNqxiYZv2CMDevNjb68j29xqrbjT5mvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7ryAN2JleMc5EoeXJae%2FWCzokh7KNEkkbwBBKOUFOEErGIKQIFXVAm833RiRKyLZxOtiiOBnYP3nKW8JXveZ2erjEqIa5f%2BqDdVKKSNTH9PLPkOQjN%2BUug7jYyLRSpXmgXxqG8pZQOPzl6BKLXIgmTOd1eLDUblk9hG6GHW2N%2BUVk3zjxKT%2F%2BuMG697ZhtHz23f92TycW5AZmxgXC4KtM4j4h8oWmn1JxfSd09D9NXVBRN64mBm9G8QruBkLDcHT6935J4zAHYDBb3kPyAY3fMUHzXvknD9AdZ5dl8OOXuL9vU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=20858302566&amp;catId=50002559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[공식인증점] LG 통돌이 세탁기 TR16MK2 [16kg]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=2uTbcu6pca3EbkypPMUW6f///w==kEr1sRe7hq360GBUzTTcKFF2xFRqoAXRLo25+WVdnJH8n6Fb2KU/O/gwDqQTy4Dkt49iiqvcgt/wXtgHnWOndJIqBwgxNB3ZYuwfd4cQUK4Rh8DUHS+6mdH4Tseu/4aN8BzMbldDlJFMIXR1PrNwUZEqn3HnixPOm7AxCoLjZyCBUROX8fCW48JvL1HghdV07Ry4sq5A8LXqsXxz+SG0u+ll4QkIfDyfNetp4xSy4zUF1jNJrVrAxlXg8sq7olAvJKBLi4Ej77QyWCB8yHAGeNjtZLwUcyRZJ+Z5NPeOsNLuvJaJkYyflg58/bWuN91zxV9EHRQVZ1WsoosN1Vbgpnoi1Zf4ckiPRhkvPXyPtTq1HLpmqzgG4taEkUv2kh50pLmLNMe9JubCY+xlIilzU5x4lA5a2X5I/zNPRKCBy80yV9hWdR/8TrafPUFTrHyiH+w6alZoF2i6AYrZPT2+u/gdBbftO4HOBOZY2ptJeCN/qeb5Y4tKyfzTYqe6EYc9uc8VLfmOSfHpkJ/PhK/LCo5eTmdnXpbn0qQlUS6BWhFonCXo5ruKDed0rj+E+9h4JFN/IMADWfiXO9yJu+ysdGFlCN+lYqjq1Iss5PNY39vARKXti7F/QHDAI6D7d1kmKlhNXCfJYDC8vsnriHAqC/1oHqAcyRIITObi3ku5x8pedNzS5pHRLi3mLOKqG7Yq/kHJAXBmO+oKHnjUVlVMgLRpDqSAO8JNDk29/am/gLXxuKVowit3QDgce4hPNMS0eoyMkSb3mk0H8gpNPn78Fju9s2MlYda9KqPtyOLet5hB9w+c2/W13igTglP7t0xdWzQfmCyYpXvHybDcrXI69qsbMsslAY7KK1ih+zdTNuMgJWkvxZzXpUXHOIyxD7NfkBxJu4H4YvuqLAbX3eHxhNcQq4jaiUHj8AZ330deCLYA42q+WIOih7bs7qLq33AFJZJEnfMJkmAHM05yVaylrTZcJcEpty8KmEo7rJpGZyrCot3VjAuzdPv9YoEw4t6FO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이얼 소형 미니 세탁기 4kg HWM40FTW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://adcr.naver.com/adcr?x=FPpS8fA55HXIKjKKfx7cG////w==kbhGgiHbQmcGScHfHsmnDIlvb4HwEXWEczCLGUHsU2j5ScXIe1JK2Xl8pZD+qDtJzhjqedyvwxZ4G+0VafAoDJbU300CyNJbz0NAUrnAW8RyW5lLY3F6IMBwAumHmJktpxplCrYhnxduOYqpx9BiJKavHQtoniNqwZEXGxpZO+qFQBoMBgJ/R87P2olXoUzwaDRpAK/U/b7qo7EOaTbWVaOpyFRiFLis9GCvxyCUr2Po5xxDlgIH31UHnCS7On6CyGqudHnEuaaFrc59+8XUcifS13M+f2FaHRLPIcXOf8VhObA/98ikQL26WxiUpp98ckGjXgdnvSZx66rRQ3Quist+9FaPRR3MWCFpdwqItCSDMkfLjC8mWgJVZRPaeoTeb9UmU1jJc12gnB/y6oQnaG/adYhHoZqLwlB5S7CgW0R/iyfd1SSFlEfsz68uQCqC4BdxwLQarhn2pXJ2pj3H20Gzp0elQ+P/VD/2fCXla0rmzec3suWfgRffJhikr2pWi0VZfhox8lMRq53HjZraog3R/hVrYC6I0RKjBEPFGLqCCy/0rXqXYYeiCGDcrGLYnQmZoPNcgUVFpNyjActg3aPppA8nekulDKEDn7ZMYf6nVpqj5ZWmoA1QpRs4epIhYiYyGOdJYGk0IdenHdZE7UFkaWjcnpn1t/aLFCQiW4lpHXyiLSUHnfqSEZERTpmPf88PJPPzfX3wDvap5iIARJeZVty7RstwkFCya10KfijWYSnSBUzDrrWvzjLL57EnzVCoSBCc8m0+/7KucwE0HEAT6yrWma2b+txTcjFuCkEUl/rGl+IHlGj5G22PiJo5gFL9c3jNZKbBKAo/g7g2ZPhCYP+CLlsqRI99KqOnhDehgBX1yARRu6M2h2Ax3O64uLpWxiDtfWC9IiEyb2UO5omcsbeLrqmwVQi7zjJh/qoyG9ANK4V93oncsJWphDtnWglj1ariEUlPvZJ1SBL59PzmNMpglNmfR0ONYhQdC0DE=</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iW4HnkEB0qQZwrh%2FIif1sf%2F%2F%2Fw%3D%3DsB8HpKUBx%2FxRZPsljyAQdFjh6mt9%2FLu%2FFX6iOZZDQX7ts5nCytg3GiMUMnBaVqBbJ5XjNZgjBDWo2pANslV025Nof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjL5lsEcpnA3ZDH8ng5y427XmAVRwLEA94YP0spFNdQuilfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7wlCRud72a5Nd3BaBIi795Tokh7KNEkkbwBBKOUFOEErGIKQIFXVAm833RiRKyLZxLx0O8EtZBsImHdgIlKtyxCI28QDIftdPo5sZ73mZF1RhzSE1nMyaPP6NUTqzLMmPGT3vE4FiczrTd9ngDCh2t7nvE3Mx144l3a%2FhasSNjwujriJ8H0NV5nx9%2BVr0aUV2HVvTez6sIJ73tVeCRUBvNqz47TdCvq%2Ff%2FdQcpY3NAdVicchwRNwmJ84TyxvjggzF6AYdeyoGiDsg8DcDvjMi68%2FspI7yvu9lXB%2FZy0CA7gnHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=20858302566&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 255L 엘레강트이녹스 (RT25NARAHS8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=N1R9vOqVvL1T%2Fr3L8psJ%2FP%2F%2F%2Fw%3D%3DsaTCKnHlzbRJfChSmiq29eIE8J3NAxLN6Yi9gRBLH%2B%2BJF8WVxfV%2FmwmnX7Mz1na4yowKyjJPtZHjo65E%2F2tCt20bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitwtDlrotYNuwsDkGcTryte020LshGE86i4dVxRiaO8XGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ68FM9EFweuMvEch%2BhClgxk2ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVR11rGmD3OM008LDaadqGjQJw9%2FDMX2S1ZzF2txO07wpRo6%2Fjt56KG%2F00N9ifMUvDVyJ9vVbzATaOCfZA32cKg0dRGtZRyLRf%2BICeLB7w%2Bw9Hf2ToiObO3mxprhED96MgZXYNM1tt5mbGWgASMnd1eWbJ8XU%2FXLKegJ7fvvqgeCnBP4PMPHCnudPTZjGRUD3iUwK5IvvuXBQyBDZOK%2BIQIt%2BjpFuJ5fjc%2F1GKAcJAYZJo6HJZQgjI8VSlbO1R88zJ2DVCYCaeglF2rgr1u2OQIzQ%3D%3D&amp;nvMid=15410881070&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 507L 메탈 샤인 (B502S33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=s93ZNfJ9NHlc0%2FfOCnoUIf%2F%2F%2Fw%3D%3Dsbu%2BEpE%2BEDXLfHs1o6NgPcVVUyc2LTAIewP7Y%2BZOmMe9F8WVxfV%2FmwmnX7Mz1na4yW6PRwbR9x3Y74F0QTJiZckbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGdh5j9x3CP%2B%2FsI7PoRPYKeGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6%2BcPtze2b%2BaoqTxej1PEt82ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRbhrw4L%2FfiW73RMa3%2FQP5M5w9%2FDMX2S1ZzF2txO07wpQXfA%2BqoZXHJjjPa0zXpCu5w2NapV1pNMincm78asJ2hhvWYxgj8YP2pAZTIszJedTQhkQq5hqDy7JCEB8cS41oHcjbB%2BIDPt4iobps50KDJkBYa7kqQwbXWXUc0Qkn9cMBIhskkcnGy1%2BVSfXfhOSQlr1K0msc1ryZh2rmZIVZhpd%2BxzoUyvEEuaMm%2FRtHG7aCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=29633390624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 652L 네이처 크림화이트 (S634MHH30Q)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=L%2BcabSaND%2F%2FxSZBSuzHYEf%2F%2F%2Fw%3D%3DsRqNmgaIwk9iS12XHApU74Dhr1mHxkAVUWWU%2BzmSh%2FNdF8WVxfV%2FmwmnX7Mz1na4ynVpAFtRI6n0baIbR3Ff6wEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiua4967t0gkO2Oz1aZtWWQcpOjqCOyHaHMYLrZo9wVKSmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6vzbzQ9GD6PzO9Dz1Qq5V7GovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2dVfgB9UCDyvbnauTt%2F81Tpw9%2FDMX2S1ZzF2txO07wpSA%2F6NPDcRFe6dAz7eU1c%2BjR7jObg2hlNcuRGTK5hFhW5e%2FkJ0Xh9S%2F4ImuWlX4MYuj6ScixUxwvOXsI8yot9%2FeFn1EUNAm%2BhUR%2B0D%2BiAKZ5hpCqQ%2BzZNEuCh2%2BQxcgu3sd1az2%2BnDQEevzbRazMRCHsgMnDFtmjbz2PmLh9BvAeWz2ATvLlmOzOY%2BLuESKWnKXfsc6FMrxBLmjJv0bRxu2gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=32710965622&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 클레이민트+네이처 베이지 (S834MTE10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=2%2FOLLnjdw73HWUc9fTjXQ%2F%2F%2F%2Fw%3D%3DsNCtln7wwHsc4r4gs0ceiQr4XqsOKKyEaAPJW9XkLuVrnSaHCvCuoi9wE8SzWjVqE1tGN%2BVoka9Sql2%2B98RYwhR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLXFmf4iQqAeVfGl8ocLgf5L8BO6mjBsNMwEz8%2BpkpVeT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9ajHi3SCHWwi%2FLdzBmOODayEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30O5C9wM3W0fILnk5I%2FqHXbqAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179ndN%2F0D0mb0dqJE%2FbxADvmAIajtd6JeiYjiST3JSHtfAgTlhJTNAvbJsjzMFz2utTKfTE7EM%2FbsZhGlEAOdI4YEvI0fIFRfBZUPaSLRPGc3PLRGAlqbBL83LwsYVRbL1pQilIa1jX4PtWSa9kKLEf1RWJxyHBE3CYnzhPLG%2BOCDMUbMNIXspwIQb24XUlvYYdIiEAApAPlmVpb%2FdEc0DaI1McgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=32716524618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 퓨어 (S834S1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TB0xcvw2kQ7xH%2BIVJob78f%2F%2F%2Fw%3D%3DsTvMayoRHlX%2B2BBtb9muDo3jgVh552isqLX3H2shw2ntF8WVxfV%2FmwmnX7Mz1na4yohXpvxhgMhhJ4a2QEJLpu0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivh1nxxswc4NYfPbxMPKazGBNeHDLpErF7SJY9e9fCLXGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6x1FKV5bualzS5bUHWtoPkmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD22BqJl%2FByTm8hKCvBJt%2BAdZw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2B3icJNMakNL23UsU12QuIj%2BhzEbaLwgRJ8xEQeb7tCL3mCn7qH8D5T6ZB8rfWSmcVA9tBOvLBPNSxp%2BLqJr4PWUsWnXH5VUzeECHPZWxQb5WOv%2B%2BG7P8zZs54SDuTec41mzAALt487TYrpeg%2BNr%2BacSx2bvUDWomdapSGiuv2hPrLVWGr8fvvH1mWvUgXPK6j&amp;nvMid=39589472618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 300L 샤인 (M301S31)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UAkS%2BFmDzg%2BZoIxPlbp0%2Fv%2F%2F%2Fw%3D%3DsrWRC1iUxybNX%2Fz%2F9E6gFQo3p6LTqMRHoxpYI7JGIyuFF8WVxfV%2FmwmnX7Mz1na4yoslD%2BQiLPbBVqxfxttkYT0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitVmeDCAKm2GckU4K7k0jKyeT774gUS59PoJPNwAP4WT2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6nuLUJOC71uZAFWjVK5B%2B22ovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRmsNZyrx1BTwnrz3TsoWlLpw9%2FDMX2S1ZzF2txO07wpSg6TfFE8tXklgyaN0Crzjez3fKP5HU11kahRsSqBzAr%2FVdfr4oqZ5I4NuGAI7aUDHQSSOCpscOJQOSdiSEFpHBNmnG9KdKkDiXDIJX2EBpW51KU85kE3pXnhNMvq7%2FMWywKMfbAVzw6QRszqfZR33T7JQ9YADwhm%2BRTfTOZ1aCZlaFndIwdNwuWmKtx1HNSCrUkiyUGZ3FpPHvE7X48%2Bhb&amp;nvMid=29519696624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 189L 화이트 (B182W13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zC8OxdVakP3CAwORmYqxfP%2F%2F%2Fw%3D%3DsYUVhaYcTy9Cj8%2FV%2BuXFlJSVNg7mCZI2WTa95o1uwoNdF8WVxfV%2FmwmnX7Mz1na4y7ywXjgRo5bjhnzDoFD7xd0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit4YdFDiIj%2FsnzqeG7e9nxGc7800yq2HC4mwSt2ig%2FgJmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6fm9MZ4Rkcipl43KeatFuMWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRAFQTahWQqzU%2B6P8CSx7V95w9%2FDMX2S1ZzF2txO07wpRPx%2FqwD4ONLJpg1RRd2i%2BOGQ35xLM%2Bvzm9qcKnp1RBLgvsslkF5yoqRzyAGZSqAzGyaoRYsjA1z7t%2BCLfYAg5pDtNJvcgJLq3zpoMsosDIOE%2Fg8w8cKe509NmMZFQPeJTaeVo2XIU4DGCi26m9HuF90CJ5UoutZ9pg0ckwoYM5OWS%2FBl5T%2B7ZFO5CVVgNUUsIGruH08DlKshetxY8KUEZb&amp;nvMid=29633570624&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 클레이핑크+네이처 베이지 (T873MKE111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2Bl8oQsLf0uUgoTkQXJQmd%2F%2F%2F%2Fw%3D%3Ds9UHE7B4WLE1blusohAUYXMP3K1qjWCCWZ4oUY2FXxw3nSaHCvCuoi9wE8SzWjVqETiNv5XSX%2BYH3%2B%2FqvBOvfZB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGICq7ooQebAgKH26k6k%2FHRoMpGtOzwG3UQf5trLhlHJXD7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9KjpFjdZfBje5jHgYCJhR0SEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30EcTN30FXFR1zU2tBCfhcYqAhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS6pwb2m7bhKM3Mw%2B%2BCDYy%2BgTlhJTNAvbJsjzMFz2utTKprvh6oeSuaI3FNnvqI88lqOuInwfQ1XmfH35WvRpRXak3%2FtLjkGHEBYCI3dd%2BD8JbqVPR%2Fb3EY104BqnqI2lW4gN%2F1NgM4LgvOAJ6Euy6vlhBQgFyZoxPkLsMzg3PM74c8tk0y%2FDisJtnoiyvcX5NeR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=34100818619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 900L 매트 크리미 베이지 (RF90DG91114E)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Pm5YLIAp8Z44rBCMUoRENP%2F%2F%2Fw%3D%3DsiG3r4djxKW1vMaCC8qHmAUBBqDBva8aT5CEd9MArEBps5nCytg3GiMUMnBaVqBbJcSS2DhICxP5UbZDvuIv64Nof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLCaNSnUk6PM9xBVmuEGe3x1o05%2BNr18aCt9kPyrqvpbVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7%2BixdoPW%2FTqHODcor2VkVGTokh7KNEkkbwBBKOUFOEEoM2DNy1Oghb%2BFcuLFafGbB%2B0cfiM1Flb7G2U1B%2BHX0lCI28QDIftdPo5sZ73mZF1TTLXHAxxhpwuBP39VIrNscKKVTm1IsGwsyLb%2BcBdaEhmMpw0B2ExBJ96xs9TvZh44kZ0CmQpEN4v%2FnKdW9oShKFn1EUNAm%2BhUR%2B0D%2BiAKZ5i6ANP6z4qCtz4TJIummag881Gi44tUFH1uRUKbnASPQezdPirNIEhU3YcDKwV2g5GDJdTiemk%2BM%2FiB7vm5sjtEvdeJK%2FqrwPt8z%2BwQugHSiDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=46364964618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 화이트 (S834MWW1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=rE%2FWRVASd8xklNhSczApSP%2F%2F%2Fw%3D%3DsIZHUDADmHy3xvbhTXOfKGQIVGPqD64fovqpsOamAQAznSaHCvCuoi9wE8SzWjVqEsLB8JHlQ%2FXo%2BTVCpZ1amjB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLfzGmWaArtpYzdm9vrlUvoGRubvWtytvCc8hIDlIn5TT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9Zm%2BBqUVFX6beDgWINlADzCEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30RUYOCp1iJVL1hbZ9toA1fqAhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179ndN%2F0D0mb0dqJE%2FbxADvmAPdpbJ%2Fq4EigHcPHpdvNEORI8NUOViPE7dVy%2FWCqsrPq1bgrovP75GcQ%2F7yqjSJPDJdgZoYtqdAvsG3XJa2YnO1P4PMPHCnudPTZjGRUD3iUmnn%2Fy8SE0yuNWGETg9CWXJAZ83jGg%2BXJKRjYQvKs%2FZC0o3R2VVeGwt8FQZtRZSYSBq7h9PA5SrIXrcWPClBGWw%3D%3D&amp;nvMid=37620666618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 344L 메탈 크림 화이트 (Q343MHHF33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=eTrQQodHTkEdOr18E6Bos%2F%2F%2F%2Fw%3D%3DsKCMNuwxxidWfvvDAEFAs6eN52q2y6uyKppWVBDG1MGJF8WVxfV%2FmwmnX7Mz1na4ySeuadMrm%2BIDPg4Ao7u5d50bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuuvTcPwXk6I2n4N2bXpUp0LI7CcZCsG%2BRYJ%2B6HC2EF22XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ66BOU6vUQeX6oYj0bVZ9QCGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRyxFes7E4gHFy2eKHI7T8L5w9%2FDMX2S1ZzF2txO07wpRPrnurMwJUXVZEhMVaQNdcKATgRaT2yOHZpwi4VpcS1Mh1lpGoypLjPKgXc2N93vpkq0WWes3u8ApL6VNtUzlJUMz%2BoYLE0Se7sY9UszUAjvjFS%2FxTwe%2B1w0HqfQsUl2%2FC0hiHfmfzmAI0X1cC502KqaNGIg5VfeLo6uSAHBxLJFtuREMyCQ1giLZGxlpCZIbTav6R3bO8xhFzypS8nH1oQdAiJdwXirBRdnaxfvrBbw%3D%3D&amp;nvMid=43583415619&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크 4도어 615L 색상선택 (RF60C9012AP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=xV7G8mB6ZfY%2F4iMvRm8puf%2F%2F%2Fw%3D%3Dss%2FaetFp1nMROH%2BkLk0ZXAC%2BnJeHKuRel0BLAJAAERuFF8WVxfV%2FmwmnX7Mz1na4yOIEzS%2FA1vP8n7NNNcUc%2Bi0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOissjAn%2F4QQ7jrf%2FopNoM2cKpff1xSIW%2FVcIkXyDOrtIi2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6DJ%2B%2B6j%2FS7TiBP01BwFCzP2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2st2h3%2BHsCVXNXOATE80FZZw9%2FDMX2S1ZzF2txO07wpQbZ3YCPkxqoBmrR4QJ91OSFujZRC%2FtKiE4UeDHWg2a9uJcsK2meq9hEHnJRdTYvADmCn7qH8D5T6ZB8rfWSmcVhEDrzIvTLHksHe8r3GKZ4EuCBQDrcR0OvovQzXpVW4oSzxwVRNV%2FYRemZK5z1sCEN899K30%2FkWEfLzeO20zIiLG18w6f3IBFFooW%2FMwFkg%2FNjqh%2FZemCCOboDhnweAmG&amp;nvMid=39336461618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 832L 네이처 그레이+네이처 화이트 (S834MGW12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=86B0FPeWHio1v8qDqMM4Av%2F%2F%2Fw%3D%3Dsz6ro1Ksv9vRrK38SF5CbLrS9ovT%2BJBND6qDAWZ91sg9F8WVxfV%2FmwmnX7Mz1na4yZZvKheDwAvv5%2FjMVUE5JnEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu9u3y2GPJSkPBYYcmEjFtybg9NERTy%2FzrWPaDwq5mW3GXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6WX7InhzCDueGm6SewxMBfmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2qcOve%2FyNfC%2FrCoY%2Bb2bkqJw9%2FDMX2S1ZzF2txO07wpQfNBzLMiaGJMQi4SGGmNEOHvjK6rD8q2qCI9vDTouWn0D4HERaptcWUZM%2F5ihRVDHhak%2BKbMQAuGcvI5Ux5BxNjDNnfEAE5Vzr35EhUjmrKvJTHY2HkM7aYtu19v2dSYqqSuX%2FmvScXVSra0tX6%2B9zwtIYh35n85gCNF9XAudNisQPDEsURT8WOclhfRqRGSL73OHHRn3FL9wqhiYM3%2BBDCRVW3oI%2FIjXECem7M%2FDPvkHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=39910219618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 846L 메탈 실버 (RS84B5041G2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=F1DmlYZaxXMEL%2BwX9MQaif%2F%2F%2Fw%3D%3DsoyXwQpELTDMVMJr4ps7gdEYwfE3kPkLCd7UsWuhXIDts5nCytg3GiMUMnBaVqBbJiwZn5eZrSAW2zJh%2BAd6jMNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI9miyK%2FHITtYmgFZfUPwYPc2g9ny18RzXycprbgHqkr1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Cn5%2BwFDFE7HJo%2BkMaqeW0zokh7KNEkkbwBBKOUFOEErddKQpuPeJCndk2JAXrm7DsiCtWmsxEzgUmojL0kO%2FtiI28QDIftdPo5sZ73mZF1QCVDSJPUYWHvuIXHW1n0ABxkufn3TS%2B6ImxTZ9ot%2BgnCEu9XjIPj6Ybdj2hI4I4%2BNdO9AdqdFy2Ji5zmh6xzAOzVpkL%2FeEupAlV%2B6awYYUv0QQRXDA4nZP%2FNrRis9crAD6C0XXk8ySaOQ0OaLzzIxFw5cDsh71SgNAkiM35bEcoBJRb0oVJAp%2BmgVwHmvNrO3LVWGr8fvvH1mWvUgXPK6j&amp;nvMid=34810591618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 미스트 베이지+미스트 핑크 (S834BP20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=HKzoERx6D4LEy3AAUPxN7v%2F%2F%2Fw%3D%3Ds4YiMlo9%2FuRPSxpLIk2HQ1zwmOSj3HTIo6modDxgSfxPnSaHCvCuoi9wE8SzWjVqE38gUkDTXT%2FjGBQlZtPXc2R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGLp6GEBy53NRUYt98Ouk3scZUDbB1JW%2B67hEZI4Ubh4Bz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9quzLzqcw3Z7qmIr5m%2Fy4aSEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30cb6DLHYsS%2FTiWnneLQYsM6AhfbmRc6T9Q91MqoVII6q926Yzcru9TXqac8Y%2B179nEA53bCl1CZwNQJN54xUQ4E0xrzdlH9C2RK7BdFH%2BzDq566LYw%2Fefy4hY7RkMOQ9piQGJ8cdW1V1dS0hXlhRmA1tlv%2BN9CsmwP0JEt3IhB%2BM3AGIRfuyLFWo6f7sKw%2FlaT%2BDzDxwp7nT02YxkVA94lFyVHNgWlfs6meTBzj4WZ5DfnCz6zPgIoltx9TOzlZv3ZL8GXlP7tkU7kJVWA1RSwgau4fTwOUqyF63FjwpQRls%3D&amp;nvMid=30615122618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 화이트 (T873MWW111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=DffhfRsvi2IjufFVkXwlG%2F%2F%2F%2Fw%3D%3Dsf9DvYkiO5U37%2FspwJdsMiWe4eD1OZX6MVZqmpZ3BX5BF8WVxfV%2FmwmnX7Mz1na4yp3gnMTf2R%2BWFzsM6LmBnHUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitXpL%2F00aa0LFr3uRjRtWyF5Z48Jex36B6gN8neuAvNV2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6PYNSS2WdyfE3EO40IZ9PsmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2gyUq5ZqA6TTfh5M%2B3m5OxZw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RIaUyZLiXQeN%2Fe4boAzQs2QDwTnv1YFNYgqpUVpXEIQ%2BHfqy%2BHoGtHOBehS2r6v%2B%2FCmH4k%2BLExhAqB5zrWJ9hYTULDBOL23nkmrqiJXKKf4UBhNg6pO%2F%2Bw6bSRwW%2FduOk3MXchoqE%2Bc%2B2SXqK7OZon57%2B7Ki1ozTmIt4Qwc800kVvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=33366468618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 베이지 (T873MEE012)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=RaXrHvfZFugbtpNoTB1mhv%2F%2F%2Fw%3D%3Dsq07%2FiRHtqyaqIz8870fxJ3WRQhla%2F7ZWtICNR8FkBJZF8WVxfV%2FmwmnX7Mz1na4ye6E7PL9oqueLZqKEjeNrCEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiulNncrwfgkTVNmHz5GK4%2FH43q%2B%2B033G%2FOOex2lrrTroGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ65LZeSzxRAt51f198%2BzxBK2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ww5KRNnJTleLoC9MOplv8Jw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2REhwIHxCgBlR07cEV0VSC8w6Ha80AiN9uiyXy7SLKGH1o95Av%2BLcv4OKi4jngHI9X0ZC1QhQV7EvOzsXJ9jpdNv8EEbJhYMzUzBAMjX62mgQBhNg6pO%2F%2Bw6bSRwW%2FduOk8vAHJ%2FgCLLbbtcj7j45cd7n7RdbPsQ3ZyXSTelgMRmFvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=35062789618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 461L 메탈 크림화이트 (D463MHH33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=j/ib6abcpLV3D7ZswkGzC////w==knDk8KN3XpAPdAv1Df+VzGJCcZVWQhz1W/jyTpcsmDR+ul3MH2f5OXFXyF5UD8fENXa7zcmhegcVzSLYOpR7y2CBJq3aNj0mBU6/XB+6EGH3FhOKDgdJPE+olucSkxYBqMPaYv6v0C4Ot7nTNRgwLPf0WFkT5DAZ9PKjKduD6kK4n+x+QR2T1LgEsFgWuhAQjPCBddxLCmdYXx/PH5CMUQPj1Knztx/MrNOvpDcjWFan8lVIEQR/StZ/rWHRqkwBrGO2EEP4MXdqGfMhNddQzHV+ORDPrQgbAq35Qca5jYdO6YUCSHX4piutieivApFqkofHWrxg9EJd4ykFtOXegQqh93yyVce1HSsrqjQO/57zmfpm4tXC4CT3fWsUpiozhZHc2k36jjEUm76SNKQaxvrLO718gHKVub4PRoGjsJCYKGAPvPojz5MADSaFsnvsDE9E2PODzoSIWCD78LmNFuiKJvXkGf7oywb4UtBYoB5aWXKDnFUzhXaDQW3+motHcvNW96dmcLAhEYDgylymCiWKIKLxEVr/oplBfHgipeSzhRquA9Y/kRNxxgiUcb4TTvoAODsGaEZWnKSaPB8kUYW04ANTOwqqAvobHlJTGkdKAxUlX1riiCQr/qn9XXRx2blc/w84N2uS/AbTKKrkIrBOfHf/cSW5sk1OD/bgIlW/FHJptMbh18IODpN5D2AxADMCiqIoo3MtYb+EtkgY3Lxx6oVwtI+/XUmQiJEiQQa0SL0WnN+QgXT5FDj+9y1ugvsDQE9TJav51NfyFqETwxz9iNNAANyPTZlsvcOVM/s3i+uBbpTyoqBhxaembuEUDHd4wm3JoWu+G9H1rPXIOBQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 메탈 크림 화이트 / 크림 그레이（T873MHR111）</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=Q7fPlv7hUig6LoeOMvESBf///w==knDk8KN3XpAPdAv1Df+VzGOW2u5XfYCoEF8pvEmnWsaVZgtlqrhXYBxF5R3avfGolY5xCa/W8Ao1mb5utKVLY1WfdMXsWDT6+6tdm3Qp5JwhTdkE6rQBX0OBrgaslMQwMnrvGZPldJePvvJ6N8pV9w/gwMmVib3KLRNN6efjLwCkOXZLGsb6Ut/69NrI7Woxi6hzca8acTprU7Qkn4gCq5FojGFiWZVSofdygEsLkufVz21SIqsPDdeSZpKAm4C63dlzO8c9aTPQunPBexx155q+4GFEfT6M7cnO3T8pe8FKhRbv9R2kSN9cxQSJKZky4d+lrcZvx8+2MpDW+gYEKNXR3qTJz91Cf+y8lg+DLjplDdHCNBIK5CjR6VKIUlnfRc3VwfPgYShrv2OX7z/7dsu5N81Xey5rJBln3/6edf4oD+laz4pEE9EUQKeLuEN5fDhn1L91NILNs1mbsS5m8XpPFtsvLdm8SZqHdF4npIJorFKdpjK2iO7aOYV72GWGN6SO97i5uSznc9i1BhhpBDmaOzItnck5niIZSVAl1sRJE82gAXZv8byvbbOZtwPlvCtJyr1C6UUKdM9WK4cuP/rXkWdmJjAMfoKiVgS4zdjFE94bdoX1jE+TfQ6EIFPB12eaaJfpjwPm3ZVW7as7ZHjgiDVBpxwNePcJJq0HBsu1YwuEBgpDaSb8YNuDPXxnFjgBedH4IyMUdAWCgiRTXwg6e5YE5WNuAU0iuDTrO3t9nrYFf8wZX7VJhnXfBdtmWJz0gYbP8H90TK08Fk72YB2sOxS304QNuipoo44DNKXCJhhPT5YZDWet829lKFC0/EDUpir5HIPAPU1vOUSQ0mA==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 크림화이트 (T873MHH111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ViJLQdGTfxX6sHpl18ks8v%2F%2F%2Fw%3D%3DsM%2FrK7avxgYb%2BHAkcJk9dXyiKvNwIMuRhk2b4rBiAcObnSaHCvCuoi9wE8SzWjVqEvRHlF9Tsh8o5YTuPP68loR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGKkcor9NyOVcju7jxhNNCcq%2FF6SegwsknciUh4%2FrPCyFz7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90GuN2DWQXQQuNlvbQ8J75SEhb%2B5%2BbgCLWD5ufmjwVaD%2B5KVSShLy2lL%2BnH6kUK30uhEYRgte29zy5WpLy83jT6AhfbmRc6T9Q91MqoVII6rAYvLr0KLTlSym3A2F2s5PV1uYRjAzi3TptQD8697qS0RDz%2FaTFeQ57qoHOX7MOR1RjYzBGXAMoSzyWB%2FbQzd0tgJGYq6tRSbpqUn12MPwvI4%2F%2BdRqN2EAnIrhrab4xuixd%2Fj1Nfh0u75ceFUB%2BxGFjr%2Fvhuz%2FM2bOeEg7k3nONTY8EMbutPp7Nr8yptUHsPuCHbsuYvkbMyAyM9DcQm79aGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=39286072618&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 875L 미스트 베이지 (M874GBB031)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QKZzhNXiYrQzG4HNnhnkmf%2F%2F%2Fw%3D%3Dsh7FYkyiG1xN2yKBYTGZorLlw%2BJTx2E6j%2FrY6gxMsGvxF8WVxfV%2FmwmnX7Mz1na4yZO8bNluP%2BsQE30ajT6Z0bUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit2FfHqkQdKe8ajElHiKBwC%2BrgSwxRMHIe7JjJCDDVyB2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ65xChKc7WPKkLToexUITRPmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2dDEpgsggrjsTrcQv6YHTkJw9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RJeCk4TR6UvT%2BL%2BzQSmFeuUx6svZoiO9pIFvv0SyrxDL1XX6%2BKKmeSODbhgCO2lAxHLQTTVRGXwiTytJ3yER8Lj7T%2F11lx%2BFYSB%2Fx7vihDIsBhNg6pO%2F%2Bw6bSRwW%2FduOk0l3oM4Cdrcpf%2Fb8fNqjMDls0t%2BA6iVHpwzkkt8A4nJxvU2Y6hEEwGxc1AZfON9sL4VRAH%2BsMDObarUodGweR8Q%3D%3D&amp;nvMid=40292474626&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 2도어 335L 메탈 화이트 (B332W34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Ov8JPMQZEqZuHbsKckOdS%2F%2F%2F%2Fw%3D%3DsHuMX49vZT56QCNUfoiy9Lpj8Rid%2BNI6eecLTBt6xwtVs5nCytg3GiMUMnBaVqBbJAIxp2tHK0cCQ4so3rAD8J9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKVKzQ5vri1lAWlSP0WP3274WQ4c3au%2BkdD1BqzlGxcY1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7%2BiV3rXcZ9%2Fpso2qTIRLwljokh7KNEkkbwBBKOUFOEEp%2BSqU80aWVN3RquPYORtRYjU2N%2FVJQK2lIn0YT5skRASI28QDIftdPo5sZ73mZF1SodTFHSg1yvfOWpTY7eg0fTJ7UyJxEzSZVuspUbWAiBhE1HYG%2FyKikdOf07VJN%2By7QhkQq5hqDy7JCEB8cS41oLPLRmS42CT4hI9oCtjdnj9aHqebroHwXm7TblmYn5W6P9ozmdV%2FWs5eTR9VTjChb82HfE1GMXrWD1iOzBYNIzfwUxMUvtGWZISYgXDdjw%2BUOEsHC78VBLnFZh%2FnDobeN&amp;nvMid=33577926618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 160L 화이트 (RT17N1000WW)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bZPjWAuMnxFa71kv9yjjRv%2F%2F%2Fw%3D%3DsOrmX5gkRve4lgDOrgbjV380IixwCZRT2rW4MSasqJ2ps5nCytg3GiMUMnBaVqBbJzrLGC%2FJ9AOSKisxnQ32iK9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKTTj2I6nDikSp%2FxXZALObEwRDRb2u0HINefy7KkkYICVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Cm%2BPLemRxOios599vV9oyzokh7KNEkkbwBBKOUFOEEq9AAD71VkQdOltoEs55Qh8sCVMps9BGazly5UdlE7Z1SI28QDIftdPo5sZ73mZF1QISe4G7CvbnwAG5Pc4G99zNpb4ws5vDgviuu0gghZpkhPCvsevTj24b%2FXGkDWLyrJl58GOVw2zsv35cH6WGRuO0z7Q0eplXP2RkhqnmCsu%2BMLSGId%2BZ%2FOYAjRfVwLnTYrURI1DeQqeKkuGAeeyo2OZgqTNfvANIa3lAKegui7jGLscJnQ6Dw3OT7hf4paQFMBB0CIl3BeKsFF2drF%2B%2BsFv&amp;nvMid=14374277201&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 90L 화이트 (RT09BG004WW)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=qg2fhcSXevT4GdzCTvYlif%2F%2F%2Fw%3D%3Ds08jYtrru4LlePWGbbUjQu%2FIUq4iN6940MwAqLe9i7fpF8WVxfV%2FmwmnX7Mz1na4yNFaXgxzSbd43ZdGRGH3mmEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitu59lBoNLgxsiJ9WYp6mPBLtATlxhZOEmPQ7NdsySoF2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6XZeF%2F1X2SWFywZNST%2BT5EWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRKibEgT5q5Q8D1j%2BwSEFMtpw9%2FDMX2S1ZzF2txO07wpQ5jT%2BYrYV6CE9zAgZLhztSQh34IntOsVR5uYOY3tsHN7%2BIMDL%2BQs1kp1HpCEA%2B28CYxedaLy0VVTIJ76NkOAIriwX9fKrj%2BY9x5a7ELAOXKHU5Z%2B3dPd2ZaKpjPt3%2B9mGundy%2FxrSs%2B6R4y90U1%2FHsapsCgNuxsODZHXOEgSr9e0ArbKs254P6ciDI55Z0YROCqA6%2BrrPkSkQjk3bFq%2FUy&amp;nvMid=33271915618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 872L 미스티 베이지 (M874GBB252)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=JNYwKigpkR0gByPGU4tmC%2F%2F%2F%2Fw%3D%3DsyW2iseM6M4UvXEkYKfm3%2FY%2Fv6bZ4mCud%2BaQf3ptMAs5s5nCytg3GiMUMnBaVqBbJUqXRg15ILgBy4cCLEKKDWtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJ%2BTLfswkEZpCQM1Jp8qzRy7XtUVOw4yE7e9RQY%2FmIIS1fG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7XJ3jtDt6%2FTjFBkfhyO3Lojokh7KNEkkbwBBKOUFOEEqY4TjxP3vUUOH%2BRX6AEuqXYb7IePQCFNOhO5xJtvzkEyI28QDIftdPo5sZ73mZF1TkP%2FynBMeXJuD37T7Rg0HhU%2BS0FGYmxucVEJmhFq%2Fl%2FyX3Mh3hrT1IxsLLnDeuphijriJ8H0NV5nx9%2BVr0aUV2Ttzp8K4bOzBhUkg6YuvTIK68JcBs04wTSRgkDufuiFiIDf9TYDOC4LzgCehLsur5nPqFyaGxbOVRtERdIWjfzbmrbAcxCwi0k0s9r5m7w5tXc50eBITwugSNPH3Ok09sVpGw61BSdoQRvEGgfFlc5w%3D%3D&amp;nvMid=40369362622&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 디오스 2도어 832L 네이처 베이지 (S834MEE30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=a2Iq%2Bb6nt5xbUI8h%2BFBLH%2F%2F%2F%2Fw%3D%3DsDYIeA7FshUe64ESWohh%2BqdukenI2fl0z7lYXKVQ3yRVF8WVxfV%2FmwmnX7Mz1na4yoKUx6BRS%2Fqyz3v8d8M29akbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivHN9MZpD8Ev7GxtyLYU7VRoxzeFCaWLjiObrYk4Ln9XmXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6qF3pFB5fNbJtKoNduTj7ZmovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ijDbjxhDf2nvkWeVoPvNF5w9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2B4GBln9WAdRB4u%2Bs4uoTUbPKi3N2BuYYptwWEXE2i6Ivx9igIP8kwTq5mHdDV%2FpWB2Ts4vauvH4Ezuf1EbOBcAzUdtjFD4Myj92kRWohfzzqdSlPOZBN6V54TTL6u%2FzFsUEtwdzZsqurHLeBRzMYO0lfrO4jlQgp4Qi9gCjD6mG0DfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=32714918619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 클레이민트+네이처 베이지 (T873MTE111)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=mnIfiWUbPqVVinH%2FgmyjEv%2F%2F%2Fw%3D%3DswqT1sPKOiBklYKqgMt5OER4oprwRVAQvzKYIbz3cQBFF8WVxfV%2FmwmnX7Mz1na4yGmxSeRLv1cQxqqZC44655EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitvRExY6Vqt7v7%2FA1zPi3Sm7efiNdKwcgAlXh9zo8x%2FDGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6rB2R0z6lANzUl02%2FG%2FRxW2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2ooRxTlg%2FtSM6lK7UQYW1Q5w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RG3Jg6nu2PafbFa7lX4pE6ZGQHfQUm%2BlXHMSbnKuMHkRU4MGSBBTh8%2FN%2B8Z8zIbZ35kxCti9S25sMnXmYYzstb%2BYKfuofwPlPpkHyt9ZKZxUq4KmlfmfxXiqWsX96a3dhptDcfExLb6xS8ODsEBxz6BLPHBVE1X9hF6ZkrnPWwITbEU34t0ESAN9w7BAcE4Nn7e7h9Mf260%2BlH7vFZ8kxj2hopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=34099634622&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐리어 클라윈드 KRFT-122BBPWO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1LW2Pb0gHnEUtyxru0uPXP%2F%2F%2Fw%3D%3DsmlK7kVE71QX2NyEyQFPaSkqFe55a5%2BuZbGL10xJ55Jffg3Ayqnn2jcXKeBzE%2FyL92sgG0s%2BzTJLwS9FShVpMtYZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX78qaVGVlZ%2BFK7Pq7Y%2B5Sn%2BGSO%2BfmRkoodgscA17nkdHj%2BxnNT6LOlvs068fZOUOVd3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwFzTDVhWZ9bElJYdIa6ISdH4Ogcq1OCD%2FvuVBC%2FX1leqBgwsyeaJRUnqTuM%2BPWbJw95sPULGxW24hMDtPG7bkkiO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4VXfJeAZhlWDOUVjaniDqJkC3javcbDoMJ7LBk9XiJmykqNGnYP2mQGFwl2o9AJeRN1I8QpUndmojVm%2Bi6%2Fks4VjLTyrvYQYKw83enrgg5YxAtK%2FlJjOKzlJV2IEBfprxHoO0zaB0tbjf3idssKiPbV5gp%2B6h%2FA%2BU%2BmQfK31kpnFZN7IVOgdMz3uvFvh1yXZvMat%2FKnZzeRVS1%2BCTVHYRcKjr%2Fvhuz%2FM2bOeEg7k3nONbeBoqJJwAN00%2BYiZimLgdgLmqY8bevQY7cxSlnx3zBMaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=43996282620&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 클레이핑크+네이처 베이지 (S834MKE10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gcm6N2187QdQeznzfRJ%2BUP%2F%2F%2Fw%3D%3DsQLF385gQl0SiZvyox0b6kORN811M98ZSCwvMOEsE9TlF8WVxfV%2FmwmnX7Mz1na4yGedSrquRAWhbkbNaQxYsOUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuu7tZ%2F0eW724eGKnZJEYSjPPU6w7kWTPRi2I2nct%2BIZ2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6oRUayVtCDXc4H87fDSHGJ2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2Ttz7%2Fs6mw1tyoiscPwfP2Zw9%2FDMX2S1ZzF2txO07wpQocbhYW2krom8JEoPUoTu%2BBAmPURzUa6a4HxcUDRO3aehaNGaV5BN0Io4EeH6zKFJU4MGSBBTh8%2FN%2B8Z8zIbZ3OBaQMSBYRcFkWhjgrz693bYCRmKurUUm6alJ9djD8LwsLvYPlXqKsLNBRpAGPu7qt9tdDgM%2B2hWN%2BPn4FTmhQ46%2F74bs%2FzNmznhIO5N5zjVrw12vl5z9ef9aoR8O11u3O13fPofZVYG7t%2FiJ2zmyP2hopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=32271964619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 203L 실버 (RT19T3008GS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=jbqvfo0jTJnCBgER6e4n2%2F%2F%2F%2Fw%3D%3DsYB4DlK2W5WOpvCjm42bKY60HWCyPOt1EoO0ZF4ImRj5s5nCytg3GiMUMnBaVqBbJFCJoQsNI7VJVXQQ1bX5tqtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLY9q8RavU%2BYfNy1WJlLLlnOfXTq2hFxi7hA%2FUJs%2BbMDlfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7HsSo8DTRzekVnwk3mp2RoDokh7KNEkkbwBBKOUFOEEr2YYSoUJTohKntc6BYdRMxQfeYOVMUxXEqyLTbKVqejiI28QDIftdPo5sZ73mZF1S1ireG65ecRLFmbZz6nry%2B7I9bCmWvNHnO5r2wfq4I6pImYq%2FvmyIBDvXrC20KQEJRFVEzEG9JIUH1J8zL9MMhCr84j32eF1axFbEKg9lRewGE2Dqk7%2F7DptJHBb9246Qwl95MjaZKRf7efR%2B4U6sEWAdpzDULojFyoVa9uQd9lm9TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=28788927554&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 499L 메탈 실버 (RT50T603HS8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bTU2oc1B1kljJ8KJSHf8Vv%2F%2F%2Fw%3D%3DsM5YjMle11SVRDsuSsMzRtcC1oWKtfR%2BBebsY7td6wwBF8WVxfV%2FmwmnX7Mz1na4ya6XuhXYnj1WWmt5oDyRKtEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivdfBeN0CaVAb7c5WYNLODsJvDeQ9hB0DaC3PW8WGAbI2XA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6B081habW%2Fkk2mFICQm0XIGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVR%2Ff3aUQvmnx58WUe7%2BghC3pw9%2FDMX2S1ZzF2txO07wpTkuj4qlTB1E36bQQF3QWdbbfTE0RTb7A%2BdrwC0jTcmmmaCc7KnhBfxcpZrV07iV%2BC7A%2F0vSPti8cHY4o2fastwoK899vPJpn5SAHidWzxsij9x9hRY4XJwe%2BncjgIBfdISzxwVRNV%2FYRemZK5z1sCEM1SHiGl4mMzEWE%2B5TEO0gkNiI%2FHwxgzVQ3xblO8IqOfNjqh%2FZemCCOboDhnweAmG&amp;nvMid=24781884522&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 4도어 870L 네이처 그레이+네이처 블랙 (T873MGB312)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=MdcIYHkgYfahEIMWAulYtP%2F%2F%2Fw%3D%3DswkhXQAyW0g0vn9pyn%2B1BiFhVhwFIniVdYsYyiR8S7f1F8WVxfV%2FmwmnX7Mz1na4yTuufQVJ6sOLqqKsKhLpAVkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisFUQ0hwRtUE67CjajN44ZArHpOXuca5qaPnIr9KYWgEWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6k5%2BJnCbokRQ9KYLHo4QRt2ovNxFWzA781dOsDXmXgY3K%2Bxcyglit87Vkgipf5KD2nF5SRBDNYVZwBrpYpzl%2FR5w9%2FDMX2S1ZzF2txO07wpQQMpofQXhJ2dzmp%2FV4Mg2RwAevkGOkDoSMqv0ugbPvLUD4HERaptcWUZM%2F5ihRVDF6OXXq9w%2Bk%2BZ7pIRRrUH485tY9wewNzCmZEHzY%2FN4Op2kDBE3fB%2FPlxBsXstHAeLgTbYyRCyLi%2Brgrl8%2BcM5PqUTeuJgZvRvEK7gZCw3B0%2BrJvGjK4VGmSl9eHfzULuElW1D9DcpahXMnXQnqP%2F%2BvyY7RBJx2aPv1bgiR77Jh46w1QmAmnoJRdq4K9btjkCM0%3D&amp;nvMid=34101079620&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 832L 네이처 그레이+네이처 화이트 (S834MGW1D)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TAPc6kG9MeuWmqvvIEiA9v%2F%2F%2Fw%3D%3DsGFQZI7pGs9B2pHCe58rUFOO9WAKNrvNT8Tp5ESArm1Ns5nCytg3GiMUMnBaVqBbJlSDY4dIExMR%2FfTVnKWn8dtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjLpHYEFBWzaT6Q%2F8doS5P6v7DMHxlLl26ZF0Gd0AfvpMlfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7xM6U%2BzsYlioEXob97AjYIjokh7KNEkkbwBBKOUFOEEo0qeWpXSeiP%2Fuu%2BdpmavtwEKBixaH88rhNzvfW2A6AXiI28QDIftdPo5sZ73mZF1RlB7lP1clgsGfyJnSjRbHwUOnviQ2ySmDxJwtRSLULoKb7wKpZX5T%2BRx%2BOcaTaCJlsYxUYndjA8c%2BEp4En36CpeT6urCyp7mxVYuiDhVK1EHUIWkx0rGrv1FvRw%2FlzoTiHqIlLK71HhAXo%2B%2B5jM6C%2FAYTYOqTv%2FsOm0kcFv3bjpHVrwfF4Q2WX94qNgCmaT9M86%2BMyJE2DmE%2FrExVJGuHOb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=37620047619&amp;catId=50002558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>씨엔컴퍼니 쿠잉 REF-C153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=fhu4G9b8839M%2BEUTVnIbvv%2F%2F%2Fw%3D%3DsX60kd%2BMoI3R%2FDa%2F%2Fiy%2F0Zh%2B4FmWCaTeQFovI4glYhN1F8WVxfV%2FmwmnX7Mz1na4yu36Mf%2BbBuc8j85mWyEpnc0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuF%2FDXlG5w71Ob%2B6OYWsXJfh%2Bza2QeRM3JvkzhMSOkR6mXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6lTWK9VecVFqAwnyfURXcRmovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRsSUbGOoV%2FqteoP4x2KyN3Jw9%2FDMX2S1ZzF2txO07wpRrTtMck5uz%2FiGOjZoOUfCUuwP9L0j7YvHB2OKNn2rLcJshtZHWCulc0FQaJo0RdazR3Uz6h5Ur%2F9MkF7kVo13YEs8cFUTVf2EXpmSuc9bAhGIs8N7aNCfITckVO109VBsNZNE2E69dHmLXrqHM0r%2BczY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=27014253522&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 615L 내츄럴실버 (RT62A7042SL)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=kGjgAqV71%2FFdBHycHRv7Sf%2F%2F%2Fw%3D%3DsVd4JvsyKu9%2F6xTZpGPrhw%2BiEidEbxnku0xO3zEnyqWZF8WVxfV%2FmwmnX7Mz1na4yT9orTETrXKAkh3unE2ClckbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitZUVhJe%2FMI7j%2Bo0VHm7qwedaiX6cAY5eZBMuT1StNWFWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6KqBDc7jKsWJHOgguTDAEVmovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRHfvU9m5KinKbWDlkuKMtT5w9%2FDMX2S1ZzF2txO07wpRZLCy2RRZqtOVN1YerQYKVgA1UE0yCKS1l9mzauGx16gbseuvx8TL9zM5YiOX6lSGjriJ8H0NV5nx9%2BVr0aUV25eWhmCMuPLgzMZjNigoeJevwt1YY0NYqqGpzcEMLlP9icchwRNwmJ84TyxvjggzFxv%2B8VLmzaeMmwi9ytcFN7gE9E2EFZT%2BE5hXBSOWWuuLke%2FVP%2BgM94BPZkP5YJ%2Bex&amp;nvMid=28272225556&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 335L 네이처 베이지 (D332MBE34)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gg45HZ0rwW4ACKt9asARhP%2F%2F%2Fw%3D%3DsmSPFoaEzUewjtrSFCqbi8gtK75bAQJADtEpqiJRVrS5s5nCytg3GiMUMnBaVqBbJnzn1neu8rYq1YNfrtr6xbtof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTW2vQVUJnGcSTSwfKUl%2FYmJf1DgKRpLtzs5DP0q3BmwsWdsesnu0kYfarW9OPYjDbNSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJbpXh7LJtTl%2FS64hhtP6efcdoJET4jVUhLKMI5LixWYVfG6OocfxsE9f3jdAUbI%2FjHDWJiSjXs7ZfqqU080UOds9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO77n2PZXZWyytvSbxZWV42bzokh7KNEkkbwBBKOUFOEEp%2BSqU80aWVN3RquPYORtRYabONb9V3O4FPCK2zGFJ65CI28QDIftdPo5sZ73mZF1SodTFHSg1yvfOWpTY7eg0fE5YSUzQL2ybI8zBc9rrUymZcyLBSMRy8gpK104eXbWvyNHyBUXwWVD2ki0TxnNzyp4tNASgPU3egLvEWIxMvlmZQGp5co8d9SGQdokLKrIERpOFzCbaM6OU97uoPifjrRjEHgne%2Fxc7plelXwyfZwf94JNo7F002aOK2MDQRvHLHICEQpPL7Rm%2B2fyhjEhHR&amp;nvMid=33578043618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마루나 BCD-138H</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=gLQuBux2EosBSRxmx2RWsf%2F%2F%2Fw%3D%3DsvssghwhSsBqTC5Zzlm0zGZT3J7qB%2FUgOpYdsAQk3m%2B3nSaHCvCuoi9wE8SzWjVqEqhh7hgLtXM4VqFvn1Nrwtx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapz6BI14iN8zMb%2Bg%2Be3PXmpZ65aY1VdOx8Qsflm8%2Fqrgw6TEGTCmrxO6C2KooocdfdYBsJjzV%2F3vl5Lmd9HbkUGJkrMGCe%2BeR5kVs16CQukq%2FN9dWW2XmGOMxcDYvyZtxoT7FbgvxCEvURHtX6MlF8XWEToa8m9G%2B2JcgIBFSC4RzMOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9Q2aMqUHZ9VoHOMRIPcjVSiEhb%2B5%2BbgCLWD5ufmjwVaDDA7Ah2M2r6dLRPOCYIRHmqBLNiuykoXn5avfKXxUnDKAhfbmRc6T9Q91MqoVII6oqig81T1JU%2BktEum8J3o1aF5mk7sLA2X1iyxhsuLNxByvjbnK9EhmKl2eyNraR6ETP0RQtJFsafht1FLYAH374iA3%2FU2AzguC84AnoS7Lq%2Be5S6xGRjwW1JK1sSd4xOcXU1mXVOzL2pE%2B63cj%2FpoorV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=20593870583&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 2도어 300L 메탈 리파인드이녹스 (RT31CG5024S9)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=l82V4cv6WeFUTyuPovo7lP%2F%2F%2Fw%3D%3DsaIbw80C%2FKCCzfGD7QfPuHUNVKI%2B1UmPFeuSQ4t9d%2F8lF8WVxfV%2FmwmnX7Mz1na4ybKJOSJCY6Ce%2BQ7gUmGk8QEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitYOqcLWCtOnupt3Cp0B%2BRT4dDNOVrTxHtg%2FtI%2F1D7ROWXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6%2F8%2Fl4OLs1EP94Z1Sd5PcVGovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRPJB4T55thJMgylv%2B4Zdqmpw9%2FDMX2S1ZzF2txO07wpSg6TfFE8tXklgyaN0CrzjeixPwN0%2FGsY2CRQOyJi%2BCUbpKOWF32ov%2BR0xdrKOCwarhWUVFVDQpg6Rs%2BZULyp91uwP9L0j7YvHB2OKNn2rLcCYyCa16nzrUYNNCRt%2FVsshlnti%2B0C0w5B1InsHum3miEs8cFUTVf2EXpmSuc9bAhJ086o5j%2BihTcLiPcOcakOPqq5H%2FWXzOmJsJlMI6Ska7zY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=40545228621&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 2도어 507L 메탈 네이처베이지 (D502MEE33)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ley8tKgQuiDdXRKz2BhRf%2F%2F%2F%2Fw%3D%3DsCHJ6bvCGfLgrdLyXMnEOliQO1bpNNLcCgDgS355y5OxF8WVxfV%2FmwmnX7Mz1na4yERbuCPEq7dv86T5ImMhjBkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27g9xyU%2Btm9c236b2T8XGAtWnL8lv8me0Ij2%2FkVgUvRMCM%2BY038yumL%2BfTSxDTZXlnZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuNhvR7Ru2GUKkxHBkGV6y47PnawSoNXj55SN4xGXtfEGXA6ysn2xYy8XrhrRRnMSub%2FpPhx1uQpWv%2FL5tpMzyN7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ61iqilN0puWCU0SRwL6Jm%2BWovNxFWzA781dOsDXmXgY3GeTOoT5CE2tN1i%2F6WXzVRlLtF7MEQDfCx9MisLe5D6Zw9%2FDMX2S1ZzF2txO07wpQXfA%2BqoZXHJjjPa0zXpCu5HXs%2FTPsn68MYi5O891Mlbnj9EJppWJS664ZHKxFA1SLn6gAyBp%2BfqFtcPR6zKXS%2FoLtzJ%2Bl2nLhHKxPIHI%2FWMLO5tE2phHMthNFg2gmtPIiUy967mlSa3mZfqZTLi6Dq7gofx3IrxwcXg4uk8Fe%2F0500hpjbDCszXB05nPCYspbE77coDjt%2BwZNunyAyKi6YHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=37421594618&amp;catId=50002559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=oEdCwxgu9kq0CTarRt8Kff///w==kyV3945zlUcD4eq9fudGuY84nRiUWP88YJEaTe+1CCiTS9XVm2Y+mZOT/jGMrHxf68zC8hm/PxNRa7yYLJFniX90l0tRhQ2kWCQuTG7TAKrbmmkXXVa8v5NmBH6TuUNJauyqF+EmakqhU7dQeocvn9nlwqZ3AMRurY9ZcIQA//ZyydCfzUmmPMwjBtCnGYrMhKzku0WmMPrGVs5BEbcXmuvl9W13Fm2jdD0iZWIgPYEKylJT54uHf1sAvIWwvKaOk8LBB+MJN3WLEQYnZLKp9tLd9jZQwKAYfQgbpsmy7Xvt7eqY84XCPBZnpfx2oExYS1XgS1L0ZDTXyg+uMVlM/wmJQGzuXyWnKxS3nzHmqRTTJKllYuO37gKtarx5dU5o9/EbqEgjtKohHjjmP9mEqtD2IIbDjBtnvn/+GHP7GNMO6yF5XMNwCAy4eS2mV7mzjfn6g39sXZXiqyNhhcdCK/2nC+53znLdIqErvM8Pk275EIvu/Cq40ngRT4qrFLnTSLiLiK66XdukBunLnRF9ofP/HkgVEX78hpTqvpEx/KshhNbLHAPy8HUVzNdy4SevouxKmA+trTnyBfwPFzZlUh0tyumIm1K98J+aJSrX2sgFCfH7jdDKqs4MTrKwyGJdr1lfwYIEI0F/0wjxdB1Znzs282QPs/Utr5nFfKGfrYrBuH4xUUVc+0O3yaMtrlC/jfsrCgS/3iz2in0rbDtdcEF6QPFQ/X7oD4Tn5PSYacY+zbAroQWVRrkMrUGfos11IYiefoo6nu8v0/eZIZYOiN/odVnnCKu41U6sxPNFHrtjzPecWRKpBbbEEwmsGQXNf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX23WNA + RD20WSQ (FX23WA-20WQ)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=tphcGHn5Bg7SQBn/dvxKSf///w==kfD3CeOyJErnF/G/hn3KXxMKHP4tfzGmksPG0n69HhmHpHBQnVz2b4defl1YXyq6ovRAmTy8DkKR/99a2n3PJBh6W2zQKhF5vYCvauoa9H5uzNbId/i3eYL3zeHIgrzXBxBXa+5TfRDnIh7pedbu5p+Ubel8oKdcfXDOF8ffDzDKMoQcp6Cn0g9lreCHCA7+XSEZY9vUpt02BG9xrLhqhHqxD0GGPFvTc3+2zDnbDSnUJYqCHYWXcV5BJ8pNQNCgJC3GVXi8fIn+Z5PVaUemZoeUB8u4Lw4oSJnsxoFjT8DtmvKlIXFz9hEYmilFYhmcU3m3tVAtXF/7JLtJqiGfeAIy3AopFZCbhG3zxLIRGR9jx0n6TK7Ho1invBvOatUpnSYUDDMLoD2oisib7idhXse2TK+d4NKrQ33aukJAeFMQNzP1z7HnVWYihYOuKoqrmDcFu9MNHxgNRPQMCdqeDXeOWVfvDdc5QHO0Wl5RJvOFkTbLUI8Y2wzIFVQDWIqHqJ1PCS3xygDDX4O4PCKrCPvR8loJtCknq7r+eweVHUdRUkDFratbOUrGcIycIMqa9sRtTA4uONeRUXuQJxppokk5Bbldlun79GrGUwgT1dLR09wRooEn0vOkPJkNaYPjz+/u8yeKKNDlD2eRVBXvMf8F/8wr9qNY64/Y7hoM/TtLoNLNBzU+2eFLxPBZlImjansBtuUEguEPv4bb1dvAsZ7Lbi+dJoU2gGWbp6b7EqRAGqjInhiKOD/L6gPJ79SaUa8mL5JrXN1RZi7uhv3YIvm9sqHXAZxpgjqLiNRBC2nb0laz+X3jiL5V2s6eMguHYxdG8GmVljyNzvWsnLUrbMg==</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 트롬 F15WQWP</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1wv2qcMCwYto18bgfikfav%2F%2F%2Fw%3D%3DsZkelaS1DHxfuriAdu6z0Z7f7Fr38sAeWiMgmkciVBddXa4YJ85H8DevQM9Yzo5P9QyAHZYbgPkXjSd7UpJ7F1UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27f1%2B5%2FHaCby8LiydCS97EdQQxHXbaTD5yEv9dXHIbGCauXeKajtVGhZAYk9iDkuSDZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu%2FJaz2fEGsGWG8bczfGHQPbDFIGooqqqx5yyVs4LGd6fzqFU%2Fs%2B07B3Ca39cGtz54lYxr50nRorozSCsqt%2BShtEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ63RIT3MF2w%2B%2FYr0WcgjQTNWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ%2FNf9ZQum3SjCOvOEyVKFVU4%2BEFh4yqZWHceWQrNLEuDXsMgG5GIaLqd9DYBWwOX5itjL0NWqRxwqta9AJKnJ9vIkMbK6W91g2ww9aXwsIne%2BQE5aQYdIN3LCs%2F4tPdhLDWrhHEcp0p%2F%2FKKziu53PdEsgRZvHv%2Fg8FbUparQ8jSMOUuWDIqFtnsACJvRKR4K%2FV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LrKXKzXhyVJ7jaZSYwg2t%2F%2F%2F%2Fw%3D%3Ds5ygrHHNiLtuRIFvhzbTQ%2Bbf7Fr38sAeWiMgmkciVBddXa4YJ85H8DevQM9Yzo5P9m9VXkxThhYcMIpSuz2Fw2kbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu%2FJaz2fEGsGWG8bczfGHQPbDFIGooqqqx5yyVs4LGd6fzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6aAPQAUaMabsKH%2F%2B%2FIbh%2F%2F2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ%2FNf9ZQum3SjCOvOEyVKFVZw9%2FDMX2S1ZzF2txO07wpTdRN0Vf2xeKknU1tHRmxUW5gp%2B6h%2FA%2BU%2BmQfK31kpnFQBjt13YGtb1Ur7qlY7wFONfneagTObS5RHnRHnaipoCjr%2Fvhuz%2FM2bOeEg7k3nONV22%2BqHH8MpZYK17hTpAiRNiTz84sQxtnbZ11%2BQUdrVVy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=36470301618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX24WJN + RD20WJN (W20WHN)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=ALWuyaugKVvGmWMZPBGY3%2F%2F%2F%2Fw%3D%3DsyniYOE3SY%2FTXfbph02iXnqtOJVsT%2FELXPSf9l2quFPjdpgAIic16NITt4jHu2Ti7GiKiHQBPF7FasVYLzI36AB4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGK7KufLpOCxJTDfS16tEoP0PyEoQG%2FS0PdHZ1Z98hHjLhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9DSN7H8Q4FCz5JNvsbK3rNyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne%2FiczXRi5fFH8dgI4efV1AaAhfbmRc6T9Q91MqoVII6rCdYGJIi4G227DIKAy1z5AZg1cYIrx7J9tiMtswqxezbF%2BjRUOEPnenhaGmJLe19TkuIVaKRhr%2FvuqX7MMDnobiGEjosFLiiUqlYUfoiT1WAGE2Dqk7%2F7DptJHBb9246QvtQm%2FrqQw0WpDSV6Vt9EIsL3yUI1bw6FjeTBp52IfxQN%2BQsjK6V0FLd%2Fybx7qcubNSE3OzZUT76KyqzckASmm&amp;nvMid=37988116618&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
     <x:t>삼성전자 그랑데 WF21T6000KP</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Gje6YYIUWXJSBl5b0KuXNf%2F%2F%2Fw%3D%3Ds7qAFRbd42Z87tXpRSTnvclR4b1D3%2BDwzD2GODz3ttIjdpgAIic16NITt4jHu2Ti7ganO0j%2BOZeNhxgoa2rlEGR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnh05JN%2BNtOGhw4zU7nzuJHCYgjGIBOtJ69rTEs02nbC9NPnkYbTH0MST4gJ5ujjfot7Kee2AsCNJOAHK3JhJC5oBsJjzV%2F3vl5Lmd9HbkUGIfoPeECTXKz7bYNhagzeRBCKkiB%2BSt4rK52exwyFyILRQXbTvyYQsc9P4uGweUTPuxUDqsRcyLiitVs8TJvB29yafAk88HJ9GId9h7ovv8d4BsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9EdBeH08fd47UFXBstKWvcSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneKj46vtgf45H5EkxpD1Sz5P0EYh5PQ5Zkfu654xzeGfsKA%2BbMZaVGHYfYaXM66HWhhn%2F3qqJ%2FG29%2FKiAoyEKATt6FjHoN2OaRipl3my13mgz5txTNP8e5J76a387B%2ByQJpwGylWYDb9TAw3KMFgso137%2BKWJMFenuTz8OqHtJ%2FQBUTI581RDq%2FxMsFdBUGHYS8pCpmw9vrzI04xAGB4HJjh0cjwVm1BUYVknE7IEMpz4%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2FgCj5XsfTMDevBSZofAKqP%2F%2F%2Fw%3D%3DsDBoBFzjbokaa%2BryQxubnc%2F1UX0KjFMFvZKoeNoGbGcxXa4YJ85H8DevQM9Yzo5P9Gro%2FTborZnseHZ5K6G%2F4PkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivJCOxnDowIGyIoxKFJwlTYExqE%2BRgMNo0tNmRo%2BnFKyfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6dSXl9a0lDa0gIQq7ReipPmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ1vaIpXVZBKpy26S3BJoUqpw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI6zYv38MEmQJ6XIPPOhIeYXX%2FK%2BxJzNGZPJ%2B2t2XXcK2z2pkOXnuyJBMthuaVsXjRiA3%2FU2AzguC84AnoS7Lq%2BWmvEC6ARhXJVHfKwgCWXr32mdjrzt6guWvPvvRJVqc%2B5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=22568548559&amp;catId=50002344</x:t>
   </x:si>
   <x:si>
     <x:t>LG전자 통돌이 TR12WL</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vnrPJ3a2NmYRd3TrzRyBef%2F%2F%2Fw%3D%3Dsg9QnTfXqmGs8zuDS5ChwF%2BfsQTOE0zdFU2Dn0MK%2FiBhXa4YJ85H8DevQM9Yzo5P9o2K3BduawpNcFLXbTF3Og0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27f1%2B5%2FHaCby8LiydCS97EdQQxHXbaTD5yEv9dXHIbGCauXeKajtVGhZAYk9iDkuSDZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuSCJK6PgzmF0fwhlVm2%2FVPCkeeAb4Dw38z3aq65trtKPzqFU%2Fs%2B07B3Ca39cGtz54lYxr50nRorozSCsqt%2BShtEh7HlwM%2FvKZUHUgKp7T0mj9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6FO8ydLu%2Bl6anMm%2BfMsGD0WovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJh6d0HjlbTgLTHPrHHPW0fh04%2BEFh4yqZWHceWQrNLEuAf6jVz2NLnOPLiBhOsO0%2B29uWFgK3RuB7NOX%2Bs77v69JuZhTrT8ZO40mECK4jHEIJYeRIeS98UPUzljwWTx6n4iA3%2FU2AzguC84AnoS7Lq%2BWp%2FMQ48EIGXUXmBNum8F3fIVUJGGWQAWy6NPWZkGSlA5Hv1T%2FoDPeAT2ZD%2BWCfnsQ%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=rYqBF8ztR1nTK0SuNOLZHf%2F%2F%2Fw%3D%3Ds5cqxy0uHc097lwzELsKiAefsQTOE0zdFU2Dn0MK%2FiBhXa4YJ85H8DevQM9Yzo5P9xLcENqBK11p%2BwmSF0H2TikbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuSCJK6PgzmF0fwhlVm2%2FVPCkeeAb4Dw38z3aq65trtKPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6h%2FcsdlZHXFiNUuVDLSAi12ovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJh6d0HjlbTgLTHPrHHPW0fh5w9%2FDMX2S1ZzF2txO07wpTDngjr7oYPmCDfIeNH33%2BQzhW4ATNeHpR4SJdEbQK5L9NnDI2wiW8G1GGiGlp4K8hPEj0%2FNfW89fBeFKfGwwOU%2BgtF15PMkmjkNDmi88yMRSLrnJZn80EouqMJ6dsnd1OfWEgp8vqAFhW%2B8b9MQzqThWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=21225654919&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX24WXD + RD20WXD (W20WD)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=PcRpwxsDzEtKOVpWb0oMUf%2F%2F%2Fw%3D%3Dss%2BzNFNAKArPMjhmLFUoArL4KNBLIeLXt9Rb1aoAiSjdXa4YJ85H8DevQM9Yzo5P9JhoBbbeW5kr9%2FIr25QyEmEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivACUTUWQyCc2wx2r6ZQdrGJuIpwHmh0%2FRF3wqPmZmhaPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6yG1T2DFxJ5x6hbijwA1iW2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZEKogfqeSFazhH7VV7XH5B5w9%2FDMX2S1ZzF2txO07wpSKAkXtPbksbsISZvcU7c5vMgRb1apNSZXqGxIiUpWH5%2FI0fIFRfBZUPaSLRPGc3PKJqQvQX8qLVbxX2X7lgG%2B4X0i92%2Bn7ulVuFEkps7VGvGJxyHBE3CYnzhPLG%2BOCDMVxjmH5DZhSwIkAgZrNaxs%2F1EK3zUnn1Dj6mnTiJw1tcscgIRCk8vtGb7Z%2FKGMSEdE%3D&amp;nvMid=30402965618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 WW90T3000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=2lINSIKbQ0B3FvHlFxR2D%2F%2F%2F%2Fw%3D%3DsBKyLdhLTRMZePxcB2KuI0NC3hFvLScc%2BWPUmLbVHRxjdpgAIic16NITt4jHu2Ti7S9qxLNgFLnHnYO11IrjmBh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLo8QqR486Qb9NwTuVRRGpASxPO5t1FgX3iJqF1%2BggxxxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v96ONMvJ%2FGMmpy%2Fd1wpRcp8CEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynez0LcgGndb4HPYYb3KwMmKaAhfbmRc6T9Q91MqoVII6rixcSdsltr0ZO15mi%2BSdLl8tjTdlkUA3qFKR45INvELvw7lm5BlcVipH5PQmiOqOgEtZQ3roX6J%2BwKkie48Y3jAYTYOqTv%2FsOm0kcFv3bjpKDmj8PAxq3lPN%2BKqvX4iRvaq07%2BiAekglNj1iX%2BDk3HA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=27570689522&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR10WL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=WVamAy%2BbPXIQ73K%2F1q%2Fr2v%2F%2F%2Fw%3D%3DsPYJx1NlIyVHQzS1Z0xIuiROvsVZssVfLHiTRa7zmyAlTWY5MvHExC5BUTXXjdBTuDaUGZC2smOtAo1FHmH3WmNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjKDVgEZesSYhgCaroYdVuAWfWyznO2hs%2Fok04dtKUcpT%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7lcoU0oFgqomJ%2BQ9Q08CFZTokh7KNEkkbwBBKOUFOEEoLk36t5EZOqkPMxlo3DxnMtMWKhqQC%2BRvQa5BchKUW2CI28QDIftdPo5sZ73mZF1R9x0Hrk8%2FMkgyD32AiMb9C8Bp8G3Tytu%2FBbutZxf1MGPzOaTx3KQ6vzdLMFkauX0e67qFZNDARYcZkRQNTwYwpFQwuyGCI%2Bg3dUVY%2FXoQXMW4j2xBEeA33ffmiW3fW%2BgXNFUVErwpJi2NS9mvBJ9UtHRyPBWbUFRhWScTsgQynPg%3D%3D&amp;nvMid=27058613526&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR16MK2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=%2BMjkxaVUhSa0gslngZIJuf%2F%2F%2Fw%3D%3DsGDLrtL5uPxvDMKJKpbZHzgOK6TjhmnSQFzHIpmmkupTdpgAIic16NITt4jHu2Ti7GBVESGqWsXFcu4wgo2GuHh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLycQbS1MGTYQfC1kF4IYx%2FB0vtxjQ6w6TdfmXtUsvKMRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v96PKG5TWCobksPBT0toJmxCEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrko6Jc5FxKu55drZC4Kqvs86AhfbmRc6T9Q91MqoVII6q6gBMFzLFzWXUEgstHis2qo64ifB9DVeZ8ffla9GlFdkdk%2FWfTA1klTmIs16MKh8uD6qfmHMACo1cz%2BZcEMAK6YnHIcETcJifOE8sb44IMxUMnsgNAe8Z%2FseRlT1O9QCtqxcN3TWKiGYoDo3%2BNIiYLxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=37019031620&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR13ML2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=9qYjLIVAOE7bQO4wbizRU%2F%2F%2F%2Fw%3D%3Dsu7GJprg54eKTqAOmvukWvGLq0i%2F9NHIt43nGJeNR4lhTWY5MvHExC5BUTXXjdBTulHcyzc%2F9pyYkWEWk%2FcnJ19of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjITq3VcVol44e52Dnx5EHs7ts4nNxzJabeEwTBCi54EA%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7yBK7LrirY%2FlhNyUz3JnpBzokh7KNEkkbwBBKOUFOEEoa%2BDgo0rqijIQYmK6M%2B%2B39ADSR27OVVpLDAwtgcxG1XyI28QDIftdPo5sZ73mZF1SURayOzFX4aDC6yjaJg0pL5o%2FceWaeRLYtdVRyNcwZr9O5ejnYgqeRm6z8NTBUVlDWh6nm66B8F5u025ZmJ%2BVuehkzm6TPp1h0P2FevnkdLwqWYRtQseIQm%2FApsgJuJA%2BZ1IPS5XMyyeGR4eyFnBs1gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=37769600618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T19MX8A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=UAJAhXzDAqYjDtT%2Fe87bU%2F%2F%2F%2Fw%3D%3Dssdd8zLolAWVpmaB2CmCMBi46pOuWF1MhdA3dcoIMSiNTWY5MvHExC5BUTXXjdBTuCjXS%2FALgF4qI4cGAqclzB9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJO3YGdSEcajpNARJHTJqzs5yUve4GkCjsflgNoIKoHW%2F7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7NBhZlHkUWhmt%2Bk5d00pojTokh7KNEkkbwBBKOUFOEEpZtVmrEysc%2FO5JysMiSfLQhqqV6WRm0hzkj42%2BEsakcyI28QDIftdPo5sZ73mZF1RHKn7hD1yPfXNYgrBe4rtg5o%2FceWaeRLYtdVRyNcwZr3rJtTreuhyI1o7mfbCiWmQlMNUdzQd%2FqdACsKcOAdiKezdPirNIEhU3YcDKwV2g5PR5nSUJ1xp8NkneluRxWS4K%2BY6VVK8%2BQoCK5tXYY1gUDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=40438529620&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR16DK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=yQA%2FKCLrgzI3WT50bXxXXP%2F%2F%2Fw%3D%3Ds4uuRaQe9WbylVTddtycb6JpVolfb%2BZZ0FiBye2doE4bdpgAIic16NITt4jHu2Ti7RIJqzwPsw0cqfKe3TK%2FM4B4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGJPu1kwEm2ABDk2zraQdPVWk82w1cm%2FmBnmcClucwu8wxQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9oqttz%2Fn6vNCoK7wNKXvPVyEhb%2B5%2BbgCLWD5ufmjwVaCvU%2FXJcCFr61NTe5F1Efrksv7izxXCGEpUbDc%2BJXXamKAhfbmRc6T9Q91MqoVII6rapvc8r6d2f2UiZFMyeOYZ8jR8gVF8FlQ9pItE8Zzc8gXx2%2FJiTVQY0AC%2BGTQt6D4cdq47JJzoONKbqihxTDKQEaThcwm2jOjlPe7qD4n463iwJfiDPUYNPXjEVMu%2B2CU6Eo3ZOAZApJ7eI2CpozBwxyAhEKTy%2B0Zvtn8oYxIR0Q%3D%3D&amp;nvMid=41412181618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF21T6000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=wBJ4He6r9WaNNAaGruAwG%2F%2F%2F%2Fw%3D%3DsC6c1YMNYXBgDezxZ1MABoFqpwhu5rNn15uj6ChZC3eNTWY5MvHExC5BUTXXjdBTuOo0ANoYQGhcPyjdcWIp0yNof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIS4iBZ00sGCDB%2FnF05qNdBmmf2nUY78%2BH1SHCoUoG0Dv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7wmgR4Qhs4coCaIdnSdnjwzokh7KNEkkbwBBKOUFOEEr6wJm1zeW2yY8Vzix4UfoeWyPHvzy%2FfdmKbIUVB5Y5tyI28QDIftdPo5sZ73mZF1SxZF5zXhAmtakyF%2Fpu0aiZuwP9L0j7YvHB2OKNn2rLcIolx3XTk15fcAMUyct77Ct%2FymEPnQv%2FsDrertbu5rr6Es8cFUTVf2EXpmSuc9bAhLBYNXLalPK%2BRyVbWvcv%2F51UXtuFsRzegaIazPJBZh6MzY6of2Xpggjm6A4Z8HgJhg%3D%3D&amp;nvMid=22369783605&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크AI콤보 WD25DB8995BZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=lUwV3h64jZr6yGKJfi2%2Ftv%2F%2F%2Fw%3D%3DsuYcEKYfTWTRkNyi0TKn1QhrfzCN9TXcHAqJy%2BLXY43xXa4YJ85H8DevQM9Yzo5P9qolM9%2BGEA2O4POoRNPEb9UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiv3%2BLGSjcX810mAnp91C8O%2BfALud75dMxmB7olx1lHkC%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6pUJ3pvAU%2FUk%2BcwFkgK43kmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZEaUl2%2Bnr1QPlcmJowgXOl5w9%2FDMX2S1ZzF2txO07wpQCkNvig6%2BhTirkU21nz6hYt%2BtTIDdROUUJeIbwZU%2FVnXiUSsmAs8DDguWbirRGwkwE%2FYgwAZ1NKytt1kYWg1oonUpTzmQTeleeE0y%2Brv8xbIB31OiOqzqyfkWal%2B4PqZkh6qPQjx%2FfiWf%2BSXYutd%2FuA35CyMrpXQUt3%2FJvHupy5s1ITc7NlRPvorKrNyQBKaY%3D&amp;nvMid=46032887620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F24VDLP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Xa1d4OLjTJa5lZkh9KDQhf%2F%2F%2Fw%3D%3Dscuuv5JmhBuSqIdhOqXXMPYw6QaCFlD3R03kpOD8skVndpgAIic16NITt4jHu2Ti7bzZFSCORdzmHkd8SGGSOXh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGJseyK32%2F8M%2FZvi0YZO2Ed0Cb%2BeKHMcPGg8rwXZh%2F6U2BQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v98peLoL6uQrfzZr%2BcyQpbhiEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne2SRnSFR%2FjElpCWQqcjR3dqAhfbmRc6T9Q91MqoVII6qLBSULoGCbmgkPnqWMPaJho64ifB9DVeZ8ffla9GlFdk253Tp%2Bf8W1zDOUsRT51ciTziFw5%2BZ8rFFI0iDBttiJiA3%2FU2AzguC84AnoS7Lq%2BTQtHiCOY%2FWTDDSW98k6U6XWSj2ZYf6bO7oApBkbyZ2MV3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=38677241618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF19T6000KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Q2FmI0YKxTttP0Xf%2Bs66v%2F%2F%2F%2Fw%3D%3DsX9yeGVB8iWPY7FxExyRDUfCAmuXJhROvfaIyTAoEpFbdpgAIic16NITt4jHu2Ti7qREhN2%2FoXR3M%2FoUawPn%2F6R4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGKSYKjfOY42cKemTMTw4dyGYQvpCqTC69oNFHaj0IKedhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v90A7Iqcl3evVDpeaMNdTi0CEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynegFDM1fHGh8JaDQ%2FQr4X8Q6AhfbmRc6T9Q91MqoVII6rgUEkBq3g1XZ8p3Y%2Bs%2BJGm8tjTdlkUA3qFKR45INvELpDv%2Bo1ICrRjCbWWP5lw19xhQsxz%2FYlCnBlMKRjCDlltAYTYOqTv%2FsOm0kcFv3bjpJbpmCKQ6El11VsYi8y1BKU2xZREXtU1eOuNRCO0CntSb1NmOoRBMBsXNQGXzjfbC%2BFUQB%2FrDAzm2q1KHRsHkfE%3D&amp;nvMid=23057107491&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F21VDSK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=bF5wKnKlzO9s1GTLBMIoNP%2F%2F%2Fw%3D%3DsN%2BfF%2Bl2%2BYchr4HjAvrtolnKkH%2B5XHBZNhVUpTKwPY%2B9Xa4YJ85H8DevQM9Yzo5P9U9Q5%2BG0WC4tWLDU81SW18EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisAQFlu6fzqbRRY6WXu6LzmkTxPVqWjlM06YlbRFs8RiPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6bpHKTonMA2DpdR9cAYvV2movNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZAlwBrMnXP1ms1DJIvfm9Apw9%2FDMX2S1ZzF2txO07wpQcT6m7ZfuIQR9Q4Aq2bDH%2B5gp%2B6h%2FA%2BU%2BmQfK31kpnFUuPXlzepYztGhn%2FgQqzGfGw2EAo0VvPbjVeFpXt%2FUrNjr%2Fvhuz%2FM2bOeEg7k3nONflo%2F8HrCvrwVdlrkuKRyBp7FyCZHygWZNkfq432f91%2BaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=38674238618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T19MX7A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=KjV%2B6QxGJQU96pmlkP7xD%2F%2F%2F%2Fw%3D%3DsJhPxsxfK7yzoYAxhXEPO7%2F3rhytRM6snotMitX%2FehwNTWY5MvHExC5BUTXXjdBTuBJ%2FJIP5NJ5WDq56qsyZDitof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjJKLIROvxZ5HbPFKEHUUbit0j%2FiALXqNgBoh21nOQ5U5f7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7yn432XIzzUatee5v6E6h6Tokh7KNEkkbwBBKOUFOEEoNTRwF%2FO00lN96yljMYgTTdHIFbhYc%2FNYrMbfE9E6RYSI28QDIftdPo5sZ73mZF1TzFMqFUZKf1KlKAXRAa3WY5o%2FceWaeRLYtdVRyNcwZr7CbxRiCn19CuxUWf1z%2Bzpx087CYa3eJMLphP45aIRjpezdPirNIEhU3YcDKwV2g5IhEPnN1uFEoc0ZGhEXjL2x9huImFy3bMtbltFWzhTePDhLBwu%2FFQS5xWYf5w6G3jQ%3D%3D&amp;nvMid=37424591618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T17DX3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=zRWycqLTpwYenru9nakMlf%2F%2F%2Fw%3D%3DsD56ahb5xpbCtPWj8QhAlWYJy9JNMzTcomo72K6odrrpXa4YJ85H8DevQM9Yzo5P9ht3sJ%2B4G4A0fhfUQU0ofQ0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiu8jWOoidRCm2gn93Sp0tJN1cnRCfXvgd1qIJ%2FT0RSVpfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6FE%2FD8xdsGfZ%2FfL6AzcUQYGovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhHAzdB1LgstzBFbHc460JP5w9%2FDMX2S1ZzF2txO07wpSEze7hwSVVDn9tm7BAB2rPzhW4ATNeHpR4SJdEbQK5LySd5FHu2%2B6%2BLeqPc%2Bw5g4Jsoo6r%2Bl6mm%2BE6hA8KiI%2FC%2BgtF15PMkmjkNDmi88yMRVSG4LtGTVjHtRlfckGPFKft7ec0Ppq1ZYVYPod8RK5uy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37102400618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX24ENE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=QgwEC1gPh66gmALCkM4A4f%2F%2F%2Fw%3D%3DslPWDrsMidecEcuQ75ze5pEj2Et0MbOa1%2BOTpOm7fL0FTWY5MvHExC5BUTXXjdBTujdqAJO4w7f8lGlDUNFkkftof6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjIsYfF9l0qZ9CxVRd%2F%2FRueFZSlW25mNwCL5zHBwbrTREv7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7Y7IeiTVRn2gK3I5H70E5rjokh7KNEkkbwBBKOUFOEEq0SU53PQLdRdbuQCGdhUZ%2BvWKdG3W5%2F6S47Zi2VQAc3SI28QDIftdPo5sZ73mZF1Tmou9CUZe3zAVQQjAXGNOEllYSet7WojDJmXyLS2LxxnUCliC3CsFEig3RhKEzzof982P4Jl1TGGPbaWROZJ9Wv4YGjJCSIW1IvBxXT1wG93r72bUxZ8ptjlGATcsGkQsYJfXqyeTrlriH58BCQ6MShWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=38010628619&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR10BL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=dYptVVJmXkQ4CL8jXODXff%2F%2F%2Fw%3D%3Dslel65UJq8OFN9GuZAQs7HixCb%2FITBo5rA6NPfOPxc7JXa4YJ85H8DevQM9Yzo5P94p7PmlcodP9ntE%2FZ%2F51u2UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuh7ztwn%2F5QolnauJW9UfTWLd79iaEGcleEuylG1R1WqfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6QOhDn6USfyuQiSHc4oD4RmovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhwnC7NfOgIt%2BPBb94Z9dfJZw9%2FDMX2S1ZzF2txO07wpRG9dpvKTWueZfpmOxdKCiWzhW4ATNeHpR4SJdEbQK5L76QnvFYevU8UiRYBhY%2FuJopwSPE4jSHMYWOLquiOW5K%2BgtF15PMkmjkNDmi88yMRUGZF2uS6pEtyL%2BSOzAHjwVEe0bUeRHdX9nh%2F5h47OTby1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=26245844522&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크그랑데AI원바디 WF2517HDWWD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=i7frhDHyIF8HcKrUZgNpdP///w==kZO44vG3H6dmoRPOhG1xlAY4/qZostkZv5zb2sNEp/w5/mQfJIZsBNu86jJW4an5CHJnXLiupNJ74D/eG4AREre8dZdxaM+aW2uDw3givpgqVHo676b7nBE12AqdXSrDFzcDJC0Iztw/Og5X1OCruzaoH6g9XFumRo3DNTk9NmmghyuXteeu2GNyZyJbahj9OhAoUNdCIOin64YWwXhKwJ10n8dY04vFHdl/W9aRJU7KuPIfSDfPm67r6G+1vcqZ6sO7Rk+l+W+B7QYmVB8i/jzNh8rx3aW6L2SYXAZQrBwy0HwWQBou9DkkeCkcKkoOhi6BMj3vpz0/+pLAIcCNndHV4bgxX1qNsCZAstvG+w8+I82TfDbcdtn/EjPN3i+2MBPXUA4KS7xU30lNFGw7o4OEzp214+9tgoAwe4LSsykKXbB4KhL6Gc3+hZJEMFHl9aEI3xTIWU74Vu957HRHDbzddP5f3WVShVnBiupdFqEUZzh/J4uiiy6yUtYICpNfTunP/iHhyv7cUnRKOL151hmmbr4NwB2WjoqJTr/8htngOxNM4XrXOAEz40k/V9Xsz//wiBZMmeSRY1453VTNjzbPIfa20OWq6c7nz8iqTY1hKluMmWcvH8uWg0GxhEkFARVtA7hjeiIo7LMolTQ7b0D0HmquCveC4t37z2xxoWMcnB12nP1B6zXVjbejDByVsSjR72/gshjO/z44AUeKmNiVnbled+vYTIOnTnO6dXdPKsswnn/nhoify8h/aPUlVFOHN682npaOt7Znnq7cpKpO/ovW28UcHw3agHo9/SM/vmxlPJZGzBAo9ALPhvcsro9U8pUgXEi2E6tldPCbRhQ==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX23GNG + RD20ENE (KX23GNG-ENE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://adcr.naver.com/adcr?x=JljTDHOYnJq6nf2fy5C8FP///w==kfD3CeOyJErnF/G/hn3KXxLQeYzA8SVFsyQxgiiXG0JD0GiFSlmytP51IaDXgCm6qFgYnoVrd/sdwWtV3gQCQ7myYYxOsFofufw5t8m4XFbWz1MisteBa58ye78ohkX+CQdzK9t3gIE+HdjBGETKljSopj3soDs+qtoGSgQDtr7VlD/hNbfHq/28BB4mdEG7jw+QoQPrCWHpgxxR6dYw905RiANZpuLMJLEAfo9GTBesl+wXdXOzNfWtKQqT3reqyzggqokd2ev2nV4ADpLUP35ZAqoNkXyl6hvgg2eID1VI+CWsQGq74ySzer3zWIq7XUxxme8xnS/epBBB0UucaohfapNUGGVeEuMSMCdzNTojTN4LWG33mBB+JgsGvuMd8Vzq6FXosV3cs4mf/cq9GwvgxgDkA02jW7gf+2PHJumyapwU/mr2dCPOTpZO06vbNH6L9oH92b+PRm97WGJT4Qm6ZqaicL/qH8XJ4001lXe/6/OTDowxXR2CKwTU9eUJI8XXzkNHv/9DA3nzjUZ8BTGEZUu/CQLWRQaN6jeDpetLgGkIcMqYjUAm1ga98eLAuvB2ygh4TOEjT8sLccxq9387DAvDsfJ+q0Kr92efUJa/IKbTtOgW0XfoUADs+O7kWUC0OD0RUHrAThPoFaWcEFCU8wCvj5KLRnxH9M3aMmWM1JbFD1WJ8fwqAEbaa1f/S6mzyJsHggH05CX5Ym/e2r34LeQ5jTLJG0Z0rbl7oolGX9eNnQFnlxYrxpXlLuoXECDFNtb0Cyn5czmEDChOS1qtSQXMfvkqzVx2AWhFB3ZGyQk98tw2GoJdpiEFvYrwgiuRbHm3WTIBAFG3qzoaR0Q==</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF24T8000KV + DV17T8520BV (WF24T8000KV7T)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=Luik1wFOiZCVdNJxTo2hFv%2F%2F%2Fw%3D%3DssIL%2Bip5FLvkdvWcLz88U%2BXvnotXtQvhDsvb1B3rVl37dpgAIic16NITt4jHu2Ti7p3vRAnJACVBeNy4Yz5NDTx4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGKWjSV5bxqYAT8LWWit2SXhpMBFbaMXjl6nvZ31JDywVRQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9pMCrqfabi9aoxatLhB6qtyEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yneGzLU7tNPM9lKOgBhWuZl0qAhfbmRc6T9Q91MqoVII6r8VAjeNJG%2Fpl07h4%2FlPkz%2B1FQ1n5hRDQg%2BX3BbAqnU%2Bo8Sw5RR7b0LmpTYgp22hbffSeUyHdl2nDEtpTOqzLh2zGi8wzVw9IqidtEfXkauFoBJba29OO7jNEQ%2FJXO8VC6dSlPOZBN6V54TTL6u%2FzFs5CZjXElx8cWZpOoBm5Or3GfWnBwLeHFykEFBj8hB3XYDfkLIyuldBS3f8m8e6nLmzUhNzs2VE%2B%2Bisqs3JAEppg%3D%3D&amp;nvMid=25883545522&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데AI WF24T8500KV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=82eQNZPXdStCOaOTnkVYBP%2F%2F%2Fw%3D%3DsclB08RuMTN1eNJBfa9ABvovXBcyP9hiC1x6A34J8YJFXa4YJ85H8DevQM9Yzo5P95LVrNQkz012JY8XhFO1gtUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivrgMBr9Y8%2BA3zKCWIXGqbC%2F1J%2FmDfxFN6CZAF%2BtXmWL%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Ia6LbvGQgGV6Clj%2BhUwqAmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZL4fiwy3HAt67D3Zadc%2BqLZw9%2FDMX2S1ZzF2txO07wpQwzjRX%2FyqH7RFgpfkzuNGyGR0DvfMRdBhAYxbOp49GVRiNQqqyY3WOPY%2BUwosYvbH9%2FZ3u5gBILjxKL%2BT1Gyt9DWrhHEcp0p%2F%2FKKziu53PdLkyDBCQLvGF2ccuoII94zKNPHRf19dNZqk7zrm8%2FiE2VoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=24563349523&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WA16CG6441BY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=nRxUfyw6Sug10njhlKyvFv%2F%2F%2Fw%3D%3DsJKnQewhUCYUf6TdRKz51AVRZ4Tbk8eDgJieiX5JGOCNXa4YJ85H8DevQM9Yzo5P9faI911OBBy8MiQedtQJKu0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivZ3mGqQrCHpO1QdNWVhDo7tUhpYpmEDK%2F5c3KyHY0dR%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6zv7i%2B2PjgnRzINo%2Fx0g9IWovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhkxj1OM1OxCrsocgpSk2g8pw9%2FDMX2S1ZzF2txO07wpSyZpRFykdNybJyyj0v45m8xlj6sOrqDmR%2Fs4PB120oFif1KQpo5Y2%2F0PB1rUNKgRJU7Uad4n0wuIZ3A%2FuD4aqpDWrhHEcp0p%2F%2FKKziu53PdDjbQw7H0xMmK2Ozwn36iACLANftflcXuBeoTeK7sWDXVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=43749532618&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 삼성 WW90T3100KW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=1NbS%2Byno3mO9fa78uaWrLP%2F%2F%2Fw%3D%3Ds3w2DxEKlDf9q8EEv%2BMVnwZ2ZQLYZbK1GZaHOlrb8eUxXa4YJ85H8DevQM9Yzo5P9GkNdj%2FoBlvvbzj9MIoNhB0bAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOitn0np1RdZUZe9%2FVHEBTcIICfWXDX4SPPEeocOHpvgxVvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6KWw9ABouRcNrYOKIezQZPmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZzdcsaYKpy6A%2FG%2BZ4ykg7LZw9%2FDMX2S1ZzF2txO07wpRk3BpClMWb%2Fg055zwKxCJB2iICY3DPD%2BxxtZjS3TE2X%2B35hxbGy7jpD%2F9K4wohthhrINAkPXsTQRyO1QZEOoKViA3%2FU2AzguC84AnoS7Lq%2BbLNZeWhH46EzPek5MO%2Foq6cwIbX0wJtROn9nSj7K4H3V3OdHgSE8LoEjTx9zpNPbFaRsOtQUnaEEbxBoHxZXOc%3D&amp;nvMid=22542989885&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T21MX9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=tUa6TcG44jBx186eGRh2Of%2F%2F%2Fw%3D%3DsNBmSAc%2FXxdU2O1TzK%2FrH5qttdcIaPbINnVL%2Bk62oUm1Xa4YJ85H8DevQM9Yzo5P9ClrqKik7ksitMyoiomCf1EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivZ%2B9lBZ2qjtKH7E6Sxj06x%2Fc2%2B%2FgMbZYOFRItzYveAkvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6t%2Fr%2FuoAWmPdw27bWM7crqmovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhzraJf0c9Yk4t25OVp9hx15w9%2FDMX2S1ZzF2txO07wpTfDomW6hDdnUgmQfY9NHWUzhW4ATNeHpR4SJdEbQK5L7ih4uIMkWBFL5ci4KACTXPcqJbMNt2x2nLysF%2FiRLBj%2BgtF15PMkmjkNDmi88yMRQrkOTIDA3w%2BUx%2FAUA4Ak8J4TIbBgkX0m6o%2Fv0m%2B6wTny1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37426295619&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=btRvIl%2FXTKMJlgZH8kNO3v%2F%2F%2Fw%3D%3DsdQCMuRNwbI2vrNL3zcRFeaPthynjju53CByf51nEQsVXa4YJ85H8DevQM9Yzo5P96dOw9pgJ5GzNzc2CjXLTtkbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivy3OdzgvHMQIadAt3cxmR9624DM8JzhsRDZWvzc7RqdvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6ozMMjKY2cxLU6zNPH7qw0movNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZQaBFk6hXOJaEAdLSXZZbAJw9%2FDMX2S1ZzF2txO07wpQwV1xXa46vXwFK%2BkCh5sV%2BKAP03KFoUB84SnL3ihBtgTslwtPEvt1R2UpyG%2BwQAMV5LFd3PfqySEIXCHVpBJ0Iw5zHR6KEZMYanLJurJe2NE%2Fg8w8cKe509NmMZFQPeJSlRkHNhnYg5p8Z4ga0hjR6xl5OQu4Q7DO%2FZeLixb7N9Eu84OCxpyzbFsVSCaXFHjQGruH08DlKshetxY8KUEZb&amp;nvMid=32485412619&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 그랑데 WF21T6000KW + DV17T8520BW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=q0rnOWrVd6IbqUQ8tjNG1%2F%2F%2F%2Fw%3D%3Dsm0nmrJQRxycVFk2UejuECeEIrNI2dYQZBD1W95crehhXa4YJ85H8DevQM9Yzo5P9R7l1VSbIXqNPggxJv0qqqUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiuKkgZvZXf998KAN0Qs2wWIAPXMrr7YeuDJH0i%2FLQUyE%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ69pZxHySvQTEqP7v36HRbdGovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZbv%2BFIHbEjfVKjAn0Pj3QBZw9%2FDMX2S1ZzF2txO07wpT1ueD4IDv5WAwLyx5RGGJI9fFAMpwJ4bBePN1LtpjPsvI0fIFRfBZUPaSLRPGc3PKyVTEauU4VfEnGxsX8p0vshj0Ybrsj5XYegCtKNJH8lGJxyHBE3CYnzhPLG%2BOCDMVQkhVSBdrFQu1gFMhNDqORO1VZ2LB%2BKENk7lH79DJ7neR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=31231120620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 FR9WP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=GYs0O51TzOrJW4kfipcXjP%2F%2F%2Fw%3D%3Ds1GYZcOKRWUVg3nxL%2FrBkP8cnDstaogdW1ZhEdEk17lZXa4YJ85H8DevQM9Yzo5P9XSSLfQvBeJvwO85TCWbV2EbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivVFKlmh03A0F5UPNBxZGw4KpBMMlpzp%2ByTUdQNPsTKBfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6Ew3wytf5VZLh3g61K7bXd2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZUMkh3XrZ7M6ahstDdttspJw9%2FDMX2S1ZzF2txO07wpRlhA7wazaXKvd1zKwGNcO1h82bo6KWdmysk3%2Fp%2F4UcbeDUEcyyLve7s0pTOIWS8DUi7Nsv4NLqm0cqqfBVeRmbv4YGjJCSIW1IvBxXT1wG93NHaYB3tmsP%2BKuNJ2ggj922i9KiG5aKCgjUFmFVZ03hhWw3%2BIByOa0jCVNQVnCDoA%3D%3D&amp;nvMid=35828081620&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F24WDWP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=LL8PolU8M1ydyuBS2bXTa%2F%2F%2F%2Fw%3D%3DsP8AfUNJEepfPVsB%2BxF5gecj2zjSjYAbrD2LesNVis1ZXa4YJ85H8DevQM9Yzo5P9z4FlC2u3Wicq1P9x5P%2BR%2FUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisCAgROypHxe3E3Vix8rmAVu%2Bnk5I4ht%2FDE8cQVjvcmWfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6l%2FyTvaaXjgGEpJ2WozIYsGovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ4Jk9j%2F1nt0IILlcPy81kU5w9%2FDMX2S1ZzF2txO07wpSbNxl0gqVJ77B6xeKF6Vt%2B5gp%2B6h%2FA%2BU%2BmQfK31kpnFcIYo9dKleUVMucTGTAwoKWmnRblhYJjDyT5uGdvWlItjr%2Fvhuz%2FM2bOeEg7k3nONW8FkhIqbM9YhhMa9exTVFN7FyCZHygWZNkfq432f91%2BaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=36820811618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F12WVA + RH9WV (F12WVA-9WB)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=CRs3CDCNDFBITUuyWFOvz%2F%2F%2F%2Fw%3D%3DsKO6zPM9aEdU1fuMs8Ryb1OcfnSzzGiWi3%2BVlDcxohEPdpgAIic16NITt4jHu2Ti7F82Jm%2F8Z8JxsScP8%2FLVBhh4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGLUhDoMHSoisDDNIbJRaVtbPQelS61jyUrFgo%2BcBQOb%2FhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9OfXFC%2B6g30yndC4ddfh7%2BSEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38yne7HY7Wnls457QSiisB1jPvqAhfbmRc6T9Q91MqoVII6qAeoDwkUxP3PQYWJpMAX6a1%2Fkkvn3W8tI1viG3OnvsdleYmx488oEuLTMqHS8EsPdiZi38xGzWp2N2nfq92jyFIaxr7rFC24map1hSSxEgBlE3riYGb0bxCu4GQsNwdPqpBS6hpYmo38QpNry10COh8AYcxHGOR6zXH1TqATz6%2FVrJefoOJbmkO4BD9YMbmM0NUJgJp6CUXauCvW7Y5AjN&amp;nvMid=32291646618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시콤보 FH25EAE + FX4EC (FH25EAEX)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=4LeiGrTOIABDzFOx0hZGbf%2F%2F%2Fw%3D%3Ds41vGnMgsdN308vnD7M3Fg8kOQC89eBPcekVQ4CP2Xo7dpgAIic16NITt4jHu2Ti7ju06V512rNRnXyp15K3pVR4pza8ebIOIXPrPsGGS95ek6v2w9jBqMGR4TTsgYaQnBiiky7mjf%2BjWG524ALWapwUOefY1TJwEbx3WrdsF8LarasQCfTEKxvQn%2BeQ6%2FVKV4fjRAlDFwdiJW7fepv67T4BsJjzV%2F3vl5Lmd9HbkUGJn3q95NjjQE0qne99AS6r8MEDgjI8Enl0MBuKjLqeLIhQXbTvyYQsc9P4uGweUTPsz3DmtISJjj9udqR03Xu67MOkXs46HnkbbHQPyKTIgroBsJjzV%2F3vl5Lmd9HbkUGI%2FzdYC%2FwYAihDQzAs9Z5v9T%2FC70O9w0aV5btEegbBpniEhb%2B5%2BbgCLWD5ufmjwVaDy9XoaePa1XEdlJcq38ynebIg%2BDDEs4eTs%2BRG%2B626trKAhfbmRc6T9Q91MqoVII6rVArcaZfFR%2FR3GfEq1nSn6PUpfJHGDEr3FD5hV6h6qZwdZOKoK%2BpVAj%2BHg7AknV8SB5blJkdRdRckiTQ1edlEAa6twkU1SeI8U8ZiL2XHI6gGE2Dqk7%2F7DptJHBb9246Qwl95MjaZKRf7efR%2B4U6sE7cxGzYChfK321Rot9Dojc29TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=46539993618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 FX23WXNW + RD20WXNW (W20WAN)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=5OcHBbPCM6kMpJe9aE7dhf%2F%2F%2Fw%3D%3Ds756Y23MhQnynw1LD8Gt6mOGQTE0Rm9ig2xoZJBBi4v5v3IvWzocaL23pIgghihKfCcnO1DRV%2FB749benGjeCDoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7VH9oTzv6yhUlgRKLb8VfvHIvUYzN7UHQZVMCDcmuHRW7QsxecIzKaIypeTbPnOVp3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwEGvQHqfp8w8EMEflHDjrneSmstIe9JBj%2Fw4c4Jw7tQ0jTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4V42qBGuqSAML03ZTSTSdfBCMOBZv9Al17ik98%2FmzZpM0qNGnYP2mQGFwl2o9AJeRMe2CcFAEsgc8VkzCHR9iyensxNKI95s7esGYFKchSfEgtK%2FlJjOKzlJV2IEBfprxFNDoclNMmHXPioJ31kdtC84Czte%2BPFbDrtE%2B%2B0qbtYzs4VuAEzXh6UeEiXRG0CuS9l%2F%2FHAlSVPIP7kapiv4CIQw0s7DbbGxJwPGOsxDUvwMY6%2F74bs%2FzNmznhIO5N5zjVOjRF9k1hXzlz50qBhsvXprsx1Kd2ulY96gNvv%2FZKlkWhopkeKUdu5q4dSKA0zkoA%3D&amp;nvMid=31368381619&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 TR12BL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0p4cNZUH7o0UsJiDQ%2BgBpP%2F%2F%2Fw%3D%3Ds3mX7Menh7c1Zcyv6u5Whz2ySttQE46Vix5v7sU%2BbJ%2BVTWY5MvHExC5BUTXXjdBTunSLeIFVBWm6xoS9QMpjwT9of6jW5jHdz%2FbROY2pgmykluxxfm60J9z8rnZUjvqTWeIMETIVUlcuYPsO5VDEu%2FjIPr%2F5CRSzqOfZgwIMO6TFOuPmSQ5E3bvXMeMdcqTVCSWzUz3G5xfGQ8%2B3tBOZJEWvqR2unsG9Pw6XBns%2FftjI1e1RjHsadSr9rnPrDfvOANermimP%2BydvNlILo7HRzwf7bU911pekVsIzBteO%2B34tKPFapsAFzQJADkaZQnHV2s9Lg1tF9oHsPlENC8ZZVYGvqR2unsG9Pw6XBns%2FftjJmn%2B6FVZ%2Fm0w7K7lHYQAO7ch53d25SgXT%2FnNUwEFovCjokh7KNEkkbwBBKOUFOEEqPBhgRTtSCdX9kFf3f6MNHPjOuGMcCSK%2FQC45v5lGJHiI28QDIftdPo5sZ73mZF1Sr29wu8nIVan3cBfMevnhp8Bp8G3Tytu%2FBbutZxf1MGJMIAhJx3PvAk%2BpVoL9jUmbxHQrddB8OaS3mjVXFsPlpyt7L2FlUds1GUFicxtQOguzlDayFf3PmCtbUdXPVcyExr6wczoAqd3ZFcGt592S6gqgOvq6z5EpEI5N2xav1Mg%3D%3D&amp;nvMid=21126513760&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T18MX7A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=boFJ0w5d5Lmse8smPxyZ0%2F%2F%2F%2Fw%3D%3DsacAeHwtNmyhQ1xVRaVsIjT1yyeHyhqOqHxC2lzxczuVXa4YJ85H8DevQM9Yzo5P9J%2BKu8bR5vyt%2BpgMOmUpt4UbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisCAgROypHxe3E3Vix8rmAVSEKhFCa9yOAg%2FnrUGF%2BuTvzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ67Fx8Dd7StM4c2N8tKhr35WovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhkrJjtkIlE%2BD5Boko1Swimpw9%2FDMX2S1ZzF2txO07wpTQlP5Q8WllscNF3wegj9I65gp%2B6h%2FA%2BU%2BmQfK31kpnFfEA%2BjanfFwi84KJevrVW5BUDzqUlJyP99T2t8EWD0VIjr%2Fvhuz%2FM2bOeEg7k3nONVhcFrWGjZmeVYSi0RR5e6zPS0Lg%2FK7mGoNCMzx1QibcaGimR4pR27mrh1IoDTOSgA%3D%3D&amp;nvMid=36820698620&amp;catId=50002343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F9WPBY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=0QvwPwlN0JnGC0Q2AUnCvv%2F%2F%2Fw%3D%3Ds23ENcohdErpc5qg8TNWxe1obS0EZFhGskTIPBg2DWzJXa4YJ85H8DevQM9Yzo5P9LEGLZI2D9bLs5%2FigKgT1xEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOit65oOaOxyxAhuQBNKe4Z3R0BFkq%2Ft93zSCVNVPTRTq9%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ619Oy%2BHEG8o8zpOMgzMUVP2ovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZSg0G49vA8jLnBtxXlS0k6pw9%2FDMX2S1ZzF2txO07wpQeIborIFQiODmpwAxFbWxXzhW4ATNeHpR4SJdEbQK5L9zAOYWuVxOIDPm0uU0aR5Gg3b4f9AIvV%2FZl2jffbn87%2BgtF15PMkmjkNDmi88yMRcjzOYX1hvdtnBuLGLZp95rt7ec0Ppq1ZYVYPod8RK5uy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=35481308618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 트롬 F9WKBY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=vnwc2UReoo8%2BRWFpFXT7XP%2F%2F%2Fw%3D%3Dsd3qFTmCoBW4sAT8h5e1gS8NM%2Bd54mDJVSxAZ23i9T7Nv3IvWzocaL23pIgghihKfur9y7gz0b%2BIN%2Ft7RWuWDjoZnlrSZr8PDPdBCvs8uWtdKzInqKADQtYsSu9KSIlX7VH9oTzv6yhUlgRKLb8VfvHIvUYzN7UHQZVMCDcmuHRW7QsxecIzKaIypeTbPnOVp3IZpKv7R1G7ftbswwgHg0WT0ijqJmgB8QFB%2BxuSEEwGkwJwM4W%2FmeNhcOsIjfbv7JlqSttCu91Gdc%2FMCqPYbMDTXXFpKayy4sE0lZE%2B60GwOes2CAYVhJrI4Xb1d3BirO0frLkiCUSr4ACpyxJhKCMHPv45Edr5fvvv%2FlTzZa4X%2Fv72cOEwkXil3DkFpWLjcR4oB3lAVqlRaF9TUIkYZpUqNGnYP2mQGFwl2o9AJeRPO7X%2B7%2FLr1GZI1uNifps79fvV3ZcEXzfOfKxbVYjFxIgtK%2FlJjOKzlJV2IEBfprxGzyW0E2NsjKg%2BQu7T25Xb6J%2F%2FzoRMrlezL65KYSbBLwiFF15pCZ0Fx1rh9qVaTO8VP4PMPHCnudPTZjGRUD3iUqVyVhz8IKqGUlT%2Bzpc50NU4yAADaBxd6vPOf1PpRJUEu6T5S2%2BK16DXItYmBr8l0Bq7h9PA5SrIXrcWPClBGWw%3D%3D&amp;nvMid=20914901839&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 오브제컬렉션 FX24ENE + RD20GNG (FX24ENE-GNG)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=iBwRmeHQucthMG%2Bzvq3c6P%2F%2F%2Fw%3D%3Ds93YA1qGXKX0swyBmEyjm08beHDK7NxlRGlhFEG2D0h9Xa4YJ85H8DevQM9Yzo5P9kiCOGzJ%2FSjeHA2cS69x8mUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOis3gQYCIDGzl2Efs%2BZZkEpBY0Mxh2NRenIgLnn7%2Bq1LRfzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6QnJzb%2BsKSO17ybtgBDaJgWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZWPQuXcvszsRfkWZZVrO41pw9%2FDMX2S1ZzF2txO07wpTJ7p07eD2jpObLkPTE2hpJtzvlxqpxDgewRB6dbNWWbeJWCRVgXsj5Af5AHLm8GSvaU9WzlLU8ezevedyQmTKhRK9R%2BArccceP81zB8Naj30%2Fg8w8cKe509NmMZFQPeJS943DGipSz2flxAvISei4n8GiKIa%2FQOIdfZv7Jyh%2BCP0VyAw9vI7EfwnzEScDg%2BRkGruH08DlKshetxY8KUEZb&amp;nvMid=38521858618&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 워시타워 컴팩트 F13EJN + RH10GJN (W10EGN)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=M1SdJHeXNa2InbgB6%2FEnw%2F%2F%2F%2Fw%3D%3DsKXUqbtoM4seMO4CZokdgh%2FQ8um2A66R%2FhhaLyz4GAcBXa4YJ85H8DevQM9Yzo5P9DMRPxsVqLmIef2ZjY3XeiUbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOiucCECpi5iZAaCiVK%2FPxW2DedjynQh4vTkZM5%2B2%2F76pQ%2FzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6qQ11qkD9iWKsP8XD2%2B8pwWovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZ0caopwSI5SGKRDWujmxhRJw9%2FDMX2S1ZzF2txO07wpQuc0JUPHVXAaciEQdHMq5ZE1KGhZ6nuVrveldTPgfYwvI0fIFRfBZUPaSLRPGc3PIokk2Hx7SR1OxRe6BpImtD7ZCLtdo2CBxkxTQt6gvDIWJxyHBE3CYnzhPLG%2BOCDMX4f4hTbnmEaj%2F3NFmNtE5XubIKfO2lLu3y631YDeF2BOR79U%2F6Az3gE9mQ%2Flgn57E%3D&amp;nvMid=34643320621&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼성전자 비스포크그랑데AI원바디 WF2420HCEEC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=TSw01j4JAZuU9F%2BYM6GKLv%2F%2F%2Fw%3D%3DsfkfA%2FPHE%2BynDA0lqyU19vJt9F%2F4Xo%2FwzwmEAZPUIv%2FRXa4YJ85H8DevQM9Yzo5P9imU7Ck9t%2FqOpUtNcSu5oNEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOisbqskD3rL0Pthz4VZukkJBgUhmFDs54Vh%2BzK0AMQ648fzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6y101fC%2BkG59A0g7CGTQdkmovNxFWzA781dOsDXmXgY1Hg5ZnKAO2SyrHMWZpBjmZfEDgp2G0wEeghvqbVyssNJw9%2FDMX2S1ZzF2txO07wpRPDftRg5hwRyYYlsoEohe8MNqGdfpivUR%2FkuWV57RAM3tqS71FQ0yR73udmK%2FAWLnjXSxp8kYvJ6rrGP0i5Y%2F9DWrhHEcp0p%2F%2FKKziu53PdH1vrDbFwZHJtZOoeb0rvFWyH09PwBgZ%2BbNULBhHRJpCVoWd0jB03C5aYq3HUc1IKtSSLJQZncWk8e8Ttfjz6Fs%3D&amp;nvMid=39766096619&amp;catId=50002344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LG전자 통돌이 T18WX7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cr.shopping.naver.com/adcr.nhn?x=54JGy0Bsmh1eg4G5U5fBQf%2F%2F%2Fw%3D%3DsSMtRcR5Z2Ky%2Bh3Yd22WldPL546YD66D%2F80LavRVGBxlXa4YJ85H8DevQM9Yzo5P9WYZQqK9Jbj6cIVR3hjannEbAoeRkvpJaJBMwPydFbM8QhkkHXK4%2FmSRy5icYE%2F27F9aHXaoSMO9C39ahDAAZn9kqovtbhcpiFbWgfhesx1J82T9zrerj4pQIpjRz165eZ51b4zIIhzI2xYZuL9f9QD9rXyqENDUD8omnd%2BAEOivupatd2G5fyJQxfe1Vu8kyeEg3jXD9IM74lfBf7%2BmgpPzqFU%2Fs%2B07B3Ca39cGtz57WzGGbMWUNwIM9B3jNbJEA7jZ%2BXD9kTjjKSyD4ZA1evD9rXyqENDUD8omnd%2BAEOivf3Vb8LXDlJWzaxi1N0VJ6gAwApBUF2JxcfGdVXfgUlGovNxFWzA781dOsDXmXgY0psp7Gb38E95chLTZoHBJhHDAysY1KbWtSom11GkDpa5w9%2FDMX2S1ZzF2txO07wpSVrJnBLAA7%2FzviNTlZIZXhzhW4ATNeHpR4SJdEbQK5L2hm%2B8WjTO4t3Zv8r1%2Bpab38BibsFuyOkNxuABmQlkaN%2BgtF15PMkmjkNDmi88yMRVUOynZ%2BvegerM2xmDV3yu72qWC2PdOAMyaIbe9TIv8cy1Vhq%2FH77x9Zlr1IFzyuow%3D%3D&amp;nvMid=37424382622&amp;catId=50002343</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -528,7 +1191,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -553,7 +1216,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>90000</x:v>
+        <x:v>214900</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -564,7 +1227,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>119000</x:v>
+        <x:v>249000</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -575,7 +1238,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>178900</x:v>
+        <x:v>349000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -586,7 +1249,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>379000</x:v>
+        <x:v>329000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -630,7 +1293,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>221870</x:v>
+        <x:v>224500</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -641,7 +1304,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>169180</x:v>
+        <x:v>171980</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -652,7 +1315,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>164880</x:v>
+        <x:v>161890</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -663,7 +1326,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>154700</x:v>
+        <x:v>164880</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -685,7 +1348,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>381000</x:v>
+        <x:v>479000</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -696,7 +1359,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>518670</x:v>
+        <x:v>145900</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -707,7 +1370,370 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>479000</x:v>
+        <x:v>431520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>354180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>239000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>518660</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>135930</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>277770</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>295770</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>387720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>339000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>308590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>289000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>379000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>279000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>329000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>219000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>165990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>413990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>620000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>303750</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>398940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>129000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>159000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>137990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>279000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>231350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>279000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>229000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>299000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>499000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>350000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="n">
+        <x:v>449910</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="n">
+        <x:v>159000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="n">
+        <x:v>1390000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="n">
+        <x:v>89000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -724,7 +1750,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -743,10 +1769,10 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>2190000</x:v>
@@ -754,21 +1780,21 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>2450000</x:v>
+        <x:v>2227200</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>1418090</x:v>
@@ -776,10 +1802,10 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>1700860</x:v>
@@ -787,13 +1813,442 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>460621</x:v>
+        <x:v>461180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>383440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>555320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>1189450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>1051000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>993240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>504130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>315620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>1562694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>1990000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>1047190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>622310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>2009870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>1144400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>1005082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>1129640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1792200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>1339810</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>575250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>1644740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>1599200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>1913930</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>430970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>300480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>226650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>2448171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>1207130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>1473430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>189230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>1060790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>307820</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>577350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>1553100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>1047190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>363090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>808620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>451340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>210000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>474090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>590490</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -810,7 +2265,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -829,57 +2284,486 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>492250</x:v>
+        <x:v>3399000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>199000</x:v>
+        <x:v>2239390</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>593300</x:v>
+        <x:v>596211</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>731870</x:v>
+        <x:v>2118110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>351220</x:v>
+        <x:v>732685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>350090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>2269000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>395650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>323900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>430080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>357970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>659720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>419780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>712880</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>3463380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>1001440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>618980</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>892330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>529030</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>441390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1108790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>319640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>2289000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>2494000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>1611150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>1015650</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>420230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="n">
+        <x:v>424990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="n">
+        <x:v>706390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="n">
+        <x:v>2494000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="n">
+        <x:v>1452380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="n">
+        <x:v>521890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="n">
+        <x:v>889970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="n">
+        <x:v>1349480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="n">
+        <x:v>3975780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="n">
+        <x:v>2048300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="n">
+        <x:v>351520</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="n">
+        <x:v>540000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="n">
+        <x:v>447280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="n">
+        <x:v>439720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="n">
+        <x:v>2224990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="n">
+        <x:v>2070680</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="n">
+        <x:v>1925870</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="n">
+        <x:v>453150</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -896,12 +2780,35 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>518660</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -915,12 +2822,299 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>2227200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>1700860</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>555320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>1189450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>1051000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>993240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>504130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>1562694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>1047190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>622310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>1144400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>1129640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>1792200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>1339810</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>575250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>1644740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>1599200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>1913930</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>2448171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>1207130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>1473430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>1060790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>1553100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>1047190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>590490</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -934,12 +3128,244 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>2239390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>596211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>2118110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>2269000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>659720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>1001440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>892330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>529030</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>1108790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>2494000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>706390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>2494000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>521890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>889970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>1349480</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>3975780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>2048300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>540000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>2224990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>2070680</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
